--- a/excel_input/Updated_KEY_ORGANIZERS.xlsx
+++ b/excel_input/Updated_KEY_ORGANIZERS.xlsx
@@ -7,23 +7,21 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="LEADERS" sheetId="1" r:id="rId1"/>
-    <sheet name="OPERATIONS TEAM" sheetId="2" r:id="rId2"/>
-    <sheet name="FINANCE TEAM" sheetId="3" r:id="rId3"/>
-    <sheet name="PARTNER EXPERIENCE TEAM" sheetId="4" r:id="rId4"/>
-    <sheet name="STUDENT SUCCESS TEAM" sheetId="5" r:id="rId5"/>
-    <sheet name="IT DEVELOPMENT TEAM" sheetId="6" r:id="rId6"/>
-    <sheet name="MARKETING &amp; COMMUNICATIONS TEAM" sheetId="7" r:id="rId7"/>
-    <sheet name="CREATIVES TEAM" sheetId="8" r:id="rId8"/>
-    <sheet name="CONSULTANTS" sheetId="9" r:id="rId9"/>
-    <sheet name="ISSUE MANAGEMENT TEAM" sheetId="10" r:id="rId10"/>
+    <sheet name="OPERATIONS TEAM" sheetId="1" r:id="rId1"/>
+    <sheet name="FINANCE TEAM" sheetId="2" r:id="rId2"/>
+    <sheet name="PARTNER EXPERIENCE TEAM" sheetId="3" r:id="rId3"/>
+    <sheet name="STUDENT SUCCESS TEAM" sheetId="4" r:id="rId4"/>
+    <sheet name="IT DEVELOPMENT TEAM" sheetId="5" r:id="rId5"/>
+    <sheet name="MARKETING &amp; COMMUNICATIONS TEAM" sheetId="6" r:id="rId6"/>
+    <sheet name="CREATIVES TEAM" sheetId="7" r:id="rId7"/>
+    <sheet name="CONSULTANTS" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="445">
   <si>
     <t>Name</t>
   </si>
@@ -52,468 +50,453 @@
     <t>LinkedIn Profile_y</t>
   </si>
   <si>
-    <t>Mark Buchner</t>
-  </si>
-  <si>
-    <t>Suhana Shrestha</t>
-  </si>
-  <si>
-    <t>mark.buchner@senecapolytechnic.ca</t>
-  </si>
-  <si>
-    <t>sshrestha140@myseneca.ca</t>
-  </si>
-  <si>
-    <t>Chair</t>
-  </si>
-  <si>
-    <t>Chief of Staff</t>
+    <t>Irus Majam</t>
+  </si>
+  <si>
+    <t>Umar Nazarin Packeer</t>
+  </si>
+  <si>
+    <t>Ashmy Thomas</t>
+  </si>
+  <si>
+    <t>Shikha Thing</t>
+  </si>
+  <si>
+    <t>Jasmeen Kaur</t>
+  </si>
+  <si>
+    <t>Nischal Sapkota</t>
+  </si>
+  <si>
+    <t>Keerthivaasan Elango</t>
+  </si>
+  <si>
+    <t>Divanshu</t>
+  </si>
+  <si>
+    <t>Winlyn Luena</t>
+  </si>
+  <si>
+    <t>Sanam Maharjan</t>
+  </si>
+  <si>
+    <t>Nisal Chandana Ekanayake</t>
+  </si>
+  <si>
+    <t>Upesha Pankajbhai Patel</t>
+  </si>
+  <si>
+    <t>Naitik Pankaj Kumar Raval</t>
+  </si>
+  <si>
+    <t>Harmanjot Singh</t>
+  </si>
+  <si>
+    <t>Andrea Huesca Enciso</t>
+  </si>
+  <si>
+    <t>Brenda CÃ¡ceres</t>
+  </si>
+  <si>
+    <t>Haru Ai Okabe</t>
+  </si>
+  <si>
+    <t>Khushi Ajit Vaswani</t>
+  </si>
+  <si>
+    <t>Ramesh Banjade</t>
+  </si>
+  <si>
+    <t>Biplav Neupane</t>
+  </si>
+  <si>
+    <t>Sagar Yonjan</t>
+  </si>
+  <si>
+    <t>icmajam@myseneca.ca</t>
+  </si>
+  <si>
+    <t>unpackeer@myseneca.ca</t>
+  </si>
+  <si>
+    <t>athomas141@myseneca.ca</t>
+  </si>
+  <si>
+    <t>sthing2@myseneca.ca</t>
+  </si>
+  <si>
+    <t>jasmeen-kaur39@myseneca.ca</t>
+  </si>
+  <si>
+    <t>nsapkota5@myseneca.ca</t>
+  </si>
+  <si>
+    <t>kelango1@myseneca.ca</t>
+  </si>
+  <si>
+    <t>divanshu2@myseneca.ca</t>
+  </si>
+  <si>
+    <t>wluena@myseneca.ca</t>
+  </si>
+  <si>
+    <t>smaharjan23@myseneca.ca</t>
+  </si>
+  <si>
+    <t>ncekanayake@myseneca.ca</t>
+  </si>
+  <si>
+    <t>uppatel8@myseneca.ca</t>
+  </si>
+  <si>
+    <t>npkraval@myseneca.ca</t>
+  </si>
+  <si>
+    <t>hsingh958@myseneca.ca</t>
+  </si>
+  <si>
+    <t>ahuesca-enciso@myseneca.ca</t>
+  </si>
+  <si>
+    <t>cvbrenda@myseneca.ca</t>
+  </si>
+  <si>
+    <t>haokabe@myseneca.ca</t>
+  </si>
+  <si>
+    <t>kvaswani1@myseneca.ca</t>
+  </si>
+  <si>
+    <t>rbanjade@myseneca.ca</t>
+  </si>
+  <si>
+    <t>bneupane9@myseneca.ca</t>
+  </si>
+  <si>
+    <t>slama12@myseneca.ca</t>
+  </si>
+  <si>
+    <t>Operations</t>
+  </si>
+  <si>
+    <t>Event Director</t>
+  </si>
+  <si>
+    <t>Project Manager, Operations</t>
+  </si>
+  <si>
+    <t>Daily Reports Officer</t>
+  </si>
+  <si>
+    <t>Weekly Reports Officer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manager,Â Rules, Regulations, Prizing, and JudgingÂ </t>
+  </si>
+  <si>
+    <t>Prizing</t>
+  </si>
+  <si>
+    <t>Judging</t>
+  </si>
+  <si>
+    <t>School Facilities Liaison</t>
+  </si>
+  <si>
+    <t>Manager, Event SWAG</t>
+  </si>
+  <si>
+    <t>SWAG Officer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manager, Event Catering </t>
+  </si>
+  <si>
+    <t>Catering Officer</t>
+  </si>
+  <si>
+    <t>Manager, Registrations</t>
+  </si>
+  <si>
+    <t>Registration Officer</t>
+  </si>
+  <si>
+    <t>Broadcast Officer</t>
+  </si>
+  <si>
+    <t>Manager, Microcredentials</t>
+  </si>
+  <si>
+    <t>Operations Officer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMC </t>
+  </si>
+  <si>
+    <t>Event and Media Production</t>
+  </si>
+  <si>
+    <t>Business Tech Management</t>
+  </si>
+  <si>
+    <t>Weekly Operations Updates /Registration Team</t>
+  </si>
+  <si>
+    <t>Integration Management / Project Control Officer</t>
+  </si>
+  <si>
+    <t>Stage Management</t>
+  </si>
+  <si>
+    <t>Procurement Team</t>
+  </si>
+  <si>
+    <t>Procurement Team (Food / Merchandise)</t>
+  </si>
+  <si>
+    <t>Procurement Team (SWAG / Supplies)</t>
+  </si>
+  <si>
+    <t>Registration Team</t>
+  </si>
+  <si>
+    <t>Broadcast Team</t>
+  </si>
+  <si>
+    <t>Runner</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/Resume%20Photo_Isaiah%20Cyrus%20Majam.jpeg</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/410776068_10229661516069596_36086869690913958_Umar%20Nazarin%20Packeer.jpg</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/1_Ashmy%20Thomas.jpg</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/PHOTO-2024-09-10-22-31-19_Shikha%20Thing.jpg</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG-20250127-WA0057_-%20Jasmeen%20Kaur.jpg</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/1650200403948%20(1)_Nischal%20Sapkota.jpg</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_7466_Keerthivaasan%20Elango.jpeg</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_0030_-%20Divanshu.jpeg</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/DSCF6056_Winlyn%20Luena.JPG</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/_MG_0441_Sanam%20Maharjan.JPG</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/profile%20photo_Nisal%20Chandana%20Ekana.jpg</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_20211210_145625_Upesha%20Pankajbhai%20Pa.jpg</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/WhatsApp%20Image%202024-04-26%20at%209.57.04%20AM_Naitik%20Pankaj%20Kumar.jpeg</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_3813_Harmanjot%20Singh.jpeg</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/Capture0526_Khushi%20Ajit%20Vaswani.jpg</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_4534_Ramesh%20Banjade.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/irusmajam/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/umar-packeer-40b58412b/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ashmy-thomas/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/shikha-thing-82ab52177/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/jasmeen-kaur-401a96338?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/nischalsapkota977/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/keerthivaasan01?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=ios_app</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/divanshu2001</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/winlynluena</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/sanammaharjan01</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/nisal-ekanayake</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/upesha-patel-b76852192?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/naitik-raval-199128155/</t>
+  </si>
+  <si>
+    <t>http://linkedin.com/in/harmanjot-singh-05807820b</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/khushi-vaswani/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ramesh-banjade-3b80261b3?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=ios_app</t>
+  </si>
+  <si>
+    <t>Seyedesomaye Najafi (Samira)</t>
+  </si>
+  <si>
+    <t>snajafi6@myseneca.ca</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manager,Â Event AccountingÂ </t>
+  </si>
+  <si>
+    <t>Finance Planning</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/unnamed_Seyedesomaye%20Najafi.jpg</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/</t>
+  </si>
+  <si>
+    <t>Fenil Mehta</t>
+  </si>
+  <si>
+    <t>Lily Ngo</t>
+  </si>
+  <si>
+    <t>Abhinaya Narayanan Subramanian</t>
+  </si>
+  <si>
+    <t>Abigail Cabazal</t>
+  </si>
+  <si>
+    <t>Justin Chu</t>
+  </si>
+  <si>
+    <t>Shreet Ketan Dave</t>
+  </si>
+  <si>
+    <t>Krishita Nirmesh Vakil</t>
+  </si>
+  <si>
+    <t>Manjot Singh</t>
+  </si>
+  <si>
+    <t>Abhishek Pal</t>
+  </si>
+  <si>
+    <t>Mankomal Kaur Gandhara</t>
+  </si>
+  <si>
+    <t>Jay Vijaykumar Vakil</t>
+  </si>
+  <si>
+    <t>Subhankar Gon</t>
+  </si>
+  <si>
+    <t>Ayush Shah</t>
+  </si>
+  <si>
+    <t>fmmehta@myseneca.ca</t>
+  </si>
+  <si>
+    <t>lhngo1@myseneca.ca</t>
+  </si>
+  <si>
+    <t>anarayanan-subramani@myseneca.ca</t>
+  </si>
+  <si>
+    <t>acabazal@myseneca.ca</t>
+  </si>
+  <si>
+    <t>hychu2@myseneca.ca</t>
+  </si>
+  <si>
+    <t>skdave@myseneca.ca</t>
+  </si>
+  <si>
+    <t>knvakil@myseneca.ca</t>
+  </si>
+  <si>
+    <t>msingh802@myseneca.ca</t>
+  </si>
+  <si>
+    <t>apal21@myseneca.ca</t>
+  </si>
+  <si>
+    <t>mkgandhara@myseneca.ca</t>
+  </si>
+  <si>
+    <t>jvakil@myseneca.ca</t>
+  </si>
+  <si>
+    <t>sgon@myseneca.ca</t>
+  </si>
+  <si>
+    <t>ayushshahas17@outlook.com</t>
+  </si>
+  <si>
+    <t>P.E / Operations</t>
+  </si>
+  <si>
+    <t>Partner Experience</t>
+  </si>
+  <si>
+    <t>Director, Partner Experience</t>
+  </si>
+  <si>
+    <t>Manager, Corporate Relations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Control Officer. Partner Exp. </t>
+  </si>
+  <si>
+    <t>Partner Exp.  Officer</t>
+  </si>
+  <si>
+    <t>Manager, Not-For-Profit Relations</t>
+  </si>
+  <si>
+    <t>Manager, WIL Coordination</t>
+  </si>
+  <si>
+    <t>Manager, Government Relations</t>
+  </si>
+  <si>
+    <t>Alumni</t>
+  </si>
+  <si>
+    <t>Business Analytics</t>
   </si>
   <si>
     <t>PMC</t>
   </si>
   <si>
-    <t>Irus Majam</t>
-  </si>
-  <si>
-    <t>Umar Nazarin Packeer</t>
-  </si>
-  <si>
-    <t>Ashmy Thomas</t>
-  </si>
-  <si>
-    <t>Shikha Thing</t>
-  </si>
-  <si>
-    <t>Jasmeen Kaur</t>
-  </si>
-  <si>
-    <t>Nischal Sapkota</t>
-  </si>
-  <si>
-    <t>Keerthivaasan Elango</t>
-  </si>
-  <si>
-    <t>Divanshu</t>
-  </si>
-  <si>
-    <t>Winlyn Luena</t>
-  </si>
-  <si>
-    <t>Sanam Maharjan</t>
-  </si>
-  <si>
-    <t>Nisal Chandana Ekanayake</t>
-  </si>
-  <si>
-    <t>Upesha Pankajbhai Patel</t>
-  </si>
-  <si>
-    <t>Naitik Pankaj Kumar Raval</t>
-  </si>
-  <si>
-    <t>Harmanjot Singh</t>
-  </si>
-  <si>
-    <t>Andrea Huesca Enciso</t>
-  </si>
-  <si>
-    <t>Brenda Cáceres</t>
-  </si>
-  <si>
-    <t>Haru Ai Okabe</t>
-  </si>
-  <si>
-    <t>Khushi Ajit Vaswani</t>
-  </si>
-  <si>
-    <t>Ramesh Banjade</t>
-  </si>
-  <si>
-    <t>Biplav Neupane</t>
-  </si>
-  <si>
-    <t>Sagar Yonjan</t>
-  </si>
-  <si>
-    <t>icmajam@myseneca.ca</t>
-  </si>
-  <si>
-    <t>unpackeer@myseneca.ca</t>
-  </si>
-  <si>
-    <t>athomas141@myseneca.ca</t>
-  </si>
-  <si>
-    <t>sthing2@myseneca.ca</t>
-  </si>
-  <si>
-    <t>jasmeen-kaur39@myseneca.ca</t>
-  </si>
-  <si>
-    <t>nsapkota5@myseneca.ca</t>
-  </si>
-  <si>
-    <t>kelango1@myseneca.ca</t>
-  </si>
-  <si>
-    <t>divanshu2@myseneca.ca</t>
-  </si>
-  <si>
-    <t>wluena@myseneca.ca</t>
-  </si>
-  <si>
-    <t>smaharjan23@myseneca.ca</t>
-  </si>
-  <si>
-    <t>ncekanayake@myseneca.ca</t>
-  </si>
-  <si>
-    <t>uppatel8@myseneca.ca</t>
-  </si>
-  <si>
-    <t>npkraval@myseneca.ca</t>
-  </si>
-  <si>
-    <t>hsingh958@myseneca.ca</t>
-  </si>
-  <si>
-    <t>ahuesca-enciso@myseneca.ca</t>
-  </si>
-  <si>
-    <t>cvbrenda@myseneca.ca</t>
-  </si>
-  <si>
-    <t>haokabe@myseneca.ca</t>
-  </si>
-  <si>
-    <t>kvaswani1@myseneca.ca</t>
-  </si>
-  <si>
-    <t>rbanjade@myseneca.ca</t>
-  </si>
-  <si>
-    <t>bneupane9@myseneca.ca</t>
-  </si>
-  <si>
-    <t>slama12@myseneca.ca</t>
-  </si>
-  <si>
-    <t>Operations</t>
-  </si>
-  <si>
-    <t>Event Director</t>
-  </si>
-  <si>
-    <t>Project Manager, Operations</t>
-  </si>
-  <si>
-    <t>Daily Reports Officer</t>
-  </si>
-  <si>
-    <t>Weekly Reports Officer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manager, Rules, Regulations, Prizing, and Judging </t>
-  </si>
-  <si>
-    <t>Prizing</t>
-  </si>
-  <si>
-    <t>Judging</t>
-  </si>
-  <si>
-    <t>School Facilities Liaison</t>
-  </si>
-  <si>
-    <t>Manager, Event SWAG</t>
-  </si>
-  <si>
-    <t>SWAG Officer</t>
-  </si>
-  <si>
-    <t>Manager, Event Catering</t>
-  </si>
-  <si>
-    <t>Catering Officer</t>
-  </si>
-  <si>
-    <t>Manager, Registrations</t>
-  </si>
-  <si>
-    <t>Registration Officer</t>
-  </si>
-  <si>
-    <t>Broadcast Officer</t>
-  </si>
-  <si>
-    <t>Manager, Microcredentials</t>
-  </si>
-  <si>
-    <t>Operations Officer</t>
-  </si>
-  <si>
-    <t>Event and Media Production</t>
-  </si>
-  <si>
-    <t>Business Tech Management</t>
-  </si>
-  <si>
-    <t>Weekly Operations Updates /Registration Team</t>
-  </si>
-  <si>
-    <t>Integration Management / Project Control Officer</t>
-  </si>
-  <si>
-    <t>Stage Management</t>
-  </si>
-  <si>
-    <t>Procurement Team</t>
-  </si>
-  <si>
-    <t>Procurement Team (Food / Merchandise)</t>
-  </si>
-  <si>
-    <t>Procurement Team (SWAG / Supplies)</t>
-  </si>
-  <si>
-    <t>Registration Team</t>
-  </si>
-  <si>
-    <t>Broadcast Team</t>
-  </si>
-  <si>
-    <t>Runner</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/Resume%20Photo_Isaiah%20Cyrus%20Majam.jpeg</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/410776068_10229661516069596_36086869690913958_Umar%20Nazarin%20Packeer.jpg</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/1_Ashmy%20Thomas.jpg</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/PHOTO-2024-09-10-22-31-19_Shikha%20Thing.jpg</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG-20250127-WA0057_-%20Jasmeen%20Kaur.jpg</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/1650200403948%20(1)_Nischal%20Sapkota.jpg</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_7466_Keerthivaasan%20Elango.jpeg</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_0030_-%20Divanshu.jpeg</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/DSCF6056_Winlyn%20Luena.JPG</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/_MG_0441_Sanam%20Maharjan.JPG</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/profile%20photo_Nisal%20Chandana%20Ekana.jpg</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_20211210_145625_Upesha%20Pankajbhai%20Pa.jpg</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/WhatsApp%20Image%202024-04-26%20at%209.57.04%20AM_Naitik%20Pankaj%20Kumar.jpeg</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_3813_Harmanjot%20Singh.jpeg</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/Capture0526_Khushi%20Ajit%20Vaswani.jpg</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_4534_Ramesh%20Banjade.jpeg</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/irusmajam/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/umar-packeer-40b58412b/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/ashmy-thomas/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/shikha-thing-82ab52177/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/jasmeen-kaur-401a96338?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/nischalsapkota977/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/keerthivaasan01?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=ios_app</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/divanshu2001</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/winlynluena</t>
-  </si>
-  <si>
-    <t>www.linkedin.com/in/sanammaharjan01</t>
-  </si>
-  <si>
-    <t>www.linkedin.com/in/nisal-ekanayake</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/upesha-patel-b76852192?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/naitik-raval-199128155/</t>
-  </si>
-  <si>
-    <t>http://linkedin.com/in/harmanjot-singh-05807820b</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/khushi-vaswani/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/ramesh-banjade-3b80261b3?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=ios_app</t>
-  </si>
-  <si>
-    <t>Seyedesomaye Najafi (Samira)</t>
-  </si>
-  <si>
-    <t>snajafi6@myseneca.ca</t>
-  </si>
-  <si>
-    <t>Finance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manager, Event Accounting </t>
-  </si>
-  <si>
-    <t>Finance Planning</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/unnamed_Seyedesomaye%20Najafi.jpg</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/feed/</t>
-  </si>
-  <si>
-    <t>Fenil Mehta</t>
-  </si>
-  <si>
-    <t>Lily Ngo</t>
-  </si>
-  <si>
-    <t>Abhinaya Narayanan Subramanian</t>
-  </si>
-  <si>
-    <t>Abigail Cabazal</t>
-  </si>
-  <si>
-    <t>Justin Chu</t>
-  </si>
-  <si>
-    <t>Shreet Ketan Dave</t>
-  </si>
-  <si>
-    <t>Krishita Nirmesh Vakil</t>
-  </si>
-  <si>
-    <t>Manjot Singh</t>
-  </si>
-  <si>
-    <t>Abhishek Pal</t>
-  </si>
-  <si>
-    <t>Mankomal Kaur Gandhara</t>
-  </si>
-  <si>
-    <t>Jay Vijaykumar Vakil</t>
-  </si>
-  <si>
-    <t>Subhankar Gon</t>
-  </si>
-  <si>
-    <t>Ayush Shah</t>
-  </si>
-  <si>
-    <t>fmmehta@myseneca.ca</t>
-  </si>
-  <si>
-    <t>lhngo1@myseneca.ca</t>
-  </si>
-  <si>
-    <t>anarayanan-subramani@myseneca.ca</t>
-  </si>
-  <si>
-    <t>acabazal@myseneca.ca</t>
-  </si>
-  <si>
-    <t>hychu2@myseneca.ca</t>
-  </si>
-  <si>
-    <t>skdave@myseneca.ca</t>
-  </si>
-  <si>
-    <t>knvakil@myseneca.ca</t>
-  </si>
-  <si>
-    <t>msingh802@myseneca.ca</t>
-  </si>
-  <si>
-    <t>apal21@myseneca.ca</t>
-  </si>
-  <si>
-    <t>mkgandhara@myseneca.ca</t>
-  </si>
-  <si>
-    <t>jvakil@myseneca.ca</t>
-  </si>
-  <si>
-    <t>sgon@myseneca.ca</t>
-  </si>
-  <si>
-    <t>ayushshahas17@outlook.com</t>
-  </si>
-  <si>
-    <t>P.E / Operations</t>
-  </si>
-  <si>
-    <t>Partner Experience</t>
-  </si>
-  <si>
-    <t>Director, Partner Experience</t>
-  </si>
-  <si>
-    <t>Manager, Corporate Relations</t>
-  </si>
-  <si>
-    <t>Project Control Officer. Partner Exp.</t>
-  </si>
-  <si>
-    <t>Partner Exp. Officer</t>
-  </si>
-  <si>
-    <t>Manager, Not-For-Profit Relations</t>
-  </si>
-  <si>
-    <t>Manager, WIL Coordination</t>
-  </si>
-  <si>
-    <t>Manager, Government Relations</t>
-  </si>
-  <si>
-    <t>Alumni</t>
-  </si>
-  <si>
-    <t>Business Analytics</t>
-  </si>
-  <si>
     <t>Business Management</t>
   </si>
   <si>
@@ -649,6 +632,12 @@
     <t>Dwayne Jude Saldanha</t>
   </si>
   <si>
+    <t>Shaurya Sharma</t>
+  </si>
+  <si>
+    <t>Ruhail Hamza Mohamed</t>
+  </si>
+  <si>
     <t>kalmodal@myseneca.ca</t>
   </si>
   <si>
@@ -697,13 +686,19 @@
     <t>djsaldanha@myseneca.ca</t>
   </si>
   <si>
+    <t>ssharma596@myseneca.ca</t>
+  </si>
+  <si>
+    <t>rhmohamed1@myseneca.ca</t>
+  </si>
+  <si>
     <t>Student Success</t>
   </si>
   <si>
-    <t>Student Success Director</t>
-  </si>
-  <si>
-    <t>Challenge Set Liaison / Team Lead – Participant Support</t>
+    <t xml:space="preserve">  Student Success Director</t>
+  </si>
+  <si>
+    <t>Challenge Set Liaison / Team Lead â Participant Support</t>
   </si>
   <si>
     <t>Student Sucess Manager</t>
@@ -715,12 +710,15 @@
     <t>Conflict Resolution Manager</t>
   </si>
   <si>
-    <t>Conflict Resolution Officer</t>
-  </si>
-  <si>
     <t>Student Sucess Officer</t>
   </si>
   <si>
+    <t xml:space="preserve">  Student Sucess Officer</t>
+  </si>
+  <si>
+    <t>Data &amp; Administration Manager</t>
+  </si>
+  <si>
     <t>Computer System Technology</t>
   </si>
   <si>
@@ -736,6 +734,9 @@
     <t>Web development</t>
   </si>
   <si>
+    <t>ACF</t>
+  </si>
+  <si>
     <t>Colleges, Universities and Seneca</t>
   </si>
   <si>
@@ -931,7 +932,7 @@
     <t>QA/QC Manager</t>
   </si>
   <si>
-    <t>Tester</t>
+    <t>Frontend Tester</t>
   </si>
   <si>
     <t>Backend Tester</t>
@@ -943,7 +944,7 @@
     <t>Bachelors of Computer Science</t>
   </si>
   <si>
-    <t>Bachelor’s of Data Science and Analytics</t>
+    <t>Bachelorâs of Data Science and Analytics</t>
   </si>
   <si>
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/WhatsApp%20Image%202024-10-30%20at%2023.19.35_Rahul%20Amish%20Mamania.jpeg</t>
@@ -1012,202 +1013,265 @@
     <t>https://www.linkedin.com/in/xeoncao/</t>
   </si>
   <si>
+    <t>Vidhi Mehta</t>
+  </si>
+  <si>
+    <t>Mohammad Mozaffari</t>
+  </si>
+  <si>
+    <t>Ayda Safiri</t>
+  </si>
+  <si>
+    <t>Mobina Kazemi</t>
+  </si>
+  <si>
+    <t>Aayushi Mahendra Sharma</t>
+  </si>
+  <si>
+    <t>Justin Wong</t>
+  </si>
+  <si>
+    <t>Talia Ghalayini</t>
+  </si>
+  <si>
+    <t>Justice Asiedu</t>
+  </si>
+  <si>
     <t>Arafat Ahmed Ansari</t>
   </si>
   <si>
+    <t>Pavan Kumar</t>
+  </si>
+  <si>
+    <t>Safal Maharjan</t>
+  </si>
+  <si>
+    <t>Winona Putri Wirindra</t>
+  </si>
+  <si>
+    <t>Vanshil Lukhad</t>
+  </si>
+  <si>
+    <t>Kaifee Ali</t>
+  </si>
+  <si>
+    <t>vidhi236@my.yorku.ca</t>
+  </si>
+  <si>
+    <t>mmozaffri@myseneca.ca</t>
+  </si>
+  <si>
+    <t>asafiri1@myseneca.ca</t>
+  </si>
+  <si>
+    <t>kmobina@myseneca.ca</t>
+  </si>
+  <si>
+    <t>amsharma1@myseneca.ca</t>
+  </si>
+  <si>
+    <t>jwong301@myseneca.ca</t>
+  </si>
+  <si>
+    <t>tghalayini1@myseneca.ca</t>
+  </si>
+  <si>
+    <t>jasiedu1@myseneca.ca</t>
+  </si>
+  <si>
+    <t>aa8@myseneca.ca</t>
+  </si>
+  <si>
+    <t>pavan108@my.yorku.ca</t>
+  </si>
+  <si>
+    <t>smaharjan34@myseneca.ca</t>
+  </si>
+  <si>
+    <t>wpwirindra@myseneca.ca</t>
+  </si>
+  <si>
+    <t>vlukhad@myseneca.ca</t>
+  </si>
+  <si>
+    <t>kali64@myseneca.ca</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Manager, Marketing Strategy</t>
+  </si>
+  <si>
+    <t>Content Creators</t>
+  </si>
+  <si>
+    <t>Content Lead</t>
+  </si>
+  <si>
+    <t>Copywriter</t>
+  </si>
+  <si>
+    <t>Manager, Communications</t>
+  </si>
+  <si>
+    <t>Communications Officer</t>
+  </si>
+  <si>
+    <t>Project Manager, Marketing</t>
+  </si>
+  <si>
+    <t>Manager, Content Strategy</t>
+  </si>
+  <si>
+    <t>Video Editor</t>
+  </si>
+  <si>
+    <t>Videographer/Video editor</t>
+  </si>
+  <si>
+    <t>Digital Marketing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internation Business </t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Public Relations and Communications</t>
+  </si>
+  <si>
+    <t>Computer Engineering Technology</t>
+  </si>
+  <si>
+    <t>Creative Advertising</t>
+  </si>
+  <si>
+    <t>Visual Content Creation</t>
+  </si>
+  <si>
+    <t>Print Manager*</t>
+  </si>
+  <si>
+    <t>Content Creator</t>
+  </si>
+  <si>
+    <t>Communication manager</t>
+  </si>
+  <si>
+    <t>Podcast Manager</t>
+  </si>
+  <si>
+    <t>Branding Manager (Should be with creatives)</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_9242_Mohammad%20Mozaffari.jpeg</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/Screenshot_20250108_210739_Instagram_Ayda%20Safiri.jpg</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_6036_Mobina%20Kazemi.jpeg</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/JUSTICE_Justice%20Asiedu.jpg</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/Scanned%20Documents%20(4)_page-0001_Safal%20Maharjan.jpg</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/mohammad-mozaffari-4a13592a6?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=ios_app</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/aydasafiri</t>
+  </si>
+  <si>
+    <t>http://linkedin.com/in/mobina-kazemi-396992311</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/justice-asiedu-b42855346/</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/safal-maharjan-704588249</t>
+  </si>
+  <si>
+    <t>Le Xuan Hoa Dao (Hannah)</t>
+  </si>
+  <si>
+    <t>Edwin Ramirez</t>
+  </si>
+  <si>
+    <t>Sanabanu Basir Patel (Sana)</t>
+  </si>
+  <si>
     <t>Umut Deniz Eryigit</t>
   </si>
   <si>
+    <t>Zoe Lara Denise Lerin</t>
+  </si>
+  <si>
     <t>Dinh Quoc</t>
   </si>
   <si>
     <t>Chan Young Kim</t>
   </si>
   <si>
-    <t>Talia Ghalayini</t>
-  </si>
-  <si>
-    <t>Justice Asiedu</t>
-  </si>
-  <si>
-    <t>Vidhi Mehta</t>
-  </si>
-  <si>
-    <t>Zoe Lara Denise Lerin</t>
-  </si>
-  <si>
-    <t>Mohammad Mozaffari</t>
-  </si>
-  <si>
-    <t>Ayda Safiri</t>
-  </si>
-  <si>
-    <t>Mobina Kazemi</t>
-  </si>
-  <si>
-    <t>Aayushi Mahendra Sharma</t>
-  </si>
-  <si>
-    <t>Justin Wong</t>
-  </si>
-  <si>
-    <t>Pavan Kumar</t>
-  </si>
-  <si>
-    <t>Safal Maharjan</t>
-  </si>
-  <si>
-    <t>Winona Putri Wirindra</t>
-  </si>
-  <si>
-    <t>Vanshil Lukhad</t>
-  </si>
-  <si>
-    <t>Kaifee Ali</t>
-  </si>
-  <si>
-    <t>aa8@myseneca.ca</t>
+    <t>lxhdao@myseneca.ca</t>
+  </si>
+  <si>
+    <t>eramierez@myseneca.ca</t>
+  </si>
+  <si>
+    <t>sbpatel52@myseneca.ca</t>
   </si>
   <si>
     <t>uderyigit@myseneca.ca</t>
   </si>
   <si>
+    <t>zldlerin@myseneca.ca</t>
+  </si>
+  <si>
     <t>dto8@myseneca.ca</t>
   </si>
   <si>
     <t>cykim4@myseneca.ca</t>
   </si>
   <si>
-    <t>tghalayini1@myseneca.ca</t>
-  </si>
-  <si>
-    <t>jasiedu1@myseneca.ca</t>
-  </si>
-  <si>
-    <t>vidhi236@my.yorku.ca</t>
-  </si>
-  <si>
-    <t>zldlerin@myseneca.ca</t>
-  </si>
-  <si>
-    <t>mmozaffri@myseneca.ca</t>
-  </si>
-  <si>
-    <t>asafiri1@myseneca.ca</t>
-  </si>
-  <si>
-    <t>kmobina@myseneca.ca</t>
-  </si>
-  <si>
-    <t>amsharma1@myseneca.ca</t>
-  </si>
-  <si>
-    <t>jwong301@myseneca.ca</t>
-  </si>
-  <si>
-    <t>pavan108@my.yorku.ca</t>
-  </si>
-  <si>
-    <t>smaharjan34@myseneca.ca</t>
-  </si>
-  <si>
-    <t>wpwirindra@myseneca.ca</t>
-  </si>
-  <si>
-    <t>vlukhad@myseneca.ca</t>
-  </si>
-  <si>
-    <t>kali64@myseneca.ca</t>
-  </si>
-  <si>
-    <t>Marketing</t>
-  </si>
-  <si>
-    <t>Project Manager, Marketing</t>
+    <t>Designing</t>
+  </si>
+  <si>
+    <t>Creative Director</t>
+  </si>
+  <si>
+    <t>Merchandise Lead Designer</t>
+  </si>
+  <si>
+    <t>UI/UX Lead Designer</t>
   </si>
   <si>
     <t>Motion Graphics</t>
   </si>
   <si>
-    <t>Graphics Designer</t>
-  </si>
-  <si>
-    <t>Manager, Communication</t>
-  </si>
-  <si>
-    <t>Communications Officer</t>
-  </si>
-  <si>
-    <t>Manager, Marketing Strategy</t>
-  </si>
-  <si>
-    <t>Queen of Hackathon</t>
-  </si>
-  <si>
-    <t>Content Creators</t>
-  </si>
-  <si>
-    <t>Content Lead</t>
-  </si>
-  <si>
-    <t>Copywriter</t>
-  </si>
-  <si>
-    <t>Manager, Content Strategy</t>
-  </si>
-  <si>
-    <t>Video Editor</t>
-  </si>
-  <si>
-    <t>Videographer/Video editor</t>
+    <t>Queen of Hackathon/ Graphics Designer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graphics Designer </t>
+  </si>
+  <si>
+    <t>Graphic Design</t>
   </si>
   <si>
     <t>Graphics Design</t>
   </si>
   <si>
-    <t>Computer Engineering Technology</t>
-  </si>
-  <si>
-    <t>Digital Marketing</t>
-  </si>
-  <si>
-    <t>Internation Business</t>
-  </si>
-  <si>
-    <t>Business</t>
-  </si>
-  <si>
-    <t>Public Relations and Communications</t>
-  </si>
-  <si>
-    <t>Creative Advertising</t>
-  </si>
-  <si>
-    <t>Visual Content Creation</t>
-  </si>
-  <si>
-    <t>Podcast Manager</t>
-  </si>
-  <si>
-    <t>Master of Ceremony (Mixers, Quali, Finale)</t>
-  </si>
-  <si>
-    <t>Social Media Manager</t>
-  </si>
-  <si>
-    <t>Website Manager (Website Content)</t>
-  </si>
-  <si>
-    <t>Communication manager</t>
-  </si>
-  <si>
-    <t>Print Manager*</t>
-  </si>
-  <si>
-    <t>Content Creator</t>
-  </si>
-  <si>
-    <t>Branding Manager (Should be with creatives)</t>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/Hannah%20Dao_Hannah%20Dao.jpg</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_4585_Edwin%20Ramirez.jpeg</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_9421_Sanabanu%20Basir%20Patel.png</t>
   </si>
   <si>
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/resume%20photo_Dinh%20Quoc%20To.jpg</t>
@@ -1216,91 +1280,19 @@
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/Chan%20Young%20Kim-Digital%20Photo_Chan%20Young%20Kim.jpg</t>
   </si>
   <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/JUSTICE_Justice%20Asiedu.jpg</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_9242_Mohammad%20Mozaffari.jpeg</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/Screenshot_20250108_210739_Instagram_Ayda%20Safiri.jpg</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_6036_Mobina%20Kazemi.jpeg</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/Scanned%20Documents%20(4)_page-0001_Safal%20Maharjan.jpg</t>
+    <t>https://www.linkedin.com/in/hannah-dao-47784721b</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/me?trk=p_mwlite_feed-secondary_nav</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/sana-patel-968b46342</t>
   </si>
   <si>
     <t>www.linkedin.com/in/dinh-quoc-to-b17b09191</t>
   </si>
   <si>
     <t>https://www.linkedin.com/in/chanyoung-kim-6488a9269/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/justice-asiedu-b42855346/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/mohammad-mozaffari-4a13592a6?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=ios_app</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/aydasafiri</t>
-  </si>
-  <si>
-    <t>http://linkedin.com/in/mobina-kazemi-396992311</t>
-  </si>
-  <si>
-    <t>www.linkedin.com/in/safal-maharjan-704588249</t>
-  </si>
-  <si>
-    <t>Le Xuan Hoa Dao (Hannah)</t>
-  </si>
-  <si>
-    <t>Edwin Ramirez</t>
-  </si>
-  <si>
-    <t>Sanabanu Basir Patel (Sana)</t>
-  </si>
-  <si>
-    <t>lxhdao@myseneca.ca</t>
-  </si>
-  <si>
-    <t>eramierez@myseneca.ca</t>
-  </si>
-  <si>
-    <t>sbpatel52@myseneca.ca</t>
-  </si>
-  <si>
-    <t>Designing</t>
-  </si>
-  <si>
-    <t>Creative Director</t>
-  </si>
-  <si>
-    <t>Merchandise Lead Designer</t>
-  </si>
-  <si>
-    <t>UI/UX Lead Designer</t>
-  </si>
-  <si>
-    <t>Graphic Design</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/Hannah%20Dao_Hannah%20Dao.jpg</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_4585_Edwin%20Ramirez.jpeg</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_9421_Sanabanu%20Basir%20Patel.png</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/hannah-dao-47784721b</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/me?trk=p_mwlite_feed-secondary_nav</t>
-  </si>
-  <si>
-    <t>www.linkedin.com/in/sana-patel-968b46342</t>
   </si>
   <si>
     <t>Rishan Mendis</t>
@@ -1734,7 +1726,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1777,16 +1769,22 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>69</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1794,607 +1792,477 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="F4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
         <v>58</v>
       </c>
-      <c r="D8" t="s">
-        <v>65</v>
-      </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="F10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="F11" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="J11" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" t="s">
         <v>69</v>
       </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
       <c r="I12" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J12" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="F13" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="F15" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
         <v>51</v>
       </c>
-      <c r="C16" t="s">
-        <v>58</v>
-      </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F16" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F17" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F18" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="F20" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="F21" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="F22" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2434,7 +2302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -2476,25 +2344,25 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="B2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E2" t="s">
-        <v>123</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2506,7 +2374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J14"/>
   <sheetViews>
@@ -2548,301 +2416,301 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F3" t="s">
         <v>162</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D5" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C6" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" t="s">
         <v>158</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>163</v>
       </c>
-      <c r="F6" t="s">
-        <v>168</v>
-      </c>
       <c r="I6" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" t="s">
         <v>157</v>
       </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
       <c r="I7" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" t="s">
         <v>153</v>
       </c>
-      <c r="D8" t="s">
-        <v>159</v>
-      </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="F8" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C9" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D9" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" t="s">
         <v>147</v>
       </c>
-      <c r="C10" t="s">
-        <v>153</v>
-      </c>
       <c r="D10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" t="s">
         <v>157</v>
       </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
       <c r="I10" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="J10" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C11" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D11" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E11" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B12" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C12" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D12" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E12" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F12" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C13" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D13" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E13" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" t="s">
         <v>151</v>
       </c>
-      <c r="C14" t="s">
-        <v>153</v>
-      </c>
-      <c r="D14" t="s">
-        <v>157</v>
-      </c>
       <c r="E14" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2873,9 +2741,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2915,85 +2783,85 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D2" t="s">
         <v>224</v>
-      </c>
-      <c r="D2" t="s">
-        <v>225</v>
       </c>
       <c r="E2" t="s">
         <v>232</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E3" t="s">
         <v>233</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E5" t="s">
         <v>232</v>
@@ -3001,203 +2869,203 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E7" t="s">
         <v>234</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B9" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="F9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B11" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B12" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D12" t="s">
         <v>231</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B13" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E13" t="s">
         <v>235</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B14" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E14" t="s">
         <v>236</v>
@@ -3205,16 +3073,16 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B15" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E15" t="s">
         <v>236</v>
@@ -3222,27 +3090,70 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B16" t="s">
+        <v>219</v>
+      </c>
+      <c r="C16" t="s">
+        <v>223</v>
+      </c>
+      <c r="D16" t="s">
+        <v>229</v>
+      </c>
+      <c r="E16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>202</v>
+      </c>
+      <c r="B17" t="s">
+        <v>220</v>
+      </c>
+      <c r="C17" t="s">
+        <v>223</v>
+      </c>
+      <c r="D17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>203</v>
+      </c>
+      <c r="B18" t="s">
+        <v>221</v>
+      </c>
+      <c r="C18" t="s">
+        <v>223</v>
+      </c>
+      <c r="D18" t="s">
+        <v>229</v>
+      </c>
+      <c r="E18" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>204</v>
+      </c>
+      <c r="B19" t="s">
         <v>222</v>
       </c>
-      <c r="C16" t="s">
-        <v>224</v>
-      </c>
-      <c r="D16" t="s">
-        <v>231</v>
-      </c>
-      <c r="E16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>207</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C19" t="s">
         <v>223</v>
+      </c>
+      <c r="D19" t="s">
+        <v>229</v>
+      </c>
+      <c r="E19" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3272,7 +3183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J17"/>
   <sheetViews>
@@ -3314,458 +3225,372 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>318</v>
+        <v>156</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E4" t="s">
-        <v>164</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>319</v>
+        <v>159</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E5" t="s">
-        <v>164</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>320</v>
+        <v>159</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="H7" t="s">
-        <v>321</v>
+        <v>159</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="J7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E8" t="s">
-        <v>306</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B9" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D9" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E9" t="s">
-        <v>162</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>323</v>
+        <v>156</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>324</v>
+        <v>157</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B11" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C11" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D11" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E11" t="s">
-        <v>164</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>325</v>
+        <v>159</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B12" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D12" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E12" t="s">
-        <v>164</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="H12" t="s">
-        <v>326</v>
+        <v>159</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J12" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C13" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D13" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E13" t="s">
-        <v>164</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>327</v>
+        <v>159</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B14" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C14" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D14" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>328</v>
+        <v>157</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C15" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D15" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E15" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B16" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C16" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D16" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E16" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B17" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C17" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D17" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E17" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="H2" r:id="rId2"/>
-    <hyperlink ref="I2" r:id="rId3"/>
-    <hyperlink ref="J2" r:id="rId4"/>
-    <hyperlink ref="G4" r:id="rId5"/>
-    <hyperlink ref="H4" r:id="rId6"/>
-    <hyperlink ref="I4" r:id="rId7"/>
-    <hyperlink ref="J4" r:id="rId8"/>
-    <hyperlink ref="G5" r:id="rId9"/>
-    <hyperlink ref="H5" r:id="rId10"/>
-    <hyperlink ref="I5" r:id="rId11"/>
-    <hyperlink ref="J5" r:id="rId12"/>
-    <hyperlink ref="G7" r:id="rId13"/>
-    <hyperlink ref="I7" r:id="rId14"/>
-    <hyperlink ref="G8" r:id="rId15"/>
-    <hyperlink ref="H8" r:id="rId16"/>
-    <hyperlink ref="I8" r:id="rId17"/>
-    <hyperlink ref="J8" r:id="rId18"/>
-    <hyperlink ref="G9" r:id="rId19"/>
-    <hyperlink ref="H9" r:id="rId20"/>
-    <hyperlink ref="I9" r:id="rId21"/>
-    <hyperlink ref="J9" r:id="rId22"/>
-    <hyperlink ref="G10" r:id="rId23"/>
-    <hyperlink ref="H10" r:id="rId24"/>
-    <hyperlink ref="I10" r:id="rId25"/>
-    <hyperlink ref="J10" r:id="rId26"/>
-    <hyperlink ref="G11" r:id="rId27"/>
-    <hyperlink ref="H11" r:id="rId28"/>
-    <hyperlink ref="I11" r:id="rId29"/>
-    <hyperlink ref="J11" r:id="rId30"/>
-    <hyperlink ref="G12" r:id="rId31"/>
-    <hyperlink ref="I12" r:id="rId32"/>
-    <hyperlink ref="G13" r:id="rId33"/>
-    <hyperlink ref="H13" r:id="rId34"/>
-    <hyperlink ref="I13" r:id="rId35"/>
-    <hyperlink ref="J13" r:id="rId36"/>
-    <hyperlink ref="G14" r:id="rId37"/>
-    <hyperlink ref="H14" r:id="rId38"/>
-    <hyperlink ref="I14" r:id="rId39"/>
-    <hyperlink ref="J14" r:id="rId40"/>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="J2" r:id="rId2"/>
+    <hyperlink ref="I4" r:id="rId3"/>
+    <hyperlink ref="J4" r:id="rId4"/>
+    <hyperlink ref="I5" r:id="rId5"/>
+    <hyperlink ref="J5" r:id="rId6"/>
+    <hyperlink ref="I7" r:id="rId7"/>
+    <hyperlink ref="I8" r:id="rId8"/>
+    <hyperlink ref="J8" r:id="rId9"/>
+    <hyperlink ref="I9" r:id="rId10"/>
+    <hyperlink ref="J9" r:id="rId11"/>
+    <hyperlink ref="I10" r:id="rId12"/>
+    <hyperlink ref="J10" r:id="rId13"/>
+    <hyperlink ref="I11" r:id="rId14"/>
+    <hyperlink ref="J11" r:id="rId15"/>
+    <hyperlink ref="I12" r:id="rId16"/>
+    <hyperlink ref="I13" r:id="rId17"/>
+    <hyperlink ref="J13" r:id="rId18"/>
+    <hyperlink ref="I14" r:id="rId19"/>
+    <hyperlink ref="J14" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3805,526 +3630,310 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C2" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D2" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="E2" t="s">
-        <v>161</v>
+        <v>369</v>
       </c>
       <c r="F2" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C3" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D3" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="E3" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="F3" t="s">
-        <v>388</v>
+        <v>377</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C4" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D4" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="E4" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="F4" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="J4" t="s">
-        <v>402</v>
+        <v>382</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B5" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C5" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D5" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="E5" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="F5" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B6" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D6" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="E6" t="s">
-        <v>380</v>
-      </c>
-      <c r="F6" t="s">
-        <v>391</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>404</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C8" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D8" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="E8" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="F8" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B9" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C9" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D9" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E9" t="s">
-        <v>379</v>
-      </c>
-      <c r="F9" t="s">
-        <v>388</v>
+        <v>157</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B10" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C10" t="s">
+        <v>358</v>
+      </c>
+      <c r="D10" t="s">
         <v>365</v>
       </c>
-      <c r="D10" t="s">
-        <v>373</v>
-      </c>
       <c r="E10" t="s">
-        <v>382</v>
+        <v>155</v>
       </c>
       <c r="F10" t="s">
-        <v>393</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>405</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B11" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C11" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D11" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="E11" t="s">
-        <v>383</v>
-      </c>
-      <c r="F11" t="s">
-        <v>393</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>406</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B12" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C12" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D12" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="E12" t="s">
-        <v>383</v>
+        <v>157</v>
       </c>
       <c r="F12" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>407</v>
+        <v>385</v>
+      </c>
+      <c r="J12" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B13" t="s">
+        <v>355</v>
+      </c>
+      <c r="C13" t="s">
         <v>358</v>
       </c>
-      <c r="C13" t="s">
-        <v>365</v>
-      </c>
       <c r="D13" t="s">
+        <v>368</v>
+      </c>
+      <c r="E13" t="s">
         <v>374</v>
-      </c>
-      <c r="E13" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B14" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C14" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D14" t="s">
+        <v>368</v>
+      </c>
+      <c r="E14" t="s">
         <v>375</v>
-      </c>
-      <c r="E14" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B15" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C15" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D15" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E15" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
-        <v>343</v>
-      </c>
-      <c r="B16" t="s">
-        <v>361</v>
-      </c>
-      <c r="C16" t="s">
-        <v>365</v>
-      </c>
-      <c r="D16" t="s">
-        <v>377</v>
-      </c>
-      <c r="E16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" t="s">
-        <v>394</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="J16" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>344</v>
-      </c>
-      <c r="B17" t="s">
-        <v>362</v>
-      </c>
-      <c r="C17" t="s">
-        <v>365</v>
-      </c>
-      <c r="D17" t="s">
-        <v>378</v>
-      </c>
-      <c r="E17" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>345</v>
-      </c>
-      <c r="B18" t="s">
-        <v>363</v>
-      </c>
-      <c r="C18" t="s">
-        <v>365</v>
-      </c>
-      <c r="D18" t="s">
-        <v>378</v>
-      </c>
-      <c r="E18" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>346</v>
-      </c>
-      <c r="B19" t="s">
-        <v>364</v>
-      </c>
-      <c r="C19" t="s">
-        <v>365</v>
-      </c>
-      <c r="D19" t="s">
-        <v>378</v>
-      </c>
-      <c r="E19" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I4" r:id="rId1"/>
-    <hyperlink ref="I5" r:id="rId2"/>
-    <hyperlink ref="J5" r:id="rId3"/>
-    <hyperlink ref="I7" r:id="rId4"/>
-    <hyperlink ref="J7" r:id="rId5"/>
-    <hyperlink ref="I10" r:id="rId6"/>
-    <hyperlink ref="J10" r:id="rId7"/>
-    <hyperlink ref="I11" r:id="rId8"/>
-    <hyperlink ref="J11" r:id="rId9"/>
-    <hyperlink ref="I12" r:id="rId10"/>
-    <hyperlink ref="J12" r:id="rId11"/>
-    <hyperlink ref="I16" r:id="rId12"/>
+    <hyperlink ref="I3" r:id="rId1"/>
+    <hyperlink ref="J3" r:id="rId2"/>
+    <hyperlink ref="I4" r:id="rId3"/>
+    <hyperlink ref="J4" r:id="rId4"/>
+    <hyperlink ref="I5" r:id="rId5"/>
+    <hyperlink ref="J5" r:id="rId6"/>
+    <hyperlink ref="I9" r:id="rId7"/>
+    <hyperlink ref="J9" r:id="rId8"/>
+    <hyperlink ref="I12" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>409</v>
-      </c>
-      <c r="B2" t="s">
-        <v>412</v>
-      </c>
-      <c r="C2" t="s">
-        <v>415</v>
-      </c>
-      <c r="D2" t="s">
-        <v>416</v>
-      </c>
-      <c r="E2" t="s">
-        <v>419</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>410</v>
-      </c>
-      <c r="B3" t="s">
-        <v>413</v>
-      </c>
-      <c r="C3" t="s">
-        <v>415</v>
-      </c>
-      <c r="D3" t="s">
-        <v>417</v>
-      </c>
-      <c r="E3" t="s">
-        <v>419</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>411</v>
-      </c>
-      <c r="B4" t="s">
-        <v>414</v>
-      </c>
-      <c r="C4" t="s">
-        <v>415</v>
-      </c>
-      <c r="D4" t="s">
-        <v>418</v>
-      </c>
-      <c r="E4" t="s">
-        <v>419</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="J4" t="s">
-        <v>425</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
-    <hyperlink ref="J2" r:id="rId2"/>
-    <hyperlink ref="I3" r:id="rId3"/>
-    <hyperlink ref="J3" r:id="rId4"/>
-    <hyperlink ref="I4" r:id="rId5"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J8"/>
   <sheetViews>
@@ -4366,127 +3975,331 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>426</v>
+        <v>391</v>
       </c>
       <c r="B2" t="s">
-        <v>433</v>
+        <v>398</v>
       </c>
       <c r="C2" t="s">
-        <v>440</v>
+        <v>405</v>
       </c>
       <c r="D2" t="s">
-        <v>443</v>
+        <v>406</v>
       </c>
       <c r="E2" t="s">
-        <v>161</v>
+        <v>412</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>427</v>
+        <v>392</v>
       </c>
       <c r="B3" t="s">
-        <v>434</v>
+        <v>399</v>
       </c>
       <c r="C3" t="s">
-        <v>153</v>
+        <v>405</v>
       </c>
       <c r="D3" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="E3" t="s">
-        <v>161</v>
+        <v>412</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>428</v>
+        <v>393</v>
       </c>
       <c r="B4" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>405</v>
       </c>
       <c r="D4" t="s">
-        <v>443</v>
+        <v>408</v>
       </c>
       <c r="E4" t="s">
-        <v>161</v>
+        <v>412</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="J4" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>429</v>
+        <v>394</v>
       </c>
       <c r="B5" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
       <c r="C5" t="s">
-        <v>441</v>
+        <v>405</v>
       </c>
       <c r="D5" t="s">
-        <v>443</v>
+        <v>409</v>
       </c>
       <c r="E5" t="s">
-        <v>161</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>430</v>
+        <v>395</v>
       </c>
       <c r="B6" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
       <c r="C6" t="s">
-        <v>442</v>
+        <v>358</v>
       </c>
       <c r="D6" t="s">
-        <v>443</v>
+        <v>410</v>
       </c>
       <c r="E6" t="s">
-        <v>444</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>446</v>
+        <v>413</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>431</v>
+        <v>396</v>
       </c>
       <c r="B7" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
       <c r="C7" t="s">
-        <v>292</v>
+        <v>405</v>
       </c>
       <c r="D7" t="s">
-        <v>443</v>
+        <v>411</v>
       </c>
       <c r="E7" t="s">
-        <v>161</v>
+        <v>413</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="J7" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
+        <v>397</v>
+      </c>
+      <c r="B8" t="s">
+        <v>404</v>
+      </c>
+      <c r="C8" t="s">
+        <v>405</v>
+      </c>
+      <c r="D8" t="s">
+        <v>411</v>
+      </c>
+      <c r="E8" t="s">
+        <v>413</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="J2" r:id="rId2"/>
+    <hyperlink ref="I3" r:id="rId3"/>
+    <hyperlink ref="J3" r:id="rId4"/>
+    <hyperlink ref="I4" r:id="rId5"/>
+    <hyperlink ref="I7" r:id="rId6"/>
+    <hyperlink ref="I8" r:id="rId7"/>
+    <hyperlink ref="J8" r:id="rId8"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>425</v>
+      </c>
+      <c r="B3" t="s">
         <v>432</v>
       </c>
+      <c r="C3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" t="s">
+        <v>441</v>
+      </c>
+      <c r="E3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B4" t="s">
+        <v>433</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
+        <v>441</v>
+      </c>
+      <c r="E4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>427</v>
+      </c>
+      <c r="B5" t="s">
+        <v>434</v>
+      </c>
+      <c r="C5" t="s">
+        <v>439</v>
+      </c>
+      <c r="D5" t="s">
+        <v>441</v>
+      </c>
+      <c r="E5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>428</v>
+      </c>
+      <c r="B6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C6" t="s">
+        <v>440</v>
+      </c>
+      <c r="D6" t="s">
+        <v>441</v>
+      </c>
+      <c r="E6" t="s">
+        <v>442</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>429</v>
+      </c>
+      <c r="B7" t="s">
+        <v>436</v>
+      </c>
+      <c r="C7" t="s">
+        <v>293</v>
+      </c>
+      <c r="D7" t="s">
+        <v>441</v>
+      </c>
+      <c r="E7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>430</v>
+      </c>
       <c r="B8" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>

--- a/excel_input/Updated_KEY_ORGANIZERS.xlsx
+++ b/excel_input/Updated_KEY_ORGANIZERS.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="471">
   <si>
     <t>Name</t>
   </si>
@@ -101,6 +101,12 @@
     <t>Haru Ai Okabe</t>
   </si>
   <si>
+    <t>Sanjan</t>
+  </si>
+  <si>
+    <t>Soumya Saraswati</t>
+  </si>
+  <si>
     <t>Khushi Ajit Vaswani</t>
   </si>
   <si>
@@ -164,6 +170,12 @@
     <t>haokabe@myseneca.ca</t>
   </si>
   <si>
+    <t>sanjan1@myseneca.ca</t>
+  </si>
+  <si>
+    <t>ssaraswati@myseneca.ca</t>
+  </si>
+  <si>
     <t>kvaswani1@myseneca.ca</t>
   </si>
   <si>
@@ -407,12 +419,6 @@
     <t>Manjot Singh</t>
   </si>
   <si>
-    <t>Abhishek Pal</t>
-  </si>
-  <si>
-    <t>Mankomal Kaur Gandhara</t>
-  </si>
-  <si>
     <t>Jay Vijaykumar Vakil</t>
   </si>
   <si>
@@ -446,12 +452,6 @@
     <t>msingh802@myseneca.ca</t>
   </si>
   <si>
-    <t>apal21@myseneca.ca</t>
-  </si>
-  <si>
-    <t>mkgandhara@myseneca.ca</t>
-  </si>
-  <si>
     <t>jvakil@myseneca.ca</t>
   </si>
   <si>
@@ -503,9 +503,6 @@
     <t>Computer Programming</t>
   </si>
   <si>
-    <t>BSA</t>
-  </si>
-  <si>
     <t>Information Technology Solutions</t>
   </si>
   <si>
@@ -542,15 +539,12 @@
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_3537_Manjot%20Singh.jpeg</t>
   </si>
   <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_9734_Abhishek%20Pal.jpeg</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/Proff%20image_Mankomal%20Kaur%20Gandha.jpg</t>
-  </si>
-  <si>
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/Profile_Jay%20Vijaykumar%20Vakil.jpg</t>
   </si>
   <si>
+    <t>https://drive.google.com/open?id=1AzSS-72xho7BokZE3KeDeNmaFRUL172N</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/fenilmehta</t>
   </si>
   <si>
@@ -575,15 +569,12 @@
     <t>https://www.linkedin.com/in/manjot-ghatora/</t>
   </si>
   <si>
-    <t>www.linkedin.com/in/abhishekpalbly</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/mankomal-kaur-gandhara-080b6117a/</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/in/jay-vakil/</t>
   </si>
   <si>
+    <t>https://www.linkedin.com/in/subhankargon/</t>
+  </si>
+  <si>
     <t>Kris Sadiasa</t>
   </si>
   <si>
@@ -638,6 +629,9 @@
     <t>Ruhail Hamza Mohamed</t>
   </si>
   <si>
+    <t>Adeeba Javed</t>
+  </si>
+  <si>
     <t>kalmodal@myseneca.ca</t>
   </si>
   <si>
@@ -692,6 +686,9 @@
     <t>rhmohamed1@myseneca.ca</t>
   </si>
   <si>
+    <t>aj.adeebajaved@outlook.com</t>
+  </si>
+  <si>
     <t>Student Success</t>
   </si>
   <si>
@@ -737,6 +734,9 @@
     <t>ACF</t>
   </si>
   <si>
+    <t>HR</t>
+  </si>
+  <si>
     <t>Colleges, Universities and Seneca</t>
   </si>
   <si>
@@ -749,6 +749,9 @@
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/Ameya%20Kokatay%20-%20Headshot_Ameya%20Mangesh%20Kokata.jpg</t>
   </si>
   <si>
+    <t>https://drive.google.com/open?id=15RFDt_tR3_nJUFKRWWmugQwZG6WYzeHt</t>
+  </si>
+  <si>
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/1737242680405_Syed%20Shahzeb%20Saleem.jpg</t>
   </si>
   <si>
@@ -773,6 +776,15 @@
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/Profile%20image_Mai%20Huong%20Nguyen.jpg</t>
   </si>
   <si>
+    <t>https://drive.google.com/open?id=1y7P6kSnPO3nLp0wlXo9As6w1GtZixkYs</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1rWpo-efL-DfqKQjOFeI5JUrI2nRyu-a_</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1Ce4wLhfIaRW6i1GVu9VeLd6hL2_IwWjY</t>
+  </si>
+  <si>
     <t>www.linkedin.com/in/khris-sadiasa-69710518b</t>
   </si>
   <si>
@@ -782,6 +794,9 @@
     <t>https://in.linkedin.com/in/ameya-kokatay-5b8312260</t>
   </si>
   <si>
+    <t>www.linkedin.com/in/tomisin-ojaokomo</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/syedshahzebsaleem/</t>
   </si>
   <si>
@@ -806,6 +821,15 @@
     <t>https://www.linkedin.com/in/mai-huong-nguyen-263631201/</t>
   </si>
   <si>
+    <t>https://www.linkedin.com/in/s4rthak-gupta/</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/utpal-prajapati-191a391a8</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ruhail-hamza-mohamed-6a94b8203/</t>
+  </si>
+  <si>
     <t>Rahul Amish Mamania</t>
   </si>
   <si>
@@ -956,6 +980,9 @@
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/DSC_0011_Khassan%20Suleimanov.jpg</t>
   </si>
   <si>
+    <t>https://drive.google.com/open?id=18i1lXKp99NvgcoSg_QF1r77sLpIt2CsT</t>
+  </si>
+  <si>
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_2429_Mustafa%20Siddiqui.jpeg</t>
   </si>
   <si>
@@ -965,6 +992,9 @@
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/Linkedin_Chonticha%20Praditsaku.jpg</t>
   </si>
   <si>
+    <t>https://drive.google.com/open?id=14kBdmcWhUM5qHieKgrQNHfgUGK-CPkb-</t>
+  </si>
+  <si>
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/image_Shanu%20Anie%20Alias.png</t>
   </si>
   <si>
@@ -980,6 +1010,9 @@
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/000125130002_Boyu%20Cao.jpg</t>
   </si>
   <si>
+    <t>https://drive.google.com/open?id=1gb3qYWS_HHsMNoCHObr20bdzbLHM2Pqi</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/rahul-mamania/</t>
   </si>
   <si>
@@ -989,6 +1022,9 @@
     <t>https://www.linkedin.com/in/khassan-suleimanov-494591254?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=ios_app</t>
   </si>
   <si>
+    <t>https://www.linkedin.com/in/siddhipatel10/</t>
+  </si>
+  <si>
     <t>www.linkedin.com/in/mu5h1e</t>
   </si>
   <si>
@@ -998,6 +1034,9 @@
     <t>https://www.linkedin.com/in/chonticha-praditsakul-67a629132/</t>
   </si>
   <si>
+    <t>www.linkedin.com/in/num-praditsakul-67a629132</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/shanu-anie-alias</t>
   </si>
   <si>
@@ -1013,6 +1052,9 @@
     <t>https://www.linkedin.com/in/xeoncao/</t>
   </si>
   <si>
+    <t>https://www.linkedin.com/in/vsavchyn/</t>
+  </si>
+  <si>
     <t>Vidhi Mehta</t>
   </si>
   <si>
@@ -1028,6 +1070,9 @@
     <t>Aayushi Mahendra Sharma</t>
   </si>
   <si>
+    <t xml:space="preserve">Shivani Nallamati </t>
+  </si>
+  <si>
     <t>Justin Wong</t>
   </si>
   <si>
@@ -1055,6 +1100,9 @@
     <t>Kaifee Ali</t>
   </si>
   <si>
+    <t>Sandeep Rajkumar</t>
+  </si>
+  <si>
     <t>vidhi236@my.yorku.ca</t>
   </si>
   <si>
@@ -1070,6 +1118,9 @@
     <t>amsharma1@myseneca.ca</t>
   </si>
   <si>
+    <t>nallamatishivani18@gmail.com</t>
+  </si>
+  <si>
     <t>jwong301@myseneca.ca</t>
   </si>
   <si>
@@ -1097,6 +1148,9 @@
     <t>kali64@myseneca.ca</t>
   </si>
   <si>
+    <t>srajkumar9@myseneca.ca</t>
+  </si>
+  <si>
     <t>Marketing</t>
   </si>
   <si>
@@ -1151,6 +1205,9 @@
     <t>Visual Content Creation</t>
   </si>
   <si>
+    <t>Marketing Management</t>
+  </si>
+  <si>
     <t>Print Manager*</t>
   </si>
   <si>
@@ -1178,6 +1235,9 @@
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/JUSTICE_Justice%20Asiedu.jpg</t>
   </si>
   <si>
+    <t>https://drive.google.com/open?id=1wPf8samP1m12dMqwjjMeQIyA01VH5PQW</t>
+  </si>
+  <si>
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/Scanned%20Documents%20(4)_page-0001_Safal%20Maharjan.jpg</t>
   </si>
   <si>
@@ -1193,6 +1253,9 @@
     <t>https://www.linkedin.com/in/justice-asiedu-b42855346/</t>
   </si>
   <si>
+    <t>https://www.linkedin.com/in/arfat-ahmed-ansari/</t>
+  </si>
+  <si>
     <t>www.linkedin.com/in/safal-maharjan-704588249</t>
   </si>
   <si>
@@ -1274,6 +1337,9 @@
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_9421_Sanabanu%20Basir%20Patel.png</t>
   </si>
   <si>
+    <t>https://drive.google.com/open?id=1wotF5RzvgbShFtBqVGbj-VM-2cJfnP9M</t>
+  </si>
+  <si>
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/resume%20photo_Dinh%20Quoc%20To.jpg</t>
   </si>
   <si>
@@ -1289,6 +1355,9 @@
     <t>www.linkedin.com/in/sana-patel-968b46342</t>
   </si>
   <si>
+    <t>https://www.linkedin.com/in/deniz-eryigit-2bbb69293/</t>
+  </si>
+  <si>
     <t>www.linkedin.com/in/dinh-quoc-to-b17b09191</t>
   </si>
   <si>
@@ -1355,7 +1424,16 @@
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/92330711_Majd%20Al%20Mnayer.jpg</t>
   </si>
   <si>
+    <t>https://drive.google.com/open?id=1PQ7LaNzV-mbmWh0hLPhF2Y2MwVKcpuR9</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1kRjZhsDtRHjqIoDSNc_EDsbudLdzg50s</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/almnayer/</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/cleo-buenaventura</t>
   </si>
 </sst>
 </file>
@@ -1726,7 +1804,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1769,22 +1847,22 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1792,22 +1870,22 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1815,25 +1893,25 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1841,25 +1919,25 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1867,25 +1945,25 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1893,25 +1971,25 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1919,25 +1997,25 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1945,22 +2023,22 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1968,25 +2046,25 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1994,25 +2072,25 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J11" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2020,22 +2098,22 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="J12" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2043,25 +2121,25 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F13" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2069,25 +2147,25 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2095,25 +2173,25 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F15" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2121,19 +2199,19 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F16" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2141,19 +2219,19 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F17" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2161,19 +2239,19 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F18" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2181,22 +2259,7 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" t="s">
-        <v>71</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2204,25 +2267,7 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" t="s">
-        <v>80</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2230,19 +2275,22 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E21" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" t="s">
-        <v>80</v>
+        <v>75</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2250,19 +2298,65 @@
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E22" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F22" t="s">
-        <v>80</v>
+        <v>84</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2293,10 +2387,10 @@
     <hyperlink ref="J14" r:id="rId24"/>
     <hyperlink ref="I15" r:id="rId25"/>
     <hyperlink ref="J15" r:id="rId26"/>
-    <hyperlink ref="I19" r:id="rId27"/>
-    <hyperlink ref="J19" r:id="rId28"/>
-    <hyperlink ref="I20" r:id="rId29"/>
-    <hyperlink ref="J20" r:id="rId30"/>
+    <hyperlink ref="I21" r:id="rId27"/>
+    <hyperlink ref="J21" r:id="rId28"/>
+    <hyperlink ref="I22" r:id="rId29"/>
+    <hyperlink ref="J22" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2344,25 +2438,25 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2376,7 +2470,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2416,10 +2510,10 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s">
         <v>146</v>
@@ -2431,18 +2525,18 @@
         <v>155</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
         <v>147</v>
@@ -2454,21 +2548,21 @@
         <v>156</v>
       </c>
       <c r="F3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C4" t="s">
         <v>147</v>
@@ -2480,18 +2574,18 @@
         <v>157</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C5" t="s">
         <v>147</v>
@@ -2503,18 +2597,18 @@
         <v>156</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s">
         <v>147</v>
@@ -2526,21 +2620,21 @@
         <v>158</v>
       </c>
       <c r="F6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C7" t="s">
         <v>147</v>
@@ -2552,18 +2646,18 @@
         <v>157</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C8" t="s">
         <v>147</v>
@@ -2575,21 +2669,21 @@
         <v>157</v>
       </c>
       <c r="F8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C9" t="s">
         <v>147</v>
@@ -2601,41 +2695,44 @@
         <v>159</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C10" t="s">
         <v>147</v>
       </c>
       <c r="D10" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E10" t="s">
-        <v>157</v>
+        <v>159</v>
+      </c>
+      <c r="F10" t="s">
+        <v>164</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="J10" t="s">
-        <v>184</v>
+        <v>172</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C11" t="s">
         <v>147</v>
@@ -2644,73 +2741,30 @@
         <v>151</v>
       </c>
       <c r="E11" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B12" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C12" t="s">
         <v>147</v>
       </c>
       <c r="D12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E12" t="s">
-        <v>159</v>
-      </c>
-      <c r="F12" t="s">
-        <v>165</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>131</v>
-      </c>
-      <c r="B13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C13" t="s">
-        <v>147</v>
-      </c>
-      <c r="D13" t="s">
-        <v>151</v>
-      </c>
-      <c r="E13" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
-        <v>132</v>
-      </c>
-      <c r="B14" t="s">
-        <v>145</v>
-      </c>
-      <c r="C14" t="s">
-        <v>147</v>
-      </c>
-      <c r="D14" t="s">
-        <v>151</v>
-      </c>
-      <c r="E14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2732,10 +2786,9 @@
     <hyperlink ref="I9" r:id="rId15"/>
     <hyperlink ref="J9" r:id="rId16"/>
     <hyperlink ref="I10" r:id="rId17"/>
-    <hyperlink ref="I11" r:id="rId18"/>
-    <hyperlink ref="J11" r:id="rId19"/>
-    <hyperlink ref="I12" r:id="rId20"/>
-    <hyperlink ref="J12" r:id="rId21"/>
+    <hyperlink ref="J10" r:id="rId18"/>
+    <hyperlink ref="I11" r:id="rId19"/>
+    <hyperlink ref="J11" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2743,7 +2796,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2783,62 +2836,62 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" t="s">
         <v>223</v>
       </c>
-      <c r="D2" t="s">
-        <v>224</v>
-      </c>
       <c r="E2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>239</v>
       </c>
       <c r="J2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>240</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E4" t="s">
         <v>157</v>
@@ -2847,107 +2900,113 @@
         <v>241</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E5" t="s">
-        <v>232</v>
+        <v>231</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J5" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E6" t="s">
         <v>157</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E8" t="s">
         <v>157</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J8" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E9" t="s">
         <v>157</v>
@@ -2956,204 +3015,239 @@
         <v>238</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E10" t="s">
         <v>157</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E11" t="s">
         <v>157</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E12" t="s">
         <v>157</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B14" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E14" t="s">
-        <v>236</v>
+        <v>235</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E16" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="I16" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="J16" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E17" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E18" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B19" t="s">
+        <v>220</v>
+      </c>
+      <c r="C19" t="s">
         <v>222</v>
       </c>
-      <c r="C19" t="s">
-        <v>223</v>
-      </c>
       <c r="D19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E19" t="s">
         <v>157</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>202</v>
+      </c>
+      <c r="B20" t="s">
+        <v>221</v>
+      </c>
+      <c r="C20" t="s">
+        <v>222</v>
+      </c>
+      <c r="D20" t="s">
+        <v>228</v>
+      </c>
+      <c r="E20" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -3163,27 +3257,478 @@
     <hyperlink ref="J3" r:id="rId3"/>
     <hyperlink ref="I4" r:id="rId4"/>
     <hyperlink ref="J4" r:id="rId5"/>
-    <hyperlink ref="I6" r:id="rId6"/>
-    <hyperlink ref="J6" r:id="rId7"/>
-    <hyperlink ref="I7" r:id="rId8"/>
-    <hyperlink ref="J7" r:id="rId9"/>
-    <hyperlink ref="I8" r:id="rId10"/>
-    <hyperlink ref="I9" r:id="rId11"/>
-    <hyperlink ref="J9" r:id="rId12"/>
-    <hyperlink ref="I10" r:id="rId13"/>
-    <hyperlink ref="J10" r:id="rId14"/>
-    <hyperlink ref="I11" r:id="rId15"/>
-    <hyperlink ref="J11" r:id="rId16"/>
-    <hyperlink ref="I12" r:id="rId17"/>
-    <hyperlink ref="J12" r:id="rId18"/>
-    <hyperlink ref="I13" r:id="rId19"/>
-    <hyperlink ref="J13" r:id="rId20"/>
+    <hyperlink ref="I5" r:id="rId6"/>
+    <hyperlink ref="I6" r:id="rId7"/>
+    <hyperlink ref="J6" r:id="rId8"/>
+    <hyperlink ref="I7" r:id="rId9"/>
+    <hyperlink ref="J7" r:id="rId10"/>
+    <hyperlink ref="I8" r:id="rId11"/>
+    <hyperlink ref="I9" r:id="rId12"/>
+    <hyperlink ref="J9" r:id="rId13"/>
+    <hyperlink ref="I10" r:id="rId14"/>
+    <hyperlink ref="J10" r:id="rId15"/>
+    <hyperlink ref="I11" r:id="rId16"/>
+    <hyperlink ref="J11" r:id="rId17"/>
+    <hyperlink ref="I12" r:id="rId18"/>
+    <hyperlink ref="J12" r:id="rId19"/>
+    <hyperlink ref="I13" r:id="rId20"/>
+    <hyperlink ref="J13" r:id="rId21"/>
+    <hyperlink ref="I14" r:id="rId22"/>
+    <hyperlink ref="J14" r:id="rId23"/>
+    <hyperlink ref="I16" r:id="rId24"/>
+    <hyperlink ref="I19" r:id="rId25"/>
+    <hyperlink ref="J19" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E4" t="s">
+        <v>159</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C5" t="s">
+        <v>302</v>
+      </c>
+      <c r="D5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E5" t="s">
+        <v>159</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C6" t="s">
+        <v>302</v>
+      </c>
+      <c r="D6" t="s">
+        <v>307</v>
+      </c>
+      <c r="E6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C7" t="s">
+        <v>302</v>
+      </c>
+      <c r="D7" t="s">
+        <v>308</v>
+      </c>
+      <c r="E7" t="s">
+        <v>159</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="J7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>275</v>
+      </c>
+      <c r="B8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C8" t="s">
+        <v>301</v>
+      </c>
+      <c r="D8" t="s">
+        <v>309</v>
+      </c>
+      <c r="E8" t="s">
+        <v>315</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B9" t="s">
+        <v>292</v>
+      </c>
+      <c r="C9" t="s">
+        <v>301</v>
+      </c>
+      <c r="D9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E9" t="s">
+        <v>156</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C10" t="s">
+        <v>301</v>
+      </c>
+      <c r="D10" t="s">
+        <v>310</v>
+      </c>
+      <c r="E10" t="s">
+        <v>156</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="J10" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>277</v>
+      </c>
+      <c r="B11" t="s">
+        <v>293</v>
+      </c>
+      <c r="C11" t="s">
+        <v>301</v>
+      </c>
+      <c r="D11" t="s">
+        <v>311</v>
+      </c>
+      <c r="E11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>278</v>
+      </c>
+      <c r="B12" t="s">
+        <v>294</v>
+      </c>
+      <c r="C12" t="s">
+        <v>301</v>
+      </c>
+      <c r="D12" t="s">
+        <v>312</v>
+      </c>
+      <c r="E12" t="s">
+        <v>159</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>279</v>
+      </c>
+      <c r="B13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C13" t="s">
+        <v>301</v>
+      </c>
+      <c r="D13" t="s">
+        <v>312</v>
+      </c>
+      <c r="E13" t="s">
+        <v>159</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="J13" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>280</v>
+      </c>
+      <c r="B14" t="s">
+        <v>296</v>
+      </c>
+      <c r="C14" t="s">
+        <v>301</v>
+      </c>
+      <c r="D14" t="s">
+        <v>313</v>
+      </c>
+      <c r="E14" t="s">
+        <v>159</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>281</v>
+      </c>
+      <c r="B15" t="s">
+        <v>297</v>
+      </c>
+      <c r="C15" t="s">
+        <v>301</v>
+      </c>
+      <c r="D15" t="s">
+        <v>307</v>
+      </c>
+      <c r="E15" t="s">
+        <v>157</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>282</v>
+      </c>
+      <c r="B16" t="s">
+        <v>298</v>
+      </c>
+      <c r="C16" t="s">
+        <v>301</v>
+      </c>
+      <c r="D16" t="s">
+        <v>306</v>
+      </c>
+      <c r="E16" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>283</v>
+      </c>
+      <c r="B17" t="s">
+        <v>299</v>
+      </c>
+      <c r="C17" t="s">
+        <v>301</v>
+      </c>
+      <c r="D17" t="s">
+        <v>306</v>
+      </c>
+      <c r="E17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>284</v>
+      </c>
+      <c r="B18" t="s">
+        <v>300</v>
+      </c>
+      <c r="C18" t="s">
+        <v>301</v>
+      </c>
+      <c r="D18" t="s">
+        <v>312</v>
+      </c>
+      <c r="E18" t="s">
+        <v>159</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="J2" r:id="rId2"/>
+    <hyperlink ref="I4" r:id="rId3"/>
+    <hyperlink ref="J4" r:id="rId4"/>
+    <hyperlink ref="I5" r:id="rId5"/>
+    <hyperlink ref="J5" r:id="rId6"/>
+    <hyperlink ref="I6" r:id="rId7"/>
+    <hyperlink ref="J6" r:id="rId8"/>
+    <hyperlink ref="I7" r:id="rId9"/>
+    <hyperlink ref="I8" r:id="rId10"/>
+    <hyperlink ref="J8" r:id="rId11"/>
+    <hyperlink ref="I9" r:id="rId12"/>
+    <hyperlink ref="J9" r:id="rId13"/>
+    <hyperlink ref="I10" r:id="rId14"/>
+    <hyperlink ref="I11" r:id="rId15"/>
+    <hyperlink ref="J11" r:id="rId16"/>
+    <hyperlink ref="I12" r:id="rId17"/>
+    <hyperlink ref="J12" r:id="rId18"/>
+    <hyperlink ref="I13" r:id="rId19"/>
+    <hyperlink ref="I14" r:id="rId20"/>
+    <hyperlink ref="J14" r:id="rId21"/>
+    <hyperlink ref="I15" r:id="rId22"/>
+    <hyperlink ref="J15" r:id="rId23"/>
+    <hyperlink ref="I18" r:id="rId24"/>
+    <hyperlink ref="J18" r:id="rId25"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J17"/>
   <sheetViews>
@@ -3225,696 +3770,331 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>261</v>
+        <v>344</v>
       </c>
       <c r="B2" t="s">
-        <v>277</v>
+        <v>360</v>
       </c>
       <c r="C2" t="s">
-        <v>293</v>
+        <v>376</v>
       </c>
       <c r="D2" t="s">
-        <v>295</v>
+        <v>377</v>
       </c>
       <c r="E2" t="s">
-        <v>156</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>319</v>
+        <v>387</v>
+      </c>
+      <c r="F2" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>262</v>
+        <v>345</v>
       </c>
       <c r="B3" t="s">
-        <v>278</v>
+        <v>361</v>
       </c>
       <c r="C3" t="s">
-        <v>294</v>
+        <v>376</v>
       </c>
       <c r="D3" t="s">
-        <v>296</v>
+        <v>378</v>
       </c>
       <c r="E3" t="s">
-        <v>306</v>
+        <v>388</v>
+      </c>
+      <c r="F3" t="s">
+        <v>396</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>263</v>
+        <v>346</v>
       </c>
       <c r="B4" t="s">
-        <v>279</v>
+        <v>362</v>
       </c>
       <c r="C4" t="s">
-        <v>294</v>
+        <v>376</v>
       </c>
       <c r="D4" t="s">
-        <v>297</v>
+        <v>378</v>
       </c>
       <c r="E4" t="s">
-        <v>159</v>
+        <v>389</v>
+      </c>
+      <c r="F4" t="s">
+        <v>396</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>309</v>
+        <v>401</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>264</v>
+        <v>347</v>
       </c>
       <c r="B5" t="s">
-        <v>280</v>
+        <v>363</v>
       </c>
       <c r="C5" t="s">
-        <v>294</v>
+        <v>376</v>
       </c>
       <c r="D5" t="s">
-        <v>298</v>
+        <v>378</v>
       </c>
       <c r="E5" t="s">
-        <v>159</v>
+        <v>389</v>
+      </c>
+      <c r="F5" t="s">
+        <v>396</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>310</v>
+        <v>402</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>321</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>265</v>
+        <v>348</v>
       </c>
       <c r="B6" t="s">
-        <v>281</v>
+        <v>364</v>
       </c>
       <c r="C6" t="s">
-        <v>294</v>
+        <v>376</v>
       </c>
       <c r="D6" t="s">
-        <v>299</v>
+        <v>379</v>
       </c>
       <c r="E6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>266</v>
+        <v>349</v>
       </c>
       <c r="B7" t="s">
-        <v>282</v>
+        <v>365</v>
       </c>
       <c r="C7" t="s">
-        <v>294</v>
+        <v>376</v>
       </c>
       <c r="D7" t="s">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="E7" t="s">
-        <v>159</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="J7" t="s">
-        <v>322</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>267</v>
+        <v>350</v>
       </c>
       <c r="B8" t="s">
-        <v>283</v>
+        <v>366</v>
       </c>
       <c r="C8" t="s">
-        <v>293</v>
+        <v>376</v>
       </c>
       <c r="D8" t="s">
-        <v>301</v>
+        <v>380</v>
       </c>
       <c r="E8" t="s">
-        <v>307</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>323</v>
+        <v>390</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>268</v>
+        <v>351</v>
       </c>
       <c r="B9" t="s">
-        <v>284</v>
+        <v>367</v>
       </c>
       <c r="C9" t="s">
-        <v>293</v>
+        <v>376</v>
       </c>
       <c r="D9" t="s">
-        <v>302</v>
+        <v>381</v>
       </c>
       <c r="E9" t="s">
-        <v>156</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>324</v>
+        <v>391</v>
+      </c>
+      <c r="F9" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>269</v>
+        <v>352</v>
       </c>
       <c r="B10" t="s">
-        <v>285</v>
+        <v>368</v>
       </c>
       <c r="C10" t="s">
-        <v>293</v>
+        <v>376</v>
       </c>
       <c r="D10" t="s">
-        <v>303</v>
+        <v>382</v>
       </c>
       <c r="E10" t="s">
         <v>157</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>314</v>
+        <v>403</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>325</v>
+        <v>409</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>270</v>
+        <v>353</v>
       </c>
       <c r="B11" t="s">
-        <v>286</v>
+        <v>369</v>
       </c>
       <c r="C11" t="s">
-        <v>293</v>
+        <v>376</v>
       </c>
       <c r="D11" t="s">
-        <v>304</v>
+        <v>383</v>
       </c>
       <c r="E11" t="s">
-        <v>159</v>
+        <v>155</v>
+      </c>
+      <c r="F11" t="s">
+        <v>398</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>315</v>
+        <v>404</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>326</v>
+        <v>410</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>271</v>
+        <v>354</v>
       </c>
       <c r="B12" t="s">
-        <v>287</v>
+        <v>370</v>
       </c>
       <c r="C12" t="s">
-        <v>293</v>
+        <v>376</v>
       </c>
       <c r="D12" t="s">
-        <v>304</v>
+        <v>384</v>
       </c>
       <c r="E12" t="s">
-        <v>159</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="J12" t="s">
-        <v>327</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>272</v>
+        <v>355</v>
       </c>
       <c r="B13" t="s">
-        <v>288</v>
+        <v>371</v>
       </c>
       <c r="C13" t="s">
-        <v>293</v>
+        <v>376</v>
       </c>
       <c r="D13" t="s">
-        <v>305</v>
+        <v>385</v>
       </c>
       <c r="E13" t="s">
-        <v>159</v>
+        <v>157</v>
+      </c>
+      <c r="F13" t="s">
+        <v>399</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>328</v>
+        <v>405</v>
+      </c>
+      <c r="J13" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>273</v>
+        <v>356</v>
       </c>
       <c r="B14" t="s">
-        <v>289</v>
+        <v>372</v>
       </c>
       <c r="C14" t="s">
-        <v>293</v>
+        <v>376</v>
       </c>
       <c r="D14" t="s">
-        <v>299</v>
+        <v>386</v>
       </c>
       <c r="E14" t="s">
-        <v>157</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>329</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>274</v>
+        <v>357</v>
       </c>
       <c r="B15" t="s">
-        <v>290</v>
+        <v>373</v>
       </c>
       <c r="C15" t="s">
-        <v>293</v>
+        <v>376</v>
       </c>
       <c r="D15" t="s">
-        <v>298</v>
+        <v>386</v>
       </c>
       <c r="E15" t="s">
-        <v>306</v>
+        <v>393</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>275</v>
+        <v>358</v>
       </c>
       <c r="B16" t="s">
-        <v>291</v>
+        <v>374</v>
       </c>
       <c r="C16" t="s">
-        <v>293</v>
+        <v>376</v>
       </c>
       <c r="D16" t="s">
-        <v>298</v>
+        <v>386</v>
       </c>
       <c r="E16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>276</v>
+        <v>359</v>
       </c>
       <c r="B17" t="s">
-        <v>292</v>
+        <v>375</v>
       </c>
       <c r="C17" t="s">
-        <v>293</v>
+        <v>376</v>
       </c>
       <c r="D17" t="s">
-        <v>304</v>
+        <v>386</v>
       </c>
       <c r="E17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
-    <hyperlink ref="J2" r:id="rId2"/>
-    <hyperlink ref="I4" r:id="rId3"/>
-    <hyperlink ref="J4" r:id="rId4"/>
-    <hyperlink ref="I5" r:id="rId5"/>
-    <hyperlink ref="J5" r:id="rId6"/>
-    <hyperlink ref="I7" r:id="rId7"/>
-    <hyperlink ref="I8" r:id="rId8"/>
-    <hyperlink ref="J8" r:id="rId9"/>
-    <hyperlink ref="I9" r:id="rId10"/>
-    <hyperlink ref="J9" r:id="rId11"/>
-    <hyperlink ref="I10" r:id="rId12"/>
-    <hyperlink ref="J10" r:id="rId13"/>
-    <hyperlink ref="I11" r:id="rId14"/>
-    <hyperlink ref="J11" r:id="rId15"/>
-    <hyperlink ref="I12" r:id="rId16"/>
-    <hyperlink ref="I13" r:id="rId17"/>
-    <hyperlink ref="J13" r:id="rId18"/>
-    <hyperlink ref="I14" r:id="rId19"/>
-    <hyperlink ref="J14" r:id="rId20"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>330</v>
-      </c>
-      <c r="B2" t="s">
-        <v>344</v>
-      </c>
-      <c r="C2" t="s">
-        <v>358</v>
-      </c>
-      <c r="D2" t="s">
-        <v>359</v>
-      </c>
-      <c r="E2" t="s">
-        <v>369</v>
-      </c>
-      <c r="F2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>331</v>
-      </c>
-      <c r="B3" t="s">
-        <v>345</v>
-      </c>
-      <c r="C3" t="s">
-        <v>358</v>
-      </c>
-      <c r="D3" t="s">
-        <v>360</v>
-      </c>
-      <c r="E3" t="s">
-        <v>370</v>
-      </c>
-      <c r="F3" t="s">
-        <v>377</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>332</v>
-      </c>
-      <c r="B4" t="s">
-        <v>346</v>
-      </c>
-      <c r="C4" t="s">
-        <v>358</v>
-      </c>
-      <c r="D4" t="s">
-        <v>360</v>
-      </c>
-      <c r="E4" t="s">
-        <v>371</v>
-      </c>
-      <c r="F4" t="s">
-        <v>377</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>333</v>
-      </c>
-      <c r="B5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C5" t="s">
-        <v>358</v>
-      </c>
-      <c r="D5" t="s">
-        <v>360</v>
-      </c>
-      <c r="E5" t="s">
-        <v>371</v>
-      </c>
-      <c r="F5" t="s">
-        <v>377</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>334</v>
-      </c>
-      <c r="B6" t="s">
-        <v>348</v>
-      </c>
-      <c r="C6" t="s">
-        <v>358</v>
-      </c>
-      <c r="D6" t="s">
-        <v>361</v>
-      </c>
-      <c r="E6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>335</v>
-      </c>
-      <c r="B7" t="s">
-        <v>349</v>
-      </c>
-      <c r="C7" t="s">
-        <v>358</v>
-      </c>
-      <c r="D7" t="s">
-        <v>362</v>
-      </c>
-      <c r="E7" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>336</v>
-      </c>
-      <c r="B8" t="s">
-        <v>350</v>
-      </c>
-      <c r="C8" t="s">
-        <v>358</v>
-      </c>
-      <c r="D8" t="s">
-        <v>363</v>
-      </c>
-      <c r="E8" t="s">
-        <v>373</v>
-      </c>
-      <c r="F8" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>337</v>
-      </c>
-      <c r="B9" t="s">
-        <v>351</v>
-      </c>
-      <c r="C9" t="s">
-        <v>358</v>
-      </c>
-      <c r="D9" t="s">
-        <v>364</v>
-      </c>
-      <c r="E9" t="s">
-        <v>157</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>338</v>
-      </c>
-      <c r="B10" t="s">
-        <v>352</v>
-      </c>
-      <c r="C10" t="s">
-        <v>358</v>
-      </c>
-      <c r="D10" t="s">
-        <v>365</v>
-      </c>
-      <c r="E10" t="s">
-        <v>155</v>
-      </c>
-      <c r="F10" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
-        <v>339</v>
-      </c>
-      <c r="B11" t="s">
-        <v>353</v>
-      </c>
-      <c r="C11" t="s">
-        <v>358</v>
-      </c>
-      <c r="D11" t="s">
-        <v>366</v>
-      </c>
-      <c r="E11" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>340</v>
-      </c>
-      <c r="B12" t="s">
-        <v>354</v>
-      </c>
-      <c r="C12" t="s">
-        <v>358</v>
-      </c>
-      <c r="D12" t="s">
-        <v>367</v>
-      </c>
-      <c r="E12" t="s">
-        <v>157</v>
-      </c>
-      <c r="F12" t="s">
-        <v>380</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="J12" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>341</v>
-      </c>
-      <c r="B13" t="s">
-        <v>355</v>
-      </c>
-      <c r="C13" t="s">
-        <v>358</v>
-      </c>
-      <c r="D13" t="s">
-        <v>368</v>
-      </c>
-      <c r="E13" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
-        <v>342</v>
-      </c>
-      <c r="B14" t="s">
-        <v>356</v>
-      </c>
-      <c r="C14" t="s">
-        <v>358</v>
-      </c>
-      <c r="D14" t="s">
-        <v>368</v>
-      </c>
-      <c r="E14" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="s">
-        <v>343</v>
-      </c>
-      <c r="B15" t="s">
-        <v>357</v>
-      </c>
-      <c r="C15" t="s">
-        <v>358</v>
-      </c>
-      <c r="D15" t="s">
-        <v>368</v>
-      </c>
-      <c r="E15" t="s">
-        <v>156</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -3925,9 +4105,11 @@
     <hyperlink ref="J4" r:id="rId4"/>
     <hyperlink ref="I5" r:id="rId5"/>
     <hyperlink ref="J5" r:id="rId6"/>
-    <hyperlink ref="I9" r:id="rId7"/>
-    <hyperlink ref="J9" r:id="rId8"/>
-    <hyperlink ref="I12" r:id="rId9"/>
+    <hyperlink ref="I10" r:id="rId7"/>
+    <hyperlink ref="J10" r:id="rId8"/>
+    <hyperlink ref="I11" r:id="rId9"/>
+    <hyperlink ref="J11" r:id="rId10"/>
+    <hyperlink ref="I13" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3975,151 +4157,157 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
       <c r="B2" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
       <c r="C2" t="s">
-        <v>405</v>
+        <v>426</v>
       </c>
       <c r="D2" t="s">
-        <v>406</v>
+        <v>427</v>
       </c>
       <c r="E2" t="s">
-        <v>412</v>
+        <v>433</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>414</v>
+        <v>435</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>419</v>
+        <v>441</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>392</v>
+        <v>413</v>
       </c>
       <c r="B3" t="s">
-        <v>399</v>
+        <v>420</v>
       </c>
       <c r="C3" t="s">
-        <v>405</v>
+        <v>426</v>
       </c>
       <c r="D3" t="s">
-        <v>407</v>
+        <v>428</v>
       </c>
       <c r="E3" t="s">
-        <v>412</v>
+        <v>433</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>415</v>
+        <v>436</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>420</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>393</v>
+        <v>414</v>
       </c>
       <c r="B4" t="s">
-        <v>400</v>
+        <v>421</v>
       </c>
       <c r="C4" t="s">
-        <v>405</v>
+        <v>426</v>
       </c>
       <c r="D4" t="s">
-        <v>408</v>
+        <v>429</v>
       </c>
       <c r="E4" t="s">
-        <v>412</v>
+        <v>433</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>416</v>
+        <v>437</v>
       </c>
       <c r="J4" t="s">
-        <v>421</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>394</v>
+        <v>415</v>
       </c>
       <c r="B5" t="s">
-        <v>401</v>
+        <v>422</v>
       </c>
       <c r="C5" t="s">
-        <v>405</v>
+        <v>426</v>
       </c>
       <c r="D5" t="s">
-        <v>409</v>
+        <v>430</v>
       </c>
       <c r="E5" t="s">
-        <v>413</v>
+        <v>434</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
       <c r="B6" t="s">
-        <v>402</v>
+        <v>423</v>
       </c>
       <c r="C6" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="D6" t="s">
-        <v>410</v>
+        <v>431</v>
       </c>
       <c r="E6" t="s">
-        <v>413</v>
+        <v>434</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>396</v>
+        <v>417</v>
       </c>
       <c r="B7" t="s">
-        <v>403</v>
+        <v>424</v>
       </c>
       <c r="C7" t="s">
-        <v>405</v>
+        <v>426</v>
       </c>
       <c r="D7" t="s">
-        <v>411</v>
+        <v>432</v>
       </c>
       <c r="E7" t="s">
-        <v>413</v>
+        <v>434</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>417</v>
+        <v>439</v>
       </c>
       <c r="J7" t="s">
-        <v>422</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="B8" t="s">
-        <v>404</v>
+        <v>425</v>
       </c>
       <c r="C8" t="s">
-        <v>405</v>
+        <v>426</v>
       </c>
       <c r="D8" t="s">
-        <v>411</v>
+        <v>432</v>
       </c>
       <c r="E8" t="s">
-        <v>413</v>
+        <v>434</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>418</v>
+        <v>440</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>423</v>
+        <v>446</v>
       </c>
     </row>
   </sheetData>
@@ -4129,9 +4317,11 @@
     <hyperlink ref="I3" r:id="rId3"/>
     <hyperlink ref="J3" r:id="rId4"/>
     <hyperlink ref="I4" r:id="rId5"/>
-    <hyperlink ref="I7" r:id="rId6"/>
-    <hyperlink ref="I8" r:id="rId7"/>
-    <hyperlink ref="J8" r:id="rId8"/>
+    <hyperlink ref="I5" r:id="rId6"/>
+    <hyperlink ref="J5" r:id="rId7"/>
+    <hyperlink ref="I7" r:id="rId8"/>
+    <hyperlink ref="I8" r:id="rId9"/>
+    <hyperlink ref="J8" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4139,7 +4329,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4179,16 +4369,16 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>424</v>
+        <v>447</v>
       </c>
       <c r="B2" t="s">
-        <v>431</v>
+        <v>454</v>
       </c>
       <c r="C2" t="s">
-        <v>438</v>
+        <v>461</v>
       </c>
       <c r="D2" t="s">
-        <v>441</v>
+        <v>464</v>
       </c>
       <c r="E2" t="s">
         <v>155</v>
@@ -4196,16 +4386,16 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>425</v>
+        <v>448</v>
       </c>
       <c r="B3" t="s">
-        <v>432</v>
+        <v>455</v>
       </c>
       <c r="C3" t="s">
         <v>147</v>
       </c>
       <c r="D3" t="s">
-        <v>441</v>
+        <v>464</v>
       </c>
       <c r="E3" t="s">
         <v>155</v>
@@ -4213,16 +4403,16 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>426</v>
+        <v>449</v>
       </c>
       <c r="B4" t="s">
-        <v>433</v>
+        <v>456</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>441</v>
+        <v>464</v>
       </c>
       <c r="E4" t="s">
         <v>155</v>
@@ -4230,16 +4420,16 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>427</v>
+        <v>450</v>
       </c>
       <c r="B5" t="s">
-        <v>434</v>
+        <v>457</v>
       </c>
       <c r="C5" t="s">
-        <v>439</v>
+        <v>462</v>
       </c>
       <c r="D5" t="s">
-        <v>441</v>
+        <v>464</v>
       </c>
       <c r="E5" t="s">
         <v>155</v>
@@ -4247,65 +4437,97 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>428</v>
+        <v>451</v>
       </c>
       <c r="B6" t="s">
-        <v>435</v>
+        <v>458</v>
       </c>
       <c r="C6" t="s">
-        <v>440</v>
+        <v>463</v>
       </c>
       <c r="D6" t="s">
-        <v>441</v>
+        <v>464</v>
       </c>
       <c r="E6" t="s">
-        <v>442</v>
+        <v>465</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>443</v>
+        <v>466</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>444</v>
+        <v>469</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>429</v>
+        <v>451</v>
       </c>
       <c r="B7" t="s">
-        <v>436</v>
+        <v>458</v>
       </c>
       <c r="C7" t="s">
-        <v>293</v>
+        <v>463</v>
       </c>
       <c r="D7" t="s">
-        <v>441</v>
+        <v>464</v>
       </c>
       <c r="E7" t="s">
-        <v>155</v>
+        <v>465</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>430</v>
+        <v>452</v>
       </c>
       <c r="B8" t="s">
-        <v>437</v>
+        <v>459</v>
       </c>
       <c r="C8" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="D8" t="s">
-        <v>441</v>
+        <v>464</v>
       </c>
       <c r="E8" t="s">
-        <v>442</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>453</v>
+      </c>
+      <c r="B9" t="s">
+        <v>460</v>
+      </c>
+      <c r="C9" t="s">
+        <v>301</v>
+      </c>
+      <c r="D9" t="s">
+        <v>464</v>
+      </c>
+      <c r="E9" t="s">
+        <v>465</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="J9" t="s">
+        <v>470</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I6" r:id="rId1"/>
     <hyperlink ref="J6" r:id="rId2"/>
+    <hyperlink ref="I7" r:id="rId3"/>
+    <hyperlink ref="J7" r:id="rId4"/>
+    <hyperlink ref="I9" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel_input/Updated_KEY_ORGANIZERS.xlsx
+++ b/excel_input/Updated_KEY_ORGANIZERS.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="460">
   <si>
     <t>Name</t>
   </si>
@@ -113,12 +113,6 @@
     <t>Ramesh Banjade</t>
   </si>
   <si>
-    <t>Biplav Neupane</t>
-  </si>
-  <si>
-    <t>Sagar Yonjan</t>
-  </si>
-  <si>
     <t>icmajam@myseneca.ca</t>
   </si>
   <si>
@@ -182,12 +176,6 @@
     <t>rbanjade@myseneca.ca</t>
   </si>
   <si>
-    <t>bneupane9@myseneca.ca</t>
-  </si>
-  <si>
-    <t>slama12@myseneca.ca</t>
-  </si>
-  <si>
     <t>Operations</t>
   </si>
   <si>
@@ -533,7 +521,7 @@
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG-20240624-WA0027_Shreet%20Ketan%20Dave.jpg</t>
   </si>
   <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/WhatsApp%20Image%202024-12-16%20at%2016.58.52_594aaaa_Krishita%20Nirmesh%20Vak.jpg</t>
+    <t>https://drive.google.com/open?id=1nBgDszp_I0qFXi6Z94V0JSIkWaZ972jv</t>
   </si>
   <si>
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_3537_Manjot%20Singh.jpeg</t>
@@ -593,9 +581,6 @@
     <t>Susma Thapa</t>
   </si>
   <si>
-    <t>W Dinithi Indrachaya Fernando</t>
-  </si>
-  <si>
     <t>Rashidat Kolawole</t>
   </si>
   <si>
@@ -650,9 +635,6 @@
     <t>sthapa57@myseneca.ca</t>
   </si>
   <si>
-    <t>wdifernando@myseneca.ca</t>
-  </si>
-  <si>
     <t>rskolawole@myseneca.ca</t>
   </si>
   <si>
@@ -758,9 +740,6 @@
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_1741_Susma%20Thapa.jpeg</t>
   </si>
   <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/WhatsApp%20Image%202025-01-19%20at%203.10.53%20PM_W%20Dinithi%20Indrachaya.jpeg</t>
-  </si>
-  <si>
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG-20241026-WA0036_Rashidat%20Kolawole.jpg</t>
   </si>
   <si>
@@ -803,9 +782,6 @@
     <t>https://www.linkedin.com/in/susma-thapa-1765a8312</t>
   </si>
   <si>
-    <t>www.linkedin.com/in/dinithi-fernando-972029136</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/in/rashidat-kolawole-15a305127/</t>
   </si>
   <si>
@@ -971,7 +947,7 @@
     <t>Bachelorâs of Data Science and Analytics</t>
   </si>
   <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/WhatsApp%20Image%202024-10-30%20at%2023.19.35_Rahul%20Amish%20Mamania.jpeg</t>
+    <t>https://drive.google.com/open?id=1VYrkf61sKKEovtaPPXKQJoEft9UKxmM7</t>
   </si>
   <si>
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/small_Guilherme%20Luiz%20Barbo.jpeg</t>
@@ -992,9 +968,6 @@
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/Linkedin_Chonticha%20Praditsaku.jpg</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=14kBdmcWhUM5qHieKgrQNHfgUGK-CPkb-</t>
-  </si>
-  <si>
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/image_Shanu%20Anie%20Alias.png</t>
   </si>
   <si>
@@ -1034,9 +1007,6 @@
     <t>https://www.linkedin.com/in/chonticha-praditsakul-67a629132/</t>
   </si>
   <si>
-    <t>www.linkedin.com/in/num-praditsakul-67a629132</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/in/shanu-anie-alias</t>
   </si>
   <si>
@@ -1422,9 +1392,6 @@
   </si>
   <si>
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/92330711_Majd%20Al%20Mnayer.jpg</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1PQ7LaNzV-mbmWh0hLPhF2Y2MwVKcpuR9</t>
   </si>
   <si>
     <t>https://drive.google.com/open?id=1kRjZhsDtRHjqIoDSNc_EDsbudLdzg50s</t>
@@ -1804,7 +1771,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1847,22 +1814,22 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1870,22 +1837,22 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1893,25 +1860,25 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1919,25 +1886,25 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
         <v>55</v>
       </c>
-      <c r="D5" t="s">
-        <v>59</v>
-      </c>
       <c r="E5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" t="s">
         <v>73</v>
       </c>
-      <c r="F5" t="s">
-        <v>77</v>
-      </c>
       <c r="I5" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1945,25 +1912,25 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1971,25 +1938,25 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1997,25 +1964,25 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2023,22 +1990,22 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2046,25 +2013,25 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2072,25 +2039,25 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2098,22 +2065,22 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2121,25 +2088,25 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2147,25 +2114,25 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E14" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F14" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2173,25 +2140,25 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" t="s">
         <v>69</v>
       </c>
-      <c r="E15" t="s">
-        <v>73</v>
-      </c>
       <c r="F15" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2199,19 +2166,19 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" t="s">
         <v>70</v>
       </c>
-      <c r="E16" t="s">
-        <v>74</v>
-      </c>
       <c r="F16" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2219,19 +2186,19 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" t="s">
         <v>70</v>
       </c>
-      <c r="E17" t="s">
-        <v>74</v>
-      </c>
       <c r="F17" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2239,19 +2206,19 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" t="s">
         <v>70</v>
       </c>
-      <c r="E18" t="s">
-        <v>74</v>
-      </c>
       <c r="F18" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2259,7 +2226,7 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2267,7 +2234,7 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2275,22 +2242,22 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
         <v>51</v>
       </c>
-      <c r="C21" t="s">
-        <v>55</v>
-      </c>
       <c r="D21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" t="s">
         <v>71</v>
       </c>
-      <c r="E21" t="s">
-        <v>75</v>
-      </c>
       <c r="I21" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2298,65 +2265,25 @@
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E22" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F22" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2438,25 +2365,25 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" t="s">
         <v>117</v>
       </c>
-      <c r="B2" t="s">
+      <c r="I2" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C2" t="s">
+      <c r="J2" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="D2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2" t="s">
-        <v>121</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2510,261 +2437,261 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" t="s">
         <v>147</v>
       </c>
-      <c r="D5" t="s">
-        <v>151</v>
-      </c>
       <c r="E5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C6" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F6" t="s">
         <v>158</v>
       </c>
-      <c r="F6" t="s">
-        <v>162</v>
-      </c>
       <c r="I6" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" t="s">
         <v>147</v>
       </c>
-      <c r="D7" t="s">
-        <v>151</v>
-      </c>
       <c r="E7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" t="s">
         <v>153</v>
       </c>
-      <c r="E8" t="s">
-        <v>157</v>
-      </c>
       <c r="F8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" t="s">
         <v>147</v>
       </c>
-      <c r="D9" t="s">
-        <v>151</v>
-      </c>
       <c r="E9" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" t="s">
         <v>143</v>
       </c>
-      <c r="C10" t="s">
-        <v>147</v>
-      </c>
       <c r="D10" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E10" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B11" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" t="s">
         <v>147</v>
       </c>
-      <c r="D11" t="s">
-        <v>151</v>
-      </c>
       <c r="E11" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B12" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" t="s">
         <v>147</v>
       </c>
-      <c r="D12" t="s">
-        <v>151</v>
-      </c>
       <c r="E12" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2796,7 +2723,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2836,418 +2763,395 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E2" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="J2" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B3" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B4" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C4" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D4" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B5" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C5" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D5" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E5" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="J5" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B6" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C6" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D6" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E6" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D7" t="s">
         <v>222</v>
       </c>
-      <c r="D7" t="s">
-        <v>228</v>
-      </c>
       <c r="E7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C8" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D8" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E8" t="s">
-        <v>157</v>
+        <v>153</v>
+      </c>
+      <c r="F8" t="s">
+        <v>232</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="J8" t="s">
-        <v>260</v>
+        <v>239</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B9" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C9" t="s">
+        <v>216</v>
+      </c>
+      <c r="D9" t="s">
         <v>222</v>
       </c>
-      <c r="D9" t="s">
-        <v>229</v>
-      </c>
       <c r="E9" t="s">
-        <v>157</v>
-      </c>
-      <c r="F9" t="s">
-        <v>238</v>
+        <v>153</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B10" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D10" t="s">
         <v>222</v>
       </c>
-      <c r="D10" t="s">
-        <v>228</v>
-      </c>
       <c r="E10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B11" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C11" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D11" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E11" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B12" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C12" t="s">
+        <v>216</v>
+      </c>
+      <c r="D12" t="s">
         <v>222</v>
       </c>
-      <c r="D12" t="s">
-        <v>230</v>
-      </c>
       <c r="E12" t="s">
-        <v>157</v>
+        <v>228</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B13" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C13" t="s">
+        <v>216</v>
+      </c>
+      <c r="D13" t="s">
         <v>222</v>
       </c>
-      <c r="D13" t="s">
-        <v>228</v>
-      </c>
       <c r="E13" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B14" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C14" t="s">
+        <v>216</v>
+      </c>
+      <c r="D14" t="s">
         <v>222</v>
       </c>
-      <c r="D14" t="s">
-        <v>228</v>
-      </c>
       <c r="E14" t="s">
-        <v>235</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B15" t="s">
+        <v>211</v>
+      </c>
+      <c r="C15" t="s">
         <v>216</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>222</v>
       </c>
-      <c r="D15" t="s">
-        <v>228</v>
-      </c>
       <c r="E15" t="s">
-        <v>235</v>
+        <v>153</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="J15" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B16" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D16" t="s">
         <v>222</v>
       </c>
-      <c r="D16" t="s">
-        <v>228</v>
-      </c>
       <c r="E16" t="s">
-        <v>157</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="J16" t="s">
-        <v>267</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B17" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C17" t="s">
+        <v>216</v>
+      </c>
+      <c r="D17" t="s">
         <v>222</v>
       </c>
-      <c r="D17" t="s">
-        <v>228</v>
-      </c>
       <c r="E17" t="s">
-        <v>157</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C18" t="s">
+        <v>216</v>
+      </c>
+      <c r="D18" t="s">
         <v>222</v>
       </c>
-      <c r="D18" t="s">
-        <v>228</v>
-      </c>
       <c r="E18" t="s">
-        <v>236</v>
+        <v>153</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C19" t="s">
+        <v>216</v>
+      </c>
+      <c r="D19" t="s">
         <v>222</v>
       </c>
-      <c r="D19" t="s">
-        <v>228</v>
-      </c>
       <c r="E19" t="s">
-        <v>157</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" t="s">
-        <v>202</v>
-      </c>
-      <c r="B20" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" t="s">
-        <v>222</v>
-      </c>
-      <c r="D20" t="s">
-        <v>228</v>
-      </c>
-      <c r="E20" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -3263,21 +3167,20 @@
     <hyperlink ref="I7" r:id="rId9"/>
     <hyperlink ref="J7" r:id="rId10"/>
     <hyperlink ref="I8" r:id="rId11"/>
-    <hyperlink ref="I9" r:id="rId12"/>
-    <hyperlink ref="J9" r:id="rId13"/>
-    <hyperlink ref="I10" r:id="rId14"/>
-    <hyperlink ref="J10" r:id="rId15"/>
-    <hyperlink ref="I11" r:id="rId16"/>
-    <hyperlink ref="J11" r:id="rId17"/>
-    <hyperlink ref="I12" r:id="rId18"/>
-    <hyperlink ref="J12" r:id="rId19"/>
-    <hyperlink ref="I13" r:id="rId20"/>
-    <hyperlink ref="J13" r:id="rId21"/>
-    <hyperlink ref="I14" r:id="rId22"/>
-    <hyperlink ref="J14" r:id="rId23"/>
-    <hyperlink ref="I16" r:id="rId24"/>
-    <hyperlink ref="I19" r:id="rId25"/>
-    <hyperlink ref="J19" r:id="rId26"/>
+    <hyperlink ref="J8" r:id="rId12"/>
+    <hyperlink ref="I9" r:id="rId13"/>
+    <hyperlink ref="J9" r:id="rId14"/>
+    <hyperlink ref="I10" r:id="rId15"/>
+    <hyperlink ref="J10" r:id="rId16"/>
+    <hyperlink ref="I11" r:id="rId17"/>
+    <hyperlink ref="J11" r:id="rId18"/>
+    <hyperlink ref="I12" r:id="rId19"/>
+    <hyperlink ref="J12" r:id="rId20"/>
+    <hyperlink ref="I13" r:id="rId21"/>
+    <hyperlink ref="J13" r:id="rId22"/>
+    <hyperlink ref="I15" r:id="rId23"/>
+    <hyperlink ref="I18" r:id="rId24"/>
+    <hyperlink ref="J18" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3285,7 +3188,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3325,375 +3228,352 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B2" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C2" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="D2" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="E2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B3" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C3" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D3" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="E3" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B4" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C4" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D4" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="E4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B5" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C5" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D5" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="E5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B6" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="C6" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D6" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="E6" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="E7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="J7" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B8" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="C8" t="s">
+        <v>293</v>
+      </c>
+      <c r="D8" t="s">
         <v>301</v>
       </c>
-      <c r="D8" t="s">
-        <v>309</v>
-      </c>
       <c r="E8" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B9" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C9" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="D9" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="E9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B10" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C10" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="D10" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="E10" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="J10" t="s">
-        <v>337</v>
+        <v>315</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B11" t="s">
+        <v>286</v>
+      </c>
+      <c r="C11" t="s">
         <v>293</v>
       </c>
-      <c r="C11" t="s">
-        <v>301</v>
-      </c>
       <c r="D11" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B12" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C12" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="D12" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E12" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>339</v>
+        <v>317</v>
+      </c>
+      <c r="J12" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B13" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C13" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="D13" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="E13" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="J13" t="s">
-        <v>340</v>
+        <v>318</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B14" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C14" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="D14" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="E14" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B15" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C15" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="D15" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="E15" t="s">
-        <v>157</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B16" t="s">
+        <v>291</v>
+      </c>
+      <c r="C16" t="s">
+        <v>293</v>
+      </c>
+      <c r="D16" t="s">
         <v>298</v>
       </c>
-      <c r="C16" t="s">
-        <v>301</v>
-      </c>
-      <c r="D16" t="s">
-        <v>306</v>
-      </c>
       <c r="E16" t="s">
-        <v>314</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B17" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C17" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="D17" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>284</v>
-      </c>
-      <c r="B18" t="s">
-        <v>300</v>
-      </c>
-      <c r="C18" t="s">
-        <v>301</v>
-      </c>
-      <c r="D18" t="s">
-        <v>312</v>
-      </c>
-      <c r="E18" t="s">
-        <v>159</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>343</v>
+        <v>155</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -3712,17 +3592,16 @@
     <hyperlink ref="I9" r:id="rId12"/>
     <hyperlink ref="J9" r:id="rId13"/>
     <hyperlink ref="I10" r:id="rId14"/>
-    <hyperlink ref="I11" r:id="rId15"/>
-    <hyperlink ref="J11" r:id="rId16"/>
-    <hyperlink ref="I12" r:id="rId17"/>
-    <hyperlink ref="J12" r:id="rId18"/>
+    <hyperlink ref="J10" r:id="rId15"/>
+    <hyperlink ref="I11" r:id="rId16"/>
+    <hyperlink ref="J11" r:id="rId17"/>
+    <hyperlink ref="I12" r:id="rId18"/>
     <hyperlink ref="I13" r:id="rId19"/>
-    <hyperlink ref="I14" r:id="rId20"/>
-    <hyperlink ref="J14" r:id="rId21"/>
-    <hyperlink ref="I15" r:id="rId22"/>
-    <hyperlink ref="J15" r:id="rId23"/>
-    <hyperlink ref="I18" r:id="rId24"/>
-    <hyperlink ref="J18" r:id="rId25"/>
+    <hyperlink ref="J13" r:id="rId20"/>
+    <hyperlink ref="I14" r:id="rId21"/>
+    <hyperlink ref="J14" r:id="rId22"/>
+    <hyperlink ref="I17" r:id="rId23"/>
+    <hyperlink ref="J17" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3770,331 +3649,331 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="B2" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="C2" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="D2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E2" t="s">
         <v>377</v>
       </c>
-      <c r="E2" t="s">
-        <v>387</v>
-      </c>
       <c r="F2" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="B3" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="C3" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="D3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E3" t="s">
         <v>378</v>
       </c>
-      <c r="E3" t="s">
-        <v>388</v>
-      </c>
       <c r="F3" t="s">
+        <v>386</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="B4" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="C4" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="D4" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="E4" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="F4" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="B5" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="C5" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="D5" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="E5" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="F5" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="B6" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="C6" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="D6" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="E6" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B7" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="C7" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="D7" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="E7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="B8" t="s">
+        <v>356</v>
+      </c>
+      <c r="C8" t="s">
         <v>366</v>
       </c>
-      <c r="C8" t="s">
-        <v>376</v>
-      </c>
       <c r="D8" t="s">
+        <v>370</v>
+      </c>
+      <c r="E8" t="s">
         <v>380</v>
-      </c>
-      <c r="E8" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="B9" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="C9" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="D9" t="s">
+        <v>371</v>
+      </c>
+      <c r="E9" t="s">
         <v>381</v>
       </c>
-      <c r="E9" t="s">
-        <v>391</v>
-      </c>
       <c r="F9" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="B10" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="C10" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="D10" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="E10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="B11" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="C11" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="D11" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="E11" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F11" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="B12" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="C12" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="D12" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="E12" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="B13" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="C13" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="D13" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="E13" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F13" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="J13" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="B14" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="C14" t="s">
+        <v>366</v>
+      </c>
+      <c r="D14" t="s">
         <v>376</v>
       </c>
-      <c r="D14" t="s">
-        <v>386</v>
-      </c>
       <c r="E14" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="B15" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C15" t="s">
+        <v>366</v>
+      </c>
+      <c r="D15" t="s">
         <v>376</v>
       </c>
-      <c r="D15" t="s">
-        <v>386</v>
-      </c>
       <c r="E15" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="B16" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="C16" t="s">
+        <v>366</v>
+      </c>
+      <c r="D16" t="s">
         <v>376</v>
       </c>
-      <c r="D16" t="s">
-        <v>386</v>
-      </c>
       <c r="E16" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="B17" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="C17" t="s">
+        <v>366</v>
+      </c>
+      <c r="D17" t="s">
         <v>376</v>
       </c>
-      <c r="D17" t="s">
-        <v>386</v>
-      </c>
       <c r="E17" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -4157,157 +4036,157 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="B2" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="C2" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="D2" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="E2" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="B3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="C3" t="s">
+        <v>416</v>
+      </c>
+      <c r="D3" t="s">
+        <v>418</v>
+      </c>
+      <c r="E3" t="s">
+        <v>423</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="D3" t="s">
-        <v>428</v>
-      </c>
-      <c r="E3" t="s">
-        <v>433</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>436</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="B4" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="C4" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="D4" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="E4" t="s">
+        <v>423</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="J4" t="s">
         <v>433</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="J4" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="B5" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="C5" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="D5" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="E5" t="s">
+        <v>424</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>434</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="B6" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="C6" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="D6" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="E6" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="B7" t="s">
+        <v>414</v>
+      </c>
+      <c r="C7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D7" t="s">
+        <v>422</v>
+      </c>
+      <c r="E7" t="s">
         <v>424</v>
       </c>
-      <c r="C7" t="s">
-        <v>426</v>
-      </c>
-      <c r="D7" t="s">
-        <v>432</v>
-      </c>
-      <c r="E7" t="s">
-        <v>434</v>
-      </c>
       <c r="I7" s="2" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="J7" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="B8" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="C8" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="D8" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="E8" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -4329,7 +4208,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4369,165 +4248,140 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="B2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D2" t="s">
         <v>454</v>
       </c>
-      <c r="C2" t="s">
-        <v>461</v>
-      </c>
-      <c r="D2" t="s">
-        <v>464</v>
-      </c>
       <c r="E2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="B3" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="C3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D3" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="E3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="B4" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="E4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="B5" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="C5" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="D5" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="E5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="B6" t="s">
+        <v>448</v>
+      </c>
+      <c r="C6" t="s">
+        <v>453</v>
+      </c>
+      <c r="D6" t="s">
+        <v>454</v>
+      </c>
+      <c r="E6" t="s">
+        <v>455</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>458</v>
-      </c>
-      <c r="C6" t="s">
-        <v>463</v>
-      </c>
-      <c r="D6" t="s">
-        <v>464</v>
-      </c>
-      <c r="E6" t="s">
-        <v>465</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="B7" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="C7" t="s">
-        <v>463</v>
+        <v>293</v>
       </c>
       <c r="D7" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="E7" t="s">
-        <v>465</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>469</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="B8" t="s">
+        <v>450</v>
+      </c>
+      <c r="C8" t="s">
+        <v>293</v>
+      </c>
+      <c r="D8" t="s">
+        <v>454</v>
+      </c>
+      <c r="E8" t="s">
+        <v>455</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="J8" t="s">
         <v>459</v>
-      </c>
-      <c r="C8" t="s">
-        <v>301</v>
-      </c>
-      <c r="D8" t="s">
-        <v>464</v>
-      </c>
-      <c r="E8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>453</v>
-      </c>
-      <c r="B9" t="s">
-        <v>460</v>
-      </c>
-      <c r="C9" t="s">
-        <v>301</v>
-      </c>
-      <c r="D9" t="s">
-        <v>464</v>
-      </c>
-      <c r="E9" t="s">
-        <v>465</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="J9" t="s">
-        <v>470</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I6" r:id="rId1"/>
     <hyperlink ref="J6" r:id="rId2"/>
-    <hyperlink ref="I7" r:id="rId3"/>
-    <hyperlink ref="J7" r:id="rId4"/>
-    <hyperlink ref="I9" r:id="rId5"/>
+    <hyperlink ref="I8" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel_input/Updated_KEY_ORGANIZERS.xlsx
+++ b/excel_input/Updated_KEY_ORGANIZERS.xlsx
@@ -15,13 +15,14 @@
     <sheet name="MARKETING &amp; COMMUNICATIONS TEAM" sheetId="6" r:id="rId6"/>
     <sheet name="CREATIVES TEAM" sheetId="7" r:id="rId7"/>
     <sheet name="CONSULTANTS" sheetId="8" r:id="rId8"/>
+    <sheet name="ISSUE MANAGEMENT TEAM" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="464">
   <si>
     <t>Name</t>
   </si>
@@ -83,9 +84,6 @@
     <t>Nisal Chandana Ekanayake</t>
   </si>
   <si>
-    <t>Upesha Pankajbhai Patel</t>
-  </si>
-  <si>
     <t>Naitik Pankaj Kumar Raval</t>
   </si>
   <si>
@@ -95,7 +93,7 @@
     <t>Andrea Huesca Enciso</t>
   </si>
   <si>
-    <t>Brenda CÃ¡ceres</t>
+    <t>Brenda Caceres</t>
   </si>
   <si>
     <t>Haru Ai Okabe</t>
@@ -146,9 +144,6 @@
     <t>ncekanayake@myseneca.ca</t>
   </si>
   <si>
-    <t>uppatel8@myseneca.ca</t>
-  </si>
-  <si>
     <t>npkraval@myseneca.ca</t>
   </si>
   <si>
@@ -185,13 +180,13 @@
     <t>Project Manager, Operations</t>
   </si>
   <si>
-    <t>Daily Reports Officer</t>
+    <t>Daily Report Offier</t>
   </si>
   <si>
     <t>Weekly Reports Officer</t>
   </si>
   <si>
-    <t xml:space="preserve">Manager,Â Rules, Regulations, Prizing, and JudgingÂ </t>
+    <t>Manager, Rules, Regulations, Prizing, and Judging</t>
   </si>
   <si>
     <t>Prizing</t>
@@ -212,15 +207,15 @@
     <t xml:space="preserve">Manager, Event Catering </t>
   </si>
   <si>
-    <t>Catering Officer</t>
-  </si>
-  <si>
     <t>Manager, Registrations</t>
   </si>
   <si>
     <t>Registration Officer</t>
   </si>
   <si>
+    <t>Producer</t>
+  </si>
+  <si>
     <t>Broadcast Officer</t>
   </si>
   <si>
@@ -239,9 +234,6 @@
     <t>Business Tech Management</t>
   </si>
   <si>
-    <t>Weekly Operations Updates /Registration Team</t>
-  </si>
-  <si>
     <t>Integration Management / Project Control Officer</t>
   </si>
   <si>
@@ -299,15 +291,15 @@
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/profile%20photo_Nisal%20Chandana%20Ekana.jpg</t>
   </si>
   <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_20211210_145625_Upesha%20Pankajbhai%20Pa.jpg</t>
-  </si>
-  <si>
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/WhatsApp%20Image%202024-04-26%20at%209.57.04%20AM_Naitik%20Pankaj%20Kumar.jpeg</t>
   </si>
   <si>
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_3813_Harmanjot%20Singh.jpeg</t>
   </si>
   <si>
+    <t>https://drive.google.com/open?id=1dOK4SeqZXn3zDV0u5bxvVgRgC2wKlfkT</t>
+  </si>
+  <si>
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/Capture0526_Khushi%20Ajit%20Vaswani.jpg</t>
   </si>
   <si>
@@ -347,15 +339,15 @@
     <t>www.linkedin.com/in/nisal-ekanayake</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/in/upesha-patel-b76852192?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/in/naitik-raval-199128155/</t>
   </si>
   <si>
     <t>http://linkedin.com/in/harmanjot-singh-05807820b</t>
   </si>
   <si>
+    <t>https://wwwww.linkedin.com/in/andrea-huesca-b9b7131a0/</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/khushi-vaswani/</t>
   </si>
   <si>
@@ -371,7 +363,7 @@
     <t>Finance</t>
   </si>
   <si>
-    <t xml:space="preserve">Manager,Â Event AccountingÂ </t>
+    <t>Manager, Event Accounting</t>
   </si>
   <si>
     <t>Finance Planning</t>
@@ -515,7 +507,7 @@
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/471952021_2580787655451226_294666648770807822_Abigail%20Cabazal.jpg</t>
   </si>
   <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/WhatsApp%20Image%202021-03-13%20at%204.04.51%20PM_Justin%20Chu.jpeg</t>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/WhatsApp%20Image%202021-03-13%20at%204.04.51%20PM _Justin%20Chu.jpeg</t>
   </si>
   <si>
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG-20240624-WA0027_Shreet%20Ketan%20Dave.jpg</t>
@@ -677,7 +669,7 @@
     <t xml:space="preserve">  Student Success Director</t>
   </si>
   <si>
-    <t>Challenge Set Liaison / Team Lead â Participant Support</t>
+    <t>Challenge Set Liaison / Team Lead - Participant Support</t>
   </si>
   <si>
     <t>Student Sucess Manager</t>
@@ -761,6 +753,9 @@
     <t>https://drive.google.com/open?id=1rWpo-efL-DfqKQjOFeI5JUrI2nRyu-a_</t>
   </si>
   <si>
+    <t>https://drive.google.com/open?id=18jjizpslJzMaRS7i8g6pqYIeBsczKDI2</t>
+  </si>
+  <si>
     <t>https://drive.google.com/open?id=1Ce4wLhfIaRW6i1GVu9VeLd6hL2_IwWjY</t>
   </si>
   <si>
@@ -803,6 +798,9 @@
     <t>www.linkedin.com/in/utpal-prajapati-191a391a8</t>
   </si>
   <si>
+    <t>linkedin.com/in/dwayne-jude-saldanha-39860a1b6</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/ruhail-hamza-mohamed-6a94b8203/</t>
   </si>
   <si>
@@ -833,9 +831,6 @@
     <t>Shanu Anie Alias</t>
   </si>
   <si>
-    <t>Ankit Thapar</t>
-  </si>
-  <si>
     <t>Osman Kahraman</t>
   </si>
   <si>
@@ -881,9 +876,6 @@
     <t>saalias@myseneca.ca</t>
   </si>
   <si>
-    <t>ankit.thapar@senecapolytechnic.ca</t>
-  </si>
-  <si>
     <t>okahraman2@myseneca.ca</t>
   </si>
   <si>
@@ -950,6 +942,9 @@
     <t>https://drive.google.com/open?id=1VYrkf61sKKEovtaPPXKQJoEft9UKxmM7</t>
   </si>
   <si>
+    <t>https://drive.google.com/open?id=1omRCdXrgpM0zmuPKzd45X5cy3P99Jv2V</t>
+  </si>
+  <si>
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/small_Guilherme%20Luiz%20Barbo.jpeg</t>
   </si>
   <si>
@@ -971,9 +966,6 @@
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/image_Shanu%20Anie%20Alias.png</t>
   </si>
   <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_4856_Ankit%20Thapar.jpeg</t>
-  </si>
-  <si>
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/DSC01890_Osman%20Kahraman.jpg</t>
   </si>
   <si>
@@ -983,12 +975,18 @@
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/000125130002_Boyu%20Cao.jpg</t>
   </si>
   <si>
+    <t>https://drive.google.com/open?id=1qrFmtB8xQrXxBUhdOCvtajxdvTY8Gmxi</t>
+  </si>
+  <si>
     <t>https://drive.google.com/open?id=1gb3qYWS_HHsMNoCHObr20bdzbLHM2Pqi</t>
   </si>
   <si>
     <t>https://www.linkedin.com/in/rahul-mamania/</t>
   </si>
   <si>
+    <t>https://www.linkedin.com/in/kahandesai</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/guilhermebdasilva/</t>
   </si>
   <si>
@@ -1010,9 +1008,6 @@
     <t>https://www.linkedin.com/in/shanu-anie-alias</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/in/ankit-thapar-417873275</t>
-  </si>
-  <si>
     <t>www.linkedin.com/in/osman-kahraman-2a6513220</t>
   </si>
   <si>
@@ -1022,6 +1017,9 @@
     <t>https://www.linkedin.com/in/xeoncao/</t>
   </si>
   <si>
+    <t>https://www.linkedin.com/in/ansh-arora-29675a221/</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/vsavchyn/</t>
   </si>
   <si>
@@ -1043,9 +1041,6 @@
     <t xml:space="preserve">Shivani Nallamati </t>
   </si>
   <si>
-    <t>Justin Wong</t>
-  </si>
-  <si>
     <t>Talia Ghalayini</t>
   </si>
   <si>
@@ -1091,9 +1086,6 @@
     <t>nallamatishivani18@gmail.com</t>
   </si>
   <si>
-    <t>jwong301@myseneca.ca</t>
-  </si>
-  <si>
     <t>tghalayini1@myseneca.ca</t>
   </si>
   <si>
@@ -1163,9 +1155,6 @@
     <t>Business</t>
   </si>
   <si>
-    <t>Public Relations and Communications</t>
-  </si>
-  <si>
     <t>Computer Engineering Technology</t>
   </si>
   <si>
@@ -1208,9 +1197,15 @@
     <t>https://drive.google.com/open?id=1wPf8samP1m12dMqwjjMeQIyA01VH5PQW</t>
   </si>
   <si>
+    <t>https://drive.google.com/open?id=1QilLWrXkOajF_UJ1WmSKQtcRdgR8V-cX</t>
+  </si>
+  <si>
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/Scanned%20Documents%20(4)_page-0001_Safal%20Maharjan.jpg</t>
   </si>
   <si>
+    <t>https://drive.google.com/open?id=1m5EQNw7FrZgKbHNtFzWK19E6vkOv7P2p</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/mohammad-mozaffari-4a13592a6?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=ios_app</t>
   </si>
   <si>
@@ -1226,9 +1221,15 @@
     <t>https://www.linkedin.com/in/arfat-ahmed-ansari/</t>
   </si>
   <si>
+    <t>https://www.linkedin.com/in/pavan-anandakumar/</t>
+  </si>
+  <si>
     <t>www.linkedin.com/in/safal-maharjan-704588249</t>
   </si>
   <si>
+    <t>https://www.linkedin.com/in/winona-wirindra-1291ab207?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=ios_app</t>
+  </si>
+  <si>
     <t>Le Xuan Hoa Dao (Hannah)</t>
   </si>
   <si>
@@ -1334,18 +1335,6 @@
     <t>https://www.linkedin.com/in/chanyoung-kim-6488a9269/</t>
   </si>
   <si>
-    <t>Rishan Mendis</t>
-  </si>
-  <si>
-    <t>Shreya Adhvaryu</t>
-  </si>
-  <si>
-    <t>Shlok Kumar Sharma</t>
-  </si>
-  <si>
-    <t>Arya Prasad Samant</t>
-  </si>
-  <si>
     <t>Majd Al Mnayer</t>
   </si>
   <si>
@@ -1355,18 +1344,6 @@
     <t>Cleo Buenaventura</t>
   </si>
   <si>
-    <t>rishanmendis@yahoo.com / rmendis1@myseneca.ca</t>
-  </si>
-  <si>
-    <t>shreya.adhvaryu@senecapolytechnic.ca</t>
-  </si>
-  <si>
-    <t>shlok-kumar.sharma@senecapolytechnic.ca</t>
-  </si>
-  <si>
-    <t>aryasamant.10@gmail.com</t>
-  </si>
-  <si>
     <t>mal-mnayer@myseneca.ca</t>
   </si>
   <si>
@@ -1376,12 +1353,6 @@
     <t>cjbuenaventura@myseneca.ca</t>
   </si>
   <si>
-    <t>Marketing / Partner Experience</t>
-  </si>
-  <si>
-    <t>Social Media Marketing</t>
-  </si>
-  <si>
     <t>IT / Student Success/ First Nations</t>
   </si>
   <si>
@@ -1401,6 +1372,48 @@
   </si>
   <si>
     <t>linkedin.com/in/cleo-buenaventura</t>
+  </si>
+  <si>
+    <t>Kohulan Thevananthan</t>
+  </si>
+  <si>
+    <t>Isaiah Cyrus Majam</t>
+  </si>
+  <si>
+    <t>Suhana Shrestha</t>
+  </si>
+  <si>
+    <t>kthevananthan@myseneca.ca</t>
+  </si>
+  <si>
+    <t>sshrestha140@myseneca.ca</t>
+  </si>
+  <si>
+    <t>Issues Management</t>
+  </si>
+  <si>
+    <t>Issue Management Director</t>
+  </si>
+  <si>
+    <t>Partner Experience Director</t>
+  </si>
+  <si>
+    <t>Events Director</t>
+  </si>
+  <si>
+    <t>Chief of Staff</t>
+  </si>
+  <si>
+    <t>PMCC</t>
+  </si>
+  <si>
+    <t>To be filled</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1HA9k5zKKLL1Ko6LDw_0sPQyHwfKBwHVC</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/suhana-shrestha</t>
   </si>
 </sst>
 </file>
@@ -1771,7 +1784,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1814,22 +1827,22 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1837,22 +1850,22 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
         <v>51</v>
       </c>
-      <c r="D3" t="s">
-        <v>53</v>
-      </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1860,25 +1873,22 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1886,25 +1896,25 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1912,25 +1922,25 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1938,25 +1948,25 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1964,25 +1974,25 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1990,22 +2000,22 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2013,25 +2023,25 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2039,25 +2049,25 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2065,22 +2075,22 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2088,25 +2098,25 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F13" t="s">
         <v>75</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2114,25 +2124,25 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2140,25 +2150,25 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2166,19 +2176,19 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2186,19 +2196,19 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2206,19 +2216,7 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2226,7 +2224,7 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2234,7 +2232,22 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" t="s">
+        <v>69</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2242,48 +2255,25 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
         <v>49</v>
       </c>
-      <c r="C21" t="s">
-        <v>51</v>
-      </c>
       <c r="D21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" t="s">
         <v>67</v>
       </c>
-      <c r="E21" t="s">
-        <v>71</v>
+      <c r="F21" t="s">
+        <v>77</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" t="s">
-        <v>80</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2314,10 +2304,10 @@
     <hyperlink ref="J14" r:id="rId24"/>
     <hyperlink ref="I15" r:id="rId25"/>
     <hyperlink ref="J15" r:id="rId26"/>
-    <hyperlink ref="I21" r:id="rId27"/>
-    <hyperlink ref="J21" r:id="rId28"/>
-    <hyperlink ref="I22" r:id="rId29"/>
-    <hyperlink ref="J22" r:id="rId30"/>
+    <hyperlink ref="I20" r:id="rId27"/>
+    <hyperlink ref="J20" r:id="rId28"/>
+    <hyperlink ref="I21" r:id="rId29"/>
+    <hyperlink ref="J21" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2365,25 +2355,25 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" t="s">
         <v>113</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>114</v>
       </c>
-      <c r="C2" t="s">
+      <c r="I2" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D2" t="s">
+      <c r="J2" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="E2" t="s">
-        <v>117</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2437,261 +2427,261 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" t="s">
         <v>143</v>
       </c>
-      <c r="D4" t="s">
-        <v>146</v>
-      </c>
       <c r="E4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E8" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" t="s">
         <v>140</v>
       </c>
-      <c r="C11" t="s">
-        <v>143</v>
-      </c>
       <c r="D11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2763,395 +2753,401 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="J2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D4" t="s">
         <v>216</v>
       </c>
-      <c r="D4" t="s">
-        <v>219</v>
-      </c>
       <c r="E4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C8" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D8" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E8" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F8" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B9" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C9" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D9" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B10" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D10" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C11" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D11" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B12" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C12" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D12" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E12" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B13" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C13" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D13" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E13" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B14" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C14" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D14" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E14" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C15" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D15" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="J15" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B16" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C16" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D16" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E16" t="s">
-        <v>153</v>
+        <v>150</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="J16" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B17" t="s">
+        <v>210</v>
+      </c>
+      <c r="C17" t="s">
         <v>213</v>
       </c>
-      <c r="C17" t="s">
-        <v>216</v>
-      </c>
       <c r="D17" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E17" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B18" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C18" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D18" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E18" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C19" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D19" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3179,8 +3175,9 @@
     <hyperlink ref="I13" r:id="rId21"/>
     <hyperlink ref="J13" r:id="rId22"/>
     <hyperlink ref="I15" r:id="rId23"/>
-    <hyperlink ref="I18" r:id="rId24"/>
-    <hyperlink ref="J18" r:id="rId25"/>
+    <hyperlink ref="I16" r:id="rId24"/>
+    <hyperlink ref="I18" r:id="rId25"/>
+    <hyperlink ref="J18" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3188,7 +3185,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3228,380 +3225,371 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E3" t="s">
+        <v>303</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>306</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D4" t="s">
         <v>294</v>
       </c>
-      <c r="D4" t="s">
-        <v>297</v>
-      </c>
       <c r="E4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C5" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C6" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C8" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D8" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E8" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D9" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C10" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D10" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C11" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D11" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>329</v>
+        <v>314</v>
+      </c>
+      <c r="J11" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B12" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C12" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E12" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="J12" t="s">
-        <v>330</v>
+        <v>315</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C13" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D13" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="E13" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B14" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C14" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D14" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E14" t="s">
-        <v>153</v>
+        <v>303</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B15" t="s">
+        <v>288</v>
+      </c>
+      <c r="C15" t="s">
         <v>290</v>
       </c>
-      <c r="C15" t="s">
-        <v>293</v>
-      </c>
       <c r="D15" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E15" t="s">
-        <v>306</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B16" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C16" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D16" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E16" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
-        <v>276</v>
-      </c>
-      <c r="B17" t="s">
-        <v>292</v>
-      </c>
-      <c r="C17" t="s">
-        <v>293</v>
-      </c>
-      <c r="D17" t="s">
-        <v>304</v>
-      </c>
-      <c r="E17" t="s">
-        <v>155</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>333</v>
+        <v>152</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>332</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1"/>
     <hyperlink ref="J2" r:id="rId2"/>
-    <hyperlink ref="I4" r:id="rId3"/>
-    <hyperlink ref="J4" r:id="rId4"/>
-    <hyperlink ref="I5" r:id="rId5"/>
-    <hyperlink ref="J5" r:id="rId6"/>
-    <hyperlink ref="I6" r:id="rId7"/>
-    <hyperlink ref="J6" r:id="rId8"/>
-    <hyperlink ref="I7" r:id="rId9"/>
-    <hyperlink ref="I8" r:id="rId10"/>
-    <hyperlink ref="J8" r:id="rId11"/>
-    <hyperlink ref="I9" r:id="rId12"/>
-    <hyperlink ref="J9" r:id="rId13"/>
-    <hyperlink ref="I10" r:id="rId14"/>
-    <hyperlink ref="J10" r:id="rId15"/>
-    <hyperlink ref="I11" r:id="rId16"/>
-    <hyperlink ref="J11" r:id="rId17"/>
-    <hyperlink ref="I12" r:id="rId18"/>
-    <hyperlink ref="I13" r:id="rId19"/>
-    <hyperlink ref="J13" r:id="rId20"/>
-    <hyperlink ref="I14" r:id="rId21"/>
-    <hyperlink ref="J14" r:id="rId22"/>
-    <hyperlink ref="I17" r:id="rId23"/>
-    <hyperlink ref="J17" r:id="rId24"/>
+    <hyperlink ref="I3" r:id="rId3"/>
+    <hyperlink ref="J3" r:id="rId4"/>
+    <hyperlink ref="I4" r:id="rId5"/>
+    <hyperlink ref="J4" r:id="rId6"/>
+    <hyperlink ref="I5" r:id="rId7"/>
+    <hyperlink ref="J5" r:id="rId8"/>
+    <hyperlink ref="I6" r:id="rId9"/>
+    <hyperlink ref="J6" r:id="rId10"/>
+    <hyperlink ref="I7" r:id="rId11"/>
+    <hyperlink ref="I8" r:id="rId12"/>
+    <hyperlink ref="J8" r:id="rId13"/>
+    <hyperlink ref="I9" r:id="rId14"/>
+    <hyperlink ref="J9" r:id="rId15"/>
+    <hyperlink ref="I10" r:id="rId16"/>
+    <hyperlink ref="J10" r:id="rId17"/>
+    <hyperlink ref="I11" r:id="rId18"/>
+    <hyperlink ref="I12" r:id="rId19"/>
+    <hyperlink ref="J12" r:id="rId20"/>
+    <hyperlink ref="I13" r:id="rId21"/>
+    <hyperlink ref="J13" r:id="rId22"/>
+    <hyperlink ref="I14" r:id="rId23"/>
+    <hyperlink ref="J14" r:id="rId24"/>
+    <hyperlink ref="I16" r:id="rId25"/>
+    <hyperlink ref="J16" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3609,7 +3597,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3649,331 +3637,326 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F2" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C3" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E3" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F3" t="s">
+        <v>382</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>390</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C4" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E4" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F4" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C5" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F5" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D6" t="s">
         <v>366</v>
       </c>
-      <c r="D6" t="s">
-        <v>369</v>
-      </c>
       <c r="E6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C8" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D8" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E8" t="s">
-        <v>380</v>
+        <v>377</v>
+      </c>
+      <c r="F8" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C9" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E9" t="s">
-        <v>381</v>
-      </c>
-      <c r="F9" t="s">
-        <v>387</v>
+        <v>150</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B10" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C10" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E10" t="s">
-        <v>153</v>
+        <v>148</v>
+      </c>
+      <c r="F10" t="s">
+        <v>384</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B11" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C11" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E11" t="s">
-        <v>151</v>
-      </c>
-      <c r="F11" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B12" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C12" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D12" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E12" t="s">
-        <v>377</v>
+        <v>150</v>
+      </c>
+      <c r="F12" t="s">
+        <v>385</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="J12" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B13" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C13" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D13" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F13" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="J13" t="s">
+        <v>393</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B14" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C14" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D14" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E14" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B15" t="s">
+        <v>361</v>
+      </c>
+      <c r="C15" t="s">
         <v>363</v>
       </c>
-      <c r="C15" t="s">
-        <v>366</v>
-      </c>
       <c r="D15" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E15" t="s">
-        <v>383</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B16" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C16" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D16" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E16" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>349</v>
-      </c>
-      <c r="B17" t="s">
-        <v>365</v>
-      </c>
-      <c r="C17" t="s">
-        <v>366</v>
-      </c>
-      <c r="D17" t="s">
-        <v>376</v>
-      </c>
-      <c r="E17" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -3984,11 +3967,15 @@
     <hyperlink ref="J4" r:id="rId4"/>
     <hyperlink ref="I5" r:id="rId5"/>
     <hyperlink ref="J5" r:id="rId6"/>
-    <hyperlink ref="I10" r:id="rId7"/>
-    <hyperlink ref="J10" r:id="rId8"/>
-    <hyperlink ref="I11" r:id="rId9"/>
-    <hyperlink ref="J11" r:id="rId10"/>
-    <hyperlink ref="I13" r:id="rId11"/>
+    <hyperlink ref="I9" r:id="rId7"/>
+    <hyperlink ref="J9" r:id="rId8"/>
+    <hyperlink ref="I10" r:id="rId9"/>
+    <hyperlink ref="J10" r:id="rId10"/>
+    <hyperlink ref="I11" r:id="rId11"/>
+    <hyperlink ref="J11" r:id="rId12"/>
+    <hyperlink ref="I12" r:id="rId13"/>
+    <hyperlink ref="I13" r:id="rId14"/>
+    <hyperlink ref="J13" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4134,7 +4121,7 @@
         <v>413</v>
       </c>
       <c r="C6" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D6" t="s">
         <v>421</v>
@@ -4208,7 +4195,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4251,16 +4238,22 @@
         <v>437</v>
       </c>
       <c r="B2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D2" t="s">
         <v>444</v>
       </c>
-      <c r="C2" t="s">
-        <v>451</v>
-      </c>
-      <c r="D2" t="s">
-        <v>454</v>
-      </c>
       <c r="E2" t="s">
-        <v>151</v>
+        <v>445</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4268,16 +4261,16 @@
         <v>438</v>
       </c>
       <c r="B3" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>290</v>
       </c>
       <c r="D3" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="E3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4285,103 +4278,176 @@
         <v>439</v>
       </c>
       <c r="B4" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>290</v>
       </c>
       <c r="D4" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="E4" t="s">
-        <v>151</v>
+        <v>445</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="J4" t="s">
+        <v>449</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="J2" r:id="rId2"/>
+    <hyperlink ref="I4" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C2" t="s">
+        <v>455</v>
+      </c>
+      <c r="D2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" t="s">
+        <v>455</v>
+      </c>
+      <c r="D3" t="s">
+        <v>457</v>
+      </c>
+      <c r="E3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" t="s">
+        <v>461</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>451</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>455</v>
+      </c>
+      <c r="D4" t="s">
+        <v>458</v>
+      </c>
+      <c r="E4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" t="s">
+        <v>461</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="B5" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="C5" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D5" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="E5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>441</v>
-      </c>
-      <c r="B6" t="s">
-        <v>448</v>
-      </c>
-      <c r="C6" t="s">
-        <v>453</v>
-      </c>
-      <c r="D6" t="s">
-        <v>454</v>
-      </c>
-      <c r="E6" t="s">
-        <v>455</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>442</v>
-      </c>
-      <c r="B7" t="s">
-        <v>449</v>
-      </c>
-      <c r="C7" t="s">
-        <v>293</v>
-      </c>
-      <c r="D7" t="s">
-        <v>454</v>
-      </c>
-      <c r="E7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>443</v>
-      </c>
-      <c r="B8" t="s">
-        <v>450</v>
-      </c>
-      <c r="C8" t="s">
-        <v>293</v>
-      </c>
-      <c r="D8" t="s">
-        <v>454</v>
-      </c>
-      <c r="E8" t="s">
-        <v>455</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="J8" t="s">
-        <v>459</v>
+        <v>460</v>
+      </c>
+      <c r="F5" t="s">
+        <v>461</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="J5" t="s">
+        <v>463</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I6" r:id="rId1"/>
-    <hyperlink ref="J6" r:id="rId2"/>
-    <hyperlink ref="I8" r:id="rId3"/>
+    <hyperlink ref="I3" r:id="rId1"/>
+    <hyperlink ref="J3" r:id="rId2"/>
+    <hyperlink ref="I4" r:id="rId3"/>
+    <hyperlink ref="J4" r:id="rId4"/>
+    <hyperlink ref="I5" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel_input/Updated_KEY_ORGANIZERS.xlsx
+++ b/excel_input/Updated_KEY_ORGANIZERS.xlsx
@@ -7,22 +7,24 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="OPERATIONS TEAM" sheetId="1" r:id="rId1"/>
-    <sheet name="FINANCE TEAM" sheetId="2" r:id="rId2"/>
-    <sheet name="PARTNER EXPERIENCE TEAM" sheetId="3" r:id="rId3"/>
-    <sheet name="STUDENT SUCCESS TEAM" sheetId="4" r:id="rId4"/>
-    <sheet name="IT DEVELOPMENT TEAM" sheetId="5" r:id="rId5"/>
-    <sheet name="MARKETING &amp; COMMUNICATIONS TEAM" sheetId="6" r:id="rId6"/>
-    <sheet name="CREATIVES TEAM" sheetId="7" r:id="rId7"/>
-    <sheet name="CONSULTANTS" sheetId="8" r:id="rId8"/>
-    <sheet name="ISSUE MANAGEMENT TEAM" sheetId="9" r:id="rId9"/>
+    <sheet name="LEADERS" sheetId="1" r:id="rId1"/>
+    <sheet name="OPERATIONS TEAM" sheetId="2" r:id="rId2"/>
+    <sheet name="FINANCE TEAM" sheetId="3" r:id="rId3"/>
+    <sheet name="PARTNER EXPERIENCE TEAM" sheetId="4" r:id="rId4"/>
+    <sheet name="STUDENT SUCCESS TEAM" sheetId="5" r:id="rId5"/>
+    <sheet name="REGISTRATION TEAM" sheetId="6" r:id="rId6"/>
+    <sheet name="IT DEVELOPMENT TEAM" sheetId="7" r:id="rId7"/>
+    <sheet name="MARKETING &amp; COMMUNICATIONS TEAM" sheetId="8" r:id="rId8"/>
+    <sheet name="CREATIVES TEAM" sheetId="9" r:id="rId9"/>
+    <sheet name="CONSULTANTS" sheetId="10" r:id="rId10"/>
+    <sheet name="ISSUE MANAGEMENT TEAM" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="468">
   <si>
     <t>Name</t>
   </si>
@@ -51,10 +53,37 @@
     <t>LinkedIn Profile_y</t>
   </si>
   <si>
-    <t>Irus Majam</t>
-  </si>
-  <si>
-    <t>Umar Nazarin Packeer</t>
+    <t>Mark Buchner</t>
+  </si>
+  <si>
+    <t>Suhana Shrestha</t>
+  </si>
+  <si>
+    <t>mark.buchner@senecapolytechnic.ca</t>
+  </si>
+  <si>
+    <t>sshrestha140@myseneca.ca</t>
+  </si>
+  <si>
+    <t>Chair</t>
+  </si>
+  <si>
+    <t>Chief of Staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMCC </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1HA9k5zKKLL1Ko6LDw_0sPQyHwfKBwHVC</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/suhana-shrestha</t>
+  </si>
+  <si>
+    <t>Isaiah Cyrus Majam</t>
   </si>
   <si>
     <t>Ashmy Thomas</t>
@@ -66,145 +95,697 @@
     <t>Jasmeen Kaur</t>
   </si>
   <si>
-    <t>Nischal Sapkota</t>
+    <t>Winlyn Luena</t>
+  </si>
+  <si>
+    <t>Sanam Maharjan</t>
+  </si>
+  <si>
+    <t>Nisal Chandana Ekanayake</t>
+  </si>
+  <si>
+    <t>Khushi Ajit Vaswani</t>
+  </si>
+  <si>
+    <t>Andrea Huesca Enciso</t>
+  </si>
+  <si>
+    <t>Brenda Caceres</t>
+  </si>
+  <si>
+    <t>Haru Ai Okabe</t>
+  </si>
+  <si>
+    <t>Owen Nelson</t>
+  </si>
+  <si>
+    <t>Connor Liberman</t>
+  </si>
+  <si>
+    <t>Soumya Saraswati</t>
+  </si>
+  <si>
+    <t>Sanjan</t>
+  </si>
+  <si>
+    <t>icmajam@myseneca.ca</t>
+  </si>
+  <si>
+    <t>athomas141@myseneca.ca</t>
+  </si>
+  <si>
+    <t>sthing2@myseneca.ca</t>
+  </si>
+  <si>
+    <t>jasmeen-kaur39@myseneca.ca</t>
+  </si>
+  <si>
+    <t>wluena@myseneca.ca</t>
+  </si>
+  <si>
+    <t>smaharjan23@myseneca.ca</t>
+  </si>
+  <si>
+    <t>ncekanayake@myseneca.ca</t>
+  </si>
+  <si>
+    <t>kvaswani1@myseneca.ca</t>
+  </si>
+  <si>
+    <t>ahuesca-enciso@myseneca.ca</t>
+  </si>
+  <si>
+    <t>cvbrenda@myseneca.ca</t>
+  </si>
+  <si>
+    <t>haokabe@myseneca.ca</t>
+  </si>
+  <si>
+    <t>onelson2@myseneca.ca</t>
+  </si>
+  <si>
+    <t>cliberman@myseneca.ca</t>
+  </si>
+  <si>
+    <t>ssaraswati@myseneca.ca</t>
+  </si>
+  <si>
+    <t>sanjan1@myseneca.ca</t>
+  </si>
+  <si>
+    <t>Operations</t>
+  </si>
+  <si>
+    <t>Broadcast</t>
+  </si>
+  <si>
+    <t>Event Director</t>
+  </si>
+  <si>
+    <t>Daily Report Offier</t>
+  </si>
+  <si>
+    <t>Weekly Reports Officer</t>
+  </si>
+  <si>
+    <t>Manager, Rules, Regulations, Prizing, and Judging</t>
+  </si>
+  <si>
+    <t>Manager, Event SWAG</t>
+  </si>
+  <si>
+    <t>SWAG Officer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manager, Event Catering </t>
+  </si>
+  <si>
+    <t>Manager, Microcredentials</t>
+  </si>
+  <si>
+    <t>Producer</t>
+  </si>
+  <si>
+    <t>Broadcast Officer</t>
+  </si>
+  <si>
+    <t>Tech Lead</t>
+  </si>
+  <si>
+    <t>Audio Engineer</t>
+  </si>
+  <si>
+    <t>Camera Operator</t>
+  </si>
+  <si>
+    <t>Show Caller</t>
+  </si>
+  <si>
+    <t>Tech Officer</t>
+  </si>
+  <si>
+    <t>Business Tech Management</t>
+  </si>
+  <si>
+    <t>Event and Media Production</t>
+  </si>
+  <si>
+    <t>Integration Management / Project Control Officer</t>
+  </si>
+  <si>
+    <t>Stage Management</t>
+  </si>
+  <si>
+    <t>Procurement Team (Food / Merchandise)</t>
+  </si>
+  <si>
+    <t>Procurement Team (SWAG / Supplies)</t>
+  </si>
+  <si>
+    <t>Broadcast Team</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/Resume%20Photo_Isaiah%20Cyrus%20Majam.jpeg</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/1_Ashmy%20Thomas.jpg</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/PHOTO-2024-09-10-22-31-19_Shikha%20Thing.jpg</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG-20250127-WA0057_-%20Jasmeen%20Kaur.jpg</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/DSCF6056_Winlyn%20Luena.JPG</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/_MG_0441_Sanam%20Maharjan.JPG</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/profile%20photo_Nisal%20Chandana%20Ekana.jpg</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/Capture0526_Khushi%20Ajit%20Vaswani.jpg</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1dOK4SeqZXn3zDV0u5bxvVgRgC2wKlfkT</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1LX6hwca9a0f2WbjovANr-djOHUqsUGVe</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1aqjdsxVCHgsRZp5EqOxFUyNCVwv-rBB0</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/irusmajam/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ashmy-thomas/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/shikha-thing-82ab52177/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/jasmeen-kaur-401a96338?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/winlynluena</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/sanammaharjan01</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/nisal-ekanayake</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/khushi-vaswani/</t>
+  </si>
+  <si>
+    <t>https://wwwww.linkedin.com/in/andrea-huesca-b9b7131a0/</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/soumya-saraswati-33b0871a7</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/sanjan-monga-b6054a328?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=ios_app</t>
+  </si>
+  <si>
+    <t>Seyedesomaye Najafi (Samira)</t>
+  </si>
+  <si>
+    <t>snajafi6@myseneca.ca</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Manager, Event Accounting</t>
+  </si>
+  <si>
+    <t>Finance Planning</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/unnamed_Seyedesomaye%20Najafi.jpg</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/</t>
+  </si>
+  <si>
+    <t>Fenil Mehta</t>
+  </si>
+  <si>
+    <t>Lily Ngo</t>
+  </si>
+  <si>
+    <t>Abhinaya Narayanan Subramanian</t>
+  </si>
+  <si>
+    <t>Abigail Cabazal</t>
+  </si>
+  <si>
+    <t>Justin Chu</t>
+  </si>
+  <si>
+    <t>Shreet Ketan Dave</t>
+  </si>
+  <si>
+    <t>Krishita Nirmesh Vakil</t>
+  </si>
+  <si>
+    <t>Manjot Singh</t>
+  </si>
+  <si>
+    <t>Jay Vijaykumar Vakil</t>
+  </si>
+  <si>
+    <t>Subhankar Gon</t>
+  </si>
+  <si>
+    <t>Ayush Shah</t>
+  </si>
+  <si>
+    <t>fmmehta@myseneca.ca</t>
+  </si>
+  <si>
+    <t>lhngo1@myseneca.ca</t>
+  </si>
+  <si>
+    <t>anarayanan-subramani@myseneca.ca</t>
+  </si>
+  <si>
+    <t>acabazal@myseneca.ca</t>
+  </si>
+  <si>
+    <t>hychu2@myseneca.ca</t>
+  </si>
+  <si>
+    <t>skdave@myseneca.ca</t>
+  </si>
+  <si>
+    <t>knvakil@myseneca.ca</t>
+  </si>
+  <si>
+    <t>msingh802@myseneca.ca</t>
+  </si>
+  <si>
+    <t>jvakil@myseneca.ca</t>
+  </si>
+  <si>
+    <t>sgon@myseneca.ca</t>
+  </si>
+  <si>
+    <t>ayushshahas17@outlook.com</t>
+  </si>
+  <si>
+    <t>P.E / Operations</t>
+  </si>
+  <si>
+    <t>Partner Experience</t>
+  </si>
+  <si>
+    <t>Director, Partner Experience</t>
+  </si>
+  <si>
+    <t>Manager, Corporate Relations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Control Officer. Partner Exp. </t>
+  </si>
+  <si>
+    <t>Partner Exp.  Officer</t>
+  </si>
+  <si>
+    <t>Manager, Not-For-Profit Relations</t>
+  </si>
+  <si>
+    <t>Manager, WIL Coordination</t>
+  </si>
+  <si>
+    <t>Manager, Government Relations</t>
+  </si>
+  <si>
+    <t>Alumni</t>
+  </si>
+  <si>
+    <t>Business Analytics</t>
+  </si>
+  <si>
+    <t>PMC</t>
+  </si>
+  <si>
+    <t>Business Management</t>
+  </si>
+  <si>
+    <t>Computer Programming</t>
+  </si>
+  <si>
+    <t>Information Technology Solutions</t>
+  </si>
+  <si>
+    <t>Corporate Relations</t>
+  </si>
+  <si>
+    <t>Non-Profit Organizations</t>
+  </si>
+  <si>
+    <t>Seneca Works</t>
+  </si>
+  <si>
+    <t>Government Relations</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/FB_IMG_1568043945443_Fenil%20Mehta.jpg</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/LinkedIn_0711_Lily%20Ngo.JPG</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1lzfmntWxDODwvy0gYtiM6gLwJdjPD6Jh/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/471952021_2580787655451226_294666648770807822_Abigail%20Cabazal.jpg</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/WhatsApp%20Image%202021-03-13%20at%204.04.51%20PM _Justin%20Chu.jpeg</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG-20240624-WA0027_Shreet%20Ketan%20Dave.jpg</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1nBgDszp_I0qFXi6Z94V0JSIkWaZ972jv</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_3537_Manjot%20Singh.jpeg</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/Profile_Jay%20Vijaykumar%20Vakil.jpg</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1AzSS-72xho7BokZE3KeDeNmaFRUL172N</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1LDj93MB3ofu-_jfFRGCDdmhJlLnjcW2H</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/fenilmehta</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/lilyngo12/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/nsabhinaya</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/abigailcabazal/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/justinhaoyuchu/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/shreet-dave-225388235?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/krishita-vakil-b37b53188/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/manjot-ghatora/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/jay-vakil/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/subhankargon/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ayush-shah-15a839246/</t>
+  </si>
+  <si>
+    <t>Kris Sadiasa</t>
+  </si>
+  <si>
+    <t>Rui Zhu (Hathaway)</t>
+  </si>
+  <si>
+    <t>Ameya Mangesh Kokatay</t>
+  </si>
+  <si>
+    <t>Tomisin Jephthah Ojaokomo</t>
+  </si>
+  <si>
+    <t>Syed Shahzeb Saleem</t>
+  </si>
+  <si>
+    <t>Susma Thapa</t>
+  </si>
+  <si>
+    <t>Devanshi Bharatkumar Lokhandwala</t>
+  </si>
+  <si>
+    <t>Jenil Hirenkumar Mehta</t>
+  </si>
+  <si>
+    <t>Nicole Herman Rodrigues</t>
+  </si>
+  <si>
+    <t>Mai Huong Nguyen</t>
+  </si>
+  <si>
+    <t>Sarthak Gupta</t>
+  </si>
+  <si>
+    <t>Shakila Samaradiwakara</t>
+  </si>
+  <si>
+    <t>Utpal Manishchandra Prajapati</t>
+  </si>
+  <si>
+    <t>Dwayne Jude Saldanha</t>
+  </si>
+  <si>
+    <t>Shaurya Sharma</t>
+  </si>
+  <si>
+    <t>Adeeba Javed</t>
+  </si>
+  <si>
+    <t>kalmodal@myseneca.ca</t>
+  </si>
+  <si>
+    <t>rzhu27@myseneca.ca</t>
+  </si>
+  <si>
+    <t>ameya-mangesh.kokatay@senecapolytechnic.ca</t>
+  </si>
+  <si>
+    <t>tjojaokomo@myseneca.ca</t>
+  </si>
+  <si>
+    <t>sssaleem@myseneca.ca</t>
+  </si>
+  <si>
+    <t>sthapa57@myseneca.ca</t>
+  </si>
+  <si>
+    <t>dblokhandwala@myseneca.ca</t>
+  </si>
+  <si>
+    <t>jhmehta1@myseneca.ca</t>
+  </si>
+  <si>
+    <t>nhrodrigues@myseneca.ca</t>
+  </si>
+  <si>
+    <t>mhnguyen23@myseneca.ca</t>
+  </si>
+  <si>
+    <t>sgupta1797@conestogac.on.ca</t>
+  </si>
+  <si>
+    <t>Ssamaradiwakara6070@conestogac.on.ca</t>
+  </si>
+  <si>
+    <t>umprajapati@myseneca.ca</t>
+  </si>
+  <si>
+    <t>djsaldanha@myseneca.ca</t>
+  </si>
+  <si>
+    <t>ssharma596@myseneca.ca</t>
+  </si>
+  <si>
+    <t>aj.adeebajaved@outlook.com</t>
+  </si>
+  <si>
+    <t>Student Success</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Student Success Director</t>
+  </si>
+  <si>
+    <t>Challenge Set Liaison / Team Lead - Participant Support</t>
+  </si>
+  <si>
+    <t>Student Sucess Manager</t>
+  </si>
+  <si>
+    <t>Discord &amp; Ticketing System Manager</t>
+  </si>
+  <si>
+    <t>Conflict Resolution Manager</t>
+  </si>
+  <si>
+    <t>Student Sucess Officer</t>
+  </si>
+  <si>
+    <t>Data &amp; Administration Manager</t>
+  </si>
+  <si>
+    <t>Computer System Technology</t>
+  </si>
+  <si>
+    <t>Bachelor of Data Science and Analytics</t>
+  </si>
+  <si>
+    <t>Early Childhood Education</t>
+  </si>
+  <si>
+    <t>SCM</t>
+  </si>
+  <si>
+    <t>Web development</t>
+  </si>
+  <si>
+    <t>ACF</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_8651_Kris%20Sadiasa.jpeg</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/Photo_Hathaway_Zhu%20Rui.jpg</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/Ameya%20Kokatay%20-%20Headshot_Ameya%20Mangesh%20Kokata.jpg</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=15RFDt_tR3_nJUFKRWWmugQwZG6WYzeHt</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/1737242680405_Syed%20Shahzeb%20Saleem.jpg</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_1741_Susma%20Thapa.jpeg</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/Screenshot%202024-09-20%20190754_Devanshi%20Bharatkumar.png</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/PXL_20240826_001624389.MP-POP_OUT_Jenil%20Hirenkumar%20Meh.jpg</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_20250127_222531_Nicole%20Herman%20Rodrig.png</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/Profile%20image_Mai%20Huong%20Nguyen.jpg</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1y7P6kSnPO3nLp0wlXo9As6w1GtZixkYs</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1YbWDrn0URyo_Cttzwt7UJXAvJ_1ADkbU/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1rWpo-efL-DfqKQjOFeI5JUrI2nRyu-a_</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=18jjizpslJzMaRS7i8g6pqYIeBsczKDI2</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1zEn6rerBv3fw7kH0-xTuSJcBHEMHyxbM/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/khris-sadiasa-69710518b</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/rui-zhu-2a086433b/</t>
+  </si>
+  <si>
+    <t>https://in.linkedin.com/in/ameya-kokatay-5b8312260</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/tomisin-ojaokomo</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/syedshahzebsaleem/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/susma-thapa-1765a8312</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/devanshi-lokhandwala-55aa5a218/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/jenil-mehta-aa39491a1?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/nicole-rodrigues41/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/mai-huong-nguyen-263631201/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/s4rthak-gupta/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/shakila-rajapakse/</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/utpal-prajapati-191a391a8</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/dwayne-jude-saldanha-39860a1b6</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/shaurya0908/</t>
+  </si>
+  <si>
+    <t>Naitik Pankaj Kumar Raval</t>
+  </si>
+  <si>
+    <t>Harmanjot Singh</t>
+  </si>
+  <si>
+    <t>Rowena Dollison</t>
   </si>
   <si>
     <t>Keerthivaasan Elango</t>
   </si>
   <si>
-    <t>Divanshu</t>
-  </si>
-  <si>
-    <t>Winlyn Luena</t>
-  </si>
-  <si>
-    <t>Sanam Maharjan</t>
-  </si>
-  <si>
-    <t>Nisal Chandana Ekanayake</t>
-  </si>
-  <si>
-    <t>Naitik Pankaj Kumar Raval</t>
-  </si>
-  <si>
-    <t>Harmanjot Singh</t>
-  </si>
-  <si>
-    <t>Andrea Huesca Enciso</t>
-  </si>
-  <si>
-    <t>Brenda Caceres</t>
-  </si>
-  <si>
-    <t>Haru Ai Okabe</t>
-  </si>
-  <si>
-    <t>Sanjan</t>
-  </si>
-  <si>
-    <t>Soumya Saraswati</t>
-  </si>
-  <si>
-    <t>Khushi Ajit Vaswani</t>
-  </si>
-  <si>
-    <t>Ramesh Banjade</t>
-  </si>
-  <si>
-    <t>icmajam@myseneca.ca</t>
-  </si>
-  <si>
-    <t>unpackeer@myseneca.ca</t>
-  </si>
-  <si>
-    <t>athomas141@myseneca.ca</t>
-  </si>
-  <si>
-    <t>sthing2@myseneca.ca</t>
-  </si>
-  <si>
-    <t>jasmeen-kaur39@myseneca.ca</t>
-  </si>
-  <si>
-    <t>nsapkota5@myseneca.ca</t>
+    <t>Ruhail Hamza Mohamed</t>
+  </si>
+  <si>
+    <t>npkraval@myseneca.ca</t>
+  </si>
+  <si>
+    <t>hsingh958@myseneca.ca</t>
+  </si>
+  <si>
+    <t>rdollison@myseneca.ca</t>
   </si>
   <si>
     <t>kelango1@myseneca.ca</t>
   </si>
   <si>
-    <t>divanshu2@myseneca.ca</t>
-  </si>
-  <si>
-    <t>wluena@myseneca.ca</t>
-  </si>
-  <si>
-    <t>smaharjan23@myseneca.ca</t>
-  </si>
-  <si>
-    <t>ncekanayake@myseneca.ca</t>
-  </si>
-  <si>
-    <t>npkraval@myseneca.ca</t>
-  </si>
-  <si>
-    <t>hsingh958@myseneca.ca</t>
-  </si>
-  <si>
-    <t>ahuesca-enciso@myseneca.ca</t>
-  </si>
-  <si>
-    <t>cvbrenda@myseneca.ca</t>
-  </si>
-  <si>
-    <t>haokabe@myseneca.ca</t>
-  </si>
-  <si>
-    <t>sanjan1@myseneca.ca</t>
-  </si>
-  <si>
-    <t>ssaraswati@myseneca.ca</t>
-  </si>
-  <si>
-    <t>kvaswani1@myseneca.ca</t>
-  </si>
-  <si>
-    <t>rbanjade@myseneca.ca</t>
-  </si>
-  <si>
-    <t>Operations</t>
-  </si>
-  <si>
-    <t>Event Director</t>
-  </si>
-  <si>
-    <t>Project Manager, Operations</t>
-  </si>
-  <si>
-    <t>Daily Report Offier</t>
-  </si>
-  <si>
-    <t>Weekly Reports Officer</t>
-  </si>
-  <si>
-    <t>Manager, Rules, Regulations, Prizing, and Judging</t>
-  </si>
-  <si>
-    <t>Prizing</t>
-  </si>
-  <si>
-    <t>Judging</t>
-  </si>
-  <si>
-    <t>School Facilities Liaison</t>
-  </si>
-  <si>
-    <t>Manager, Event SWAG</t>
-  </si>
-  <si>
-    <t>SWAG Officer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manager, Event Catering </t>
+    <t>rhmohamed1@myseneca.ca</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>Registration Director</t>
   </si>
   <si>
     <t>Manager, Registrations</t>
@@ -213,594 +794,30 @@
     <t>Registration Officer</t>
   </si>
   <si>
-    <t>Producer</t>
-  </si>
-  <si>
-    <t>Broadcast Officer</t>
-  </si>
-  <si>
-    <t>Manager, Microcredentials</t>
-  </si>
-  <si>
-    <t>Operations Officer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMC </t>
-  </si>
-  <si>
-    <t>Event and Media Production</t>
-  </si>
-  <si>
-    <t>Business Tech Management</t>
-  </si>
-  <si>
-    <t>Integration Management / Project Control Officer</t>
-  </si>
-  <si>
-    <t>Stage Management</t>
-  </si>
-  <si>
-    <t>Procurement Team</t>
-  </si>
-  <si>
-    <t>Procurement Team (Food / Merchandise)</t>
-  </si>
-  <si>
-    <t>Procurement Team (SWAG / Supplies)</t>
-  </si>
-  <si>
     <t>Registration Team</t>
   </si>
   <si>
-    <t>Broadcast Team</t>
-  </si>
-  <si>
-    <t>Runner</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/Resume%20Photo_Isaiah%20Cyrus%20Majam.jpeg</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/410776068_10229661516069596_36086869690913958_Umar%20Nazarin%20Packeer.jpg</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/1_Ashmy%20Thomas.jpg</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/PHOTO-2024-09-10-22-31-19_Shikha%20Thing.jpg</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG-20250127-WA0057_-%20Jasmeen%20Kaur.jpg</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/1650200403948%20(1)_Nischal%20Sapkota.jpg</t>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/WhatsApp%20Image%202024-04-26%20at%209.57.04%20AM_Naitik%20Pankaj%20Kumar.jpeg</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_3813_Harmanjot%20Singh.jpeg</t>
   </si>
   <si>
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_7466_Keerthivaasan%20Elango.jpeg</t>
   </si>
   <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_0030_-%20Divanshu.jpeg</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/DSCF6056_Winlyn%20Luena.JPG</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/_MG_0441_Sanam%20Maharjan.JPG</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/profile%20photo_Nisal%20Chandana%20Ekana.jpg</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/WhatsApp%20Image%202024-04-26%20at%209.57.04%20AM_Naitik%20Pankaj%20Kumar.jpeg</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_3813_Harmanjot%20Singh.jpeg</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1dOK4SeqZXn3zDV0u5bxvVgRgC2wKlfkT</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/Capture0526_Khushi%20Ajit%20Vaswani.jpg</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_4534_Ramesh%20Banjade.jpeg</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/irusmajam/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/umar-packeer-40b58412b/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/ashmy-thomas/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/shikha-thing-82ab52177/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/jasmeen-kaur-401a96338?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/nischalsapkota977/</t>
+    <t>https://drive.google.com/open?id=1Ce4wLhfIaRW6i1GVu9VeLd6hL2_IwWjY</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/naitik-raval-199128155/</t>
+  </si>
+  <si>
+    <t>http://linkedin.com/in/harmanjot-singh-05807820b</t>
   </si>
   <si>
     <t>https://www.linkedin.com/in/keerthivaasan01?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=ios_app</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/in/divanshu2001</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/winlynluena</t>
-  </si>
-  <si>
-    <t>www.linkedin.com/in/sanammaharjan01</t>
-  </si>
-  <si>
-    <t>www.linkedin.com/in/nisal-ekanayake</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/naitik-raval-199128155/</t>
-  </si>
-  <si>
-    <t>http://linkedin.com/in/harmanjot-singh-05807820b</t>
-  </si>
-  <si>
-    <t>https://wwwww.linkedin.com/in/andrea-huesca-b9b7131a0/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/khushi-vaswani/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/ramesh-banjade-3b80261b3?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=ios_app</t>
-  </si>
-  <si>
-    <t>Seyedesomaye Najafi (Samira)</t>
-  </si>
-  <si>
-    <t>snajafi6@myseneca.ca</t>
-  </si>
-  <si>
-    <t>Finance</t>
-  </si>
-  <si>
-    <t>Manager, Event Accounting</t>
-  </si>
-  <si>
-    <t>Finance Planning</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/unnamed_Seyedesomaye%20Najafi.jpg</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/feed/</t>
-  </si>
-  <si>
-    <t>Fenil Mehta</t>
-  </si>
-  <si>
-    <t>Lily Ngo</t>
-  </si>
-  <si>
-    <t>Abhinaya Narayanan Subramanian</t>
-  </si>
-  <si>
-    <t>Abigail Cabazal</t>
-  </si>
-  <si>
-    <t>Justin Chu</t>
-  </si>
-  <si>
-    <t>Shreet Ketan Dave</t>
-  </si>
-  <si>
-    <t>Krishita Nirmesh Vakil</t>
-  </si>
-  <si>
-    <t>Manjot Singh</t>
-  </si>
-  <si>
-    <t>Jay Vijaykumar Vakil</t>
-  </si>
-  <si>
-    <t>Subhankar Gon</t>
-  </si>
-  <si>
-    <t>Ayush Shah</t>
-  </si>
-  <si>
-    <t>fmmehta@myseneca.ca</t>
-  </si>
-  <si>
-    <t>lhngo1@myseneca.ca</t>
-  </si>
-  <si>
-    <t>anarayanan-subramani@myseneca.ca</t>
-  </si>
-  <si>
-    <t>acabazal@myseneca.ca</t>
-  </si>
-  <si>
-    <t>hychu2@myseneca.ca</t>
-  </si>
-  <si>
-    <t>skdave@myseneca.ca</t>
-  </si>
-  <si>
-    <t>knvakil@myseneca.ca</t>
-  </si>
-  <si>
-    <t>msingh802@myseneca.ca</t>
-  </si>
-  <si>
-    <t>jvakil@myseneca.ca</t>
-  </si>
-  <si>
-    <t>sgon@myseneca.ca</t>
-  </si>
-  <si>
-    <t>ayushshahas17@outlook.com</t>
-  </si>
-  <si>
-    <t>P.E / Operations</t>
-  </si>
-  <si>
-    <t>Partner Experience</t>
-  </si>
-  <si>
-    <t>Director, Partner Experience</t>
-  </si>
-  <si>
-    <t>Manager, Corporate Relations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project Control Officer. Partner Exp. </t>
-  </si>
-  <si>
-    <t>Partner Exp.  Officer</t>
-  </si>
-  <si>
-    <t>Manager, Not-For-Profit Relations</t>
-  </si>
-  <si>
-    <t>Manager, WIL Coordination</t>
-  </si>
-  <si>
-    <t>Manager, Government Relations</t>
-  </si>
-  <si>
-    <t>Alumni</t>
-  </si>
-  <si>
-    <t>Business Analytics</t>
-  </si>
-  <si>
-    <t>PMC</t>
-  </si>
-  <si>
-    <t>Business Management</t>
-  </si>
-  <si>
-    <t>Computer Programming</t>
-  </si>
-  <si>
-    <t>Information Technology Solutions</t>
-  </si>
-  <si>
-    <t>Corporate Relations</t>
-  </si>
-  <si>
-    <t>Non-Profit Organizations</t>
-  </si>
-  <si>
-    <t>Seneca Works</t>
-  </si>
-  <si>
-    <t>Government Relations</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/FB_IMG_1568043945443_Fenil%20Mehta.jpg</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/LinkedIn_0711_Lily%20Ngo.JPG</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/471952021_2580787655451226_294666648770807822_Abigail%20Cabazal.jpg</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/WhatsApp%20Image%202021-03-13%20at%204.04.51%20PM _Justin%20Chu.jpeg</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG-20240624-WA0027_Shreet%20Ketan%20Dave.jpg</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1nBgDszp_I0qFXi6Z94V0JSIkWaZ972jv</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_3537_Manjot%20Singh.jpeg</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/Profile_Jay%20Vijaykumar%20Vakil.jpg</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1AzSS-72xho7BokZE3KeDeNmaFRUL172N</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/fenilmehta</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/lilyngo12/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/nsabhinaya</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/abigailcabazal/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/justinhaoyuchu/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/shreet-dave-225388235?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/krishita-vakil-b37b53188/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/manjot-ghatora/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/jay-vakil/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/subhankargon/</t>
-  </si>
-  <si>
-    <t>Kris Sadiasa</t>
-  </si>
-  <si>
-    <t>Rui Zhu (Hathaway)</t>
-  </si>
-  <si>
-    <t>Ameya Mangesh Kokatay</t>
-  </si>
-  <si>
-    <t>Tomisin Jephthah Ojaokomo</t>
-  </si>
-  <si>
-    <t>Syed Shahzeb Saleem</t>
-  </si>
-  <si>
-    <t>Susma Thapa</t>
-  </si>
-  <si>
-    <t>Rashidat Kolawole</t>
-  </si>
-  <si>
-    <t>Devanshi Bharatkumar Lokhandwala</t>
-  </si>
-  <si>
-    <t>Jenil Hirenkumar Mehta</t>
-  </si>
-  <si>
-    <t>Nicole Herman Rodrigues</t>
-  </si>
-  <si>
-    <t>Mai Huong Nguyen</t>
-  </si>
-  <si>
-    <t>Sarthak Gupta</t>
-  </si>
-  <si>
-    <t>Shakila Samaradiwakara</t>
-  </si>
-  <si>
-    <t>Utpal Manishchandra Prajapati</t>
-  </si>
-  <si>
-    <t>Dwayne Jude Saldanha</t>
-  </si>
-  <si>
-    <t>Shaurya Sharma</t>
-  </si>
-  <si>
-    <t>Ruhail Hamza Mohamed</t>
-  </si>
-  <si>
-    <t>Adeeba Javed</t>
-  </si>
-  <si>
-    <t>kalmodal@myseneca.ca</t>
-  </si>
-  <si>
-    <t>rzhu27@myseneca.ca</t>
-  </si>
-  <si>
-    <t>ameya-mangesh.kokatay@senecapolytechnic.ca</t>
-  </si>
-  <si>
-    <t>tjojaokomo@myseneca.ca</t>
-  </si>
-  <si>
-    <t>sssaleem@myseneca.ca</t>
-  </si>
-  <si>
-    <t>sthapa57@myseneca.ca</t>
-  </si>
-  <si>
-    <t>rskolawole@myseneca.ca</t>
-  </si>
-  <si>
-    <t>dblokhandwala@myseneca.ca</t>
-  </si>
-  <si>
-    <t>jhmehta1@myseneca.ca</t>
-  </si>
-  <si>
-    <t>nhrodrigues@myseneca.ca</t>
-  </si>
-  <si>
-    <t>mhnguyen23@myseneca.ca</t>
-  </si>
-  <si>
-    <t>sgupta1797@conestogac.on.ca</t>
-  </si>
-  <si>
-    <t>Ssamaradiwakara6070@conestogac.on.ca</t>
-  </si>
-  <si>
-    <t>umprajapati@myseneca.ca</t>
-  </si>
-  <si>
-    <t>djsaldanha@myseneca.ca</t>
-  </si>
-  <si>
-    <t>ssharma596@myseneca.ca</t>
-  </si>
-  <si>
-    <t>rhmohamed1@myseneca.ca</t>
-  </si>
-  <si>
-    <t>aj.adeebajaved@outlook.com</t>
-  </si>
-  <si>
-    <t>Student Success</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Student Success Director</t>
-  </si>
-  <si>
-    <t>Challenge Set Liaison / Team Lead - Participant Support</t>
-  </si>
-  <si>
-    <t>Student Sucess Manager</t>
-  </si>
-  <si>
-    <t>Discord &amp; Ticketing System Manager</t>
-  </si>
-  <si>
-    <t>Conflict Resolution Manager</t>
-  </si>
-  <si>
-    <t>Student Sucess Officer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Student Sucess Officer</t>
-  </si>
-  <si>
-    <t>Data &amp; Administration Manager</t>
-  </si>
-  <si>
-    <t>Computer System Technology</t>
-  </si>
-  <si>
-    <t>Bachelor of Data Science and Analytics</t>
-  </si>
-  <si>
-    <t>Early Childhood Education</t>
-  </si>
-  <si>
-    <t>SCM</t>
-  </si>
-  <si>
-    <t>Web development</t>
-  </si>
-  <si>
-    <t>ACF</t>
-  </si>
-  <si>
-    <t>HR</t>
-  </si>
-  <si>
-    <t>Colleges, Universities and Seneca</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_8651_Kris%20Sadiasa.jpeg</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/Photo_Hathaway_Zhu%20Rui.jpg</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/Ameya%20Kokatay%20-%20Headshot_Ameya%20Mangesh%20Kokata.jpg</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=15RFDt_tR3_nJUFKRWWmugQwZG6WYzeHt</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/1737242680405_Syed%20Shahzeb%20Saleem.jpg</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_1741_Susma%20Thapa.jpeg</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG-20241026-WA0036_Rashidat%20Kolawole.jpg</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/Screenshot%202024-09-20%20190754_Devanshi%20Bharatkumar.png</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/PXL_20240826_001624389.MP-POP_OUT_Jenil%20Hirenkumar%20Meh.jpg</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_20250127_222531_Nicole%20Herman%20Rodrig.png</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/Profile%20image_Mai%20Huong%20Nguyen.jpg</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1y7P6kSnPO3nLp0wlXo9As6w1GtZixkYs</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1rWpo-efL-DfqKQjOFeI5JUrI2nRyu-a_</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=18jjizpslJzMaRS7i8g6pqYIeBsczKDI2</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1Ce4wLhfIaRW6i1GVu9VeLd6hL2_IwWjY</t>
-  </si>
-  <si>
-    <t>www.linkedin.com/in/khris-sadiasa-69710518b</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/rui-zhu-2a086433b/</t>
-  </si>
-  <si>
-    <t>https://in.linkedin.com/in/ameya-kokatay-5b8312260</t>
-  </si>
-  <si>
-    <t>www.linkedin.com/in/tomisin-ojaokomo</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/syedshahzebsaleem/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/susma-thapa-1765a8312</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/rashidat-kolawole-15a305127/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/devanshi-lokhandwala-55aa5a218/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/jenil-mehta-aa39491a1?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/nicole-rodrigues41/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/mai-huong-nguyen-263631201/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/s4rthak-gupta/</t>
-  </si>
-  <si>
-    <t>www.linkedin.com/in/utpal-prajapati-191a391a8</t>
-  </si>
-  <si>
-    <t>linkedin.com/in/dwayne-jude-saldanha-39860a1b6</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/in/ruhail-hamza-mohamed-6a94b8203/</t>
   </si>
   <si>
@@ -978,6 +995,9 @@
     <t>https://drive.google.com/open?id=1qrFmtB8xQrXxBUhdOCvtajxdvTY8Gmxi</t>
   </si>
   <si>
+    <t>https://drive.google.com/open?id=1dF4UBgpXNhmyZZOYcdj4I5m-aBklExeX</t>
+  </si>
+  <si>
     <t>https://drive.google.com/open?id=1gb3qYWS_HHsMNoCHObr20bdzbLHM2Pqi</t>
   </si>
   <si>
@@ -1020,6 +1040,9 @@
     <t>https://www.linkedin.com/in/ansh-arora-29675a221/</t>
   </si>
   <si>
+    <t>https://www.linkedin.com/in/aryan-sharma-682a46290</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/vsavchyn/</t>
   </si>
   <si>
@@ -1041,9 +1064,6 @@
     <t xml:space="preserve">Shivani Nallamati </t>
   </si>
   <si>
-    <t>Talia Ghalayini</t>
-  </si>
-  <si>
     <t>Justice Asiedu</t>
   </si>
   <si>
@@ -1086,9 +1106,6 @@
     <t>nallamatishivani18@gmail.com</t>
   </si>
   <si>
-    <t>tghalayini1@myseneca.ca</t>
-  </si>
-  <si>
     <t>jasiedu1@myseneca.ca</t>
   </si>
   <si>
@@ -1128,9 +1145,6 @@
     <t>Copywriter</t>
   </si>
   <si>
-    <t>Manager, Communications</t>
-  </si>
-  <si>
     <t>Communications Officer</t>
   </si>
   <si>
@@ -1155,9 +1169,6 @@
     <t>Business</t>
   </si>
   <si>
-    <t>Computer Engineering Technology</t>
-  </si>
-  <si>
     <t>Creative Advertising</t>
   </si>
   <si>
@@ -1173,15 +1184,15 @@
     <t>Content Creator</t>
   </si>
   <si>
-    <t>Communication manager</t>
-  </si>
-  <si>
     <t>Podcast Manager</t>
   </si>
   <si>
     <t>Branding Manager (Should be with creatives)</t>
   </si>
   <si>
+    <t>https://drive.google.com/open?id=1eU3y22OwZ8Xvg-3FGD47qq_iWsvkkfZ7</t>
+  </si>
+  <si>
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_9242_Mohammad%20Mozaffari.jpeg</t>
   </si>
   <si>
@@ -1191,6 +1202,12 @@
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_6036_Mobina%20Kazemi.jpeg</t>
   </si>
   <si>
+    <t>https://drive.google.com/open?id=1FLSj5cEY2jrMAKkcG7a-oKjIqu_XU-pO</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1HMmzK_fHChqnYcAxpzdhKQ2Fql2jrzyr</t>
+  </si>
+  <si>
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/JUSTICE_Justice%20Asiedu.jpg</t>
   </si>
   <si>
@@ -1206,6 +1223,12 @@
     <t>https://drive.google.com/open?id=1m5EQNw7FrZgKbHNtFzWK19E6vkOv7P2p</t>
   </si>
   <si>
+    <t>https://drive.google.com/open?id=1T5h0SN3_Zfg8zjtj4WYwAm645cRPt2KB</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/vidhimehta236/</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/mohammad-mozaffari-4a13592a6?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=ios_app</t>
   </si>
   <si>
@@ -1215,6 +1238,12 @@
     <t>http://linkedin.com/in/mobina-kazemi-396992311</t>
   </si>
   <si>
+    <t>https://www.linkedin.com/in/aayushi-sharma-4b920070/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/shivani-n-/</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/justice-asiedu-b42855346/</t>
   </si>
   <si>
@@ -1230,6 +1259,9 @@
     <t>https://www.linkedin.com/in/winona-wirindra-1291ab207?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=ios_app</t>
   </si>
   <si>
+    <t>https://www.linkedin.com/in/kaifee-ali-23a3aa7a/</t>
+  </si>
+  <si>
     <t>Le Xuan Hoa Dao (Hannah)</t>
   </si>
   <si>
@@ -1377,18 +1409,9 @@
     <t>Kohulan Thevananthan</t>
   </si>
   <si>
-    <t>Isaiah Cyrus Majam</t>
-  </si>
-  <si>
-    <t>Suhana Shrestha</t>
-  </si>
-  <si>
     <t>kthevananthan@myseneca.ca</t>
   </si>
   <si>
-    <t>sshrestha140@myseneca.ca</t>
-  </si>
-  <si>
     <t>Issues Management</t>
   </si>
   <si>
@@ -1401,19 +1424,10 @@
     <t>Events Director</t>
   </si>
   <si>
-    <t>Chief of Staff</t>
-  </si>
-  <si>
     <t>PMCC</t>
   </si>
   <si>
     <t>To be filled</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1HA9k5zKKLL1Ko6LDw_0sPQyHwfKBwHVC</t>
-  </si>
-  <si>
-    <t>www.linkedin.com/in/suhana-shrestha</t>
   </si>
 </sst>
 </file>
@@ -1784,7 +1798,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1827,22 +1841,16 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>94</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1850,430 +1858,660 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D2" t="s">
+        <v>454</v>
+      </c>
+      <c r="E2" t="s">
+        <v>455</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>448</v>
+      </c>
+      <c r="B3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D3" t="s">
+        <v>454</v>
+      </c>
+      <c r="E3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>449</v>
+      </c>
+      <c r="B4" t="s">
+        <v>452</v>
+      </c>
+      <c r="C4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D4" t="s">
+        <v>454</v>
+      </c>
+      <c r="E4" t="s">
+        <v>455</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="J4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="J2" r:id="rId2"/>
+    <hyperlink ref="I4" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D2" t="s">
+        <v>463</v>
+      </c>
+      <c r="E2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D3" t="s">
+        <v>464</v>
+      </c>
+      <c r="E3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" t="s">
+        <v>467</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>462</v>
+      </c>
+      <c r="D4" t="s">
+        <v>465</v>
+      </c>
+      <c r="E4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" t="s">
+        <v>467</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>462</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>466</v>
+      </c>
+      <c r="F5" t="s">
+        <v>467</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I3" r:id="rId1"/>
+    <hyperlink ref="J3" r:id="rId2"/>
+    <hyperlink ref="I4" r:id="rId3"/>
+    <hyperlink ref="J4" r:id="rId4"/>
+    <hyperlink ref="I5" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
       </c>
       <c r="C3" t="s">
         <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
         <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>68</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
         <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
         <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
         <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>99</v>
+        <v>78</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
         <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>100</v>
+        <v>79</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
         <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
         <v>67</v>
       </c>
       <c r="F10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
         <v>67</v>
       </c>
       <c r="F11" t="s">
-        <v>74</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J11" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
         <v>67</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="J12" t="s">
-        <v>104</v>
+      <c r="F12" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s">
         <v>67</v>
       </c>
-      <c r="F13" t="s">
-        <v>75</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>105</v>
-      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E14" t="s">
         <v>67</v>
       </c>
-      <c r="F14" t="s">
-        <v>75</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>106</v>
-      </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>107</v>
+        <v>82</v>
+      </c>
+      <c r="J15" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" t="s">
         <v>65</v>
       </c>
-      <c r="E20" t="s">
-        <v>69</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" t="s">
-        <v>77</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>109</v>
+      <c r="I16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2289,31 +2527,20 @@
     <hyperlink ref="I6" r:id="rId9"/>
     <hyperlink ref="J6" r:id="rId10"/>
     <hyperlink ref="I7" r:id="rId11"/>
-    <hyperlink ref="J7" r:id="rId12"/>
-    <hyperlink ref="I8" r:id="rId13"/>
-    <hyperlink ref="J8" r:id="rId14"/>
-    <hyperlink ref="I9" r:id="rId15"/>
-    <hyperlink ref="J9" r:id="rId16"/>
-    <hyperlink ref="I10" r:id="rId17"/>
-    <hyperlink ref="J10" r:id="rId18"/>
-    <hyperlink ref="I11" r:id="rId19"/>
-    <hyperlink ref="I12" r:id="rId20"/>
-    <hyperlink ref="I13" r:id="rId21"/>
-    <hyperlink ref="J13" r:id="rId22"/>
-    <hyperlink ref="I14" r:id="rId23"/>
-    <hyperlink ref="J14" r:id="rId24"/>
-    <hyperlink ref="I15" r:id="rId25"/>
-    <hyperlink ref="J15" r:id="rId26"/>
-    <hyperlink ref="I20" r:id="rId27"/>
-    <hyperlink ref="J20" r:id="rId28"/>
-    <hyperlink ref="I21" r:id="rId29"/>
-    <hyperlink ref="J21" r:id="rId30"/>
+    <hyperlink ref="I8" r:id="rId12"/>
+    <hyperlink ref="I9" r:id="rId13"/>
+    <hyperlink ref="J9" r:id="rId14"/>
+    <hyperlink ref="I10" r:id="rId15"/>
+    <hyperlink ref="J10" r:id="rId16"/>
+    <hyperlink ref="I15" r:id="rId17"/>
+    <hyperlink ref="I16" r:id="rId18"/>
+    <hyperlink ref="J16" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -2355,25 +2582,25 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="E2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2385,7 +2612,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J12"/>
   <sheetViews>
@@ -2427,261 +2654,267 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="D2" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="E2" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C3" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="D3" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="E3" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="F3" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="D4" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="E4" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="C5" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="D5" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="E5" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6" t="s">
         <v>140</v>
       </c>
-      <c r="D6" t="s">
-        <v>145</v>
-      </c>
-      <c r="E6" t="s">
-        <v>151</v>
-      </c>
-      <c r="F6" t="s">
-        <v>155</v>
-      </c>
       <c r="I6" s="2" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C7" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="D7" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="E7" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C8" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="D8" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="E8" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="F8" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C9" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="D9" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="E9" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" t="s">
         <v>125</v>
       </c>
-      <c r="B10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C10" t="s">
-        <v>140</v>
-      </c>
       <c r="D10" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="E10" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F10" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="C11" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="D11" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="E11" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="B12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" t="s">
         <v>138</v>
       </c>
-      <c r="C12" t="s">
-        <v>140</v>
-      </c>
-      <c r="D12" t="s">
-        <v>144</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="I12" s="2" t="s">
         <v>153</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2706,14 +2939,16 @@
     <hyperlink ref="J10" r:id="rId18"/>
     <hyperlink ref="I11" r:id="rId19"/>
     <hyperlink ref="J11" r:id="rId20"/>
+    <hyperlink ref="I12" r:id="rId21"/>
+    <hyperlink ref="J12" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2753,401 +2988,364 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="C2" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="D2" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="E2" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="J2" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="C3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D3" t="s">
-        <v>215</v>
-      </c>
-      <c r="E3" t="s">
-        <v>223</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>231</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" t="s">
         <v>197</v>
       </c>
-      <c r="C4" t="s">
-        <v>213</v>
-      </c>
       <c r="D4" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="E4" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="B5" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="C5" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="D5" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="E5" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="J5" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B6" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="C6" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="D6" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="E6" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="B7" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="C7" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="D7" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="E7" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="B8" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="C8" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="D8" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="E8" t="s">
-        <v>150</v>
-      </c>
-      <c r="F8" t="s">
-        <v>229</v>
+        <v>135</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="B9" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="C9" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="D9" t="s">
+        <v>203</v>
+      </c>
+      <c r="E9" t="s">
+        <v>135</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E9" t="s">
-        <v>150</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>237</v>
-      </c>
       <c r="J9" s="2" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="B10" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="C10" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="D10" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="E10" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="B11" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="C11" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="D11" t="s">
+        <v>203</v>
+      </c>
+      <c r="E11" t="s">
+        <v>208</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="E11" t="s">
-        <v>150</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>239</v>
-      </c>
       <c r="J11" s="2" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B12" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="C12" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="D12" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="E12" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="B13" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="C13" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="D13" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="E13" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B14" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="C14" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="D14" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="E14" t="s">
-        <v>226</v>
+        <v>135</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J14" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="C15" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="D15" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="E15" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="J15" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="C16" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="D16" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="E16" t="s">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="J16" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>226</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B17" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="C17" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="D17" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="E17" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>193</v>
-      </c>
-      <c r="B18" t="s">
         <v>211</v>
-      </c>
-      <c r="C18" t="s">
-        <v>213</v>
-      </c>
-      <c r="D18" t="s">
-        <v>219</v>
-      </c>
-      <c r="E18" t="s">
-        <v>150</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="s">
-        <v>194</v>
-      </c>
-      <c r="B19" t="s">
-        <v>212</v>
-      </c>
-      <c r="C19" t="s">
-        <v>213</v>
-      </c>
-      <c r="D19" t="s">
-        <v>219</v>
-      </c>
-      <c r="E19" t="s">
-        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3174,16 +3372,211 @@
     <hyperlink ref="J12" r:id="rId20"/>
     <hyperlink ref="I13" r:id="rId21"/>
     <hyperlink ref="J13" r:id="rId22"/>
-    <hyperlink ref="I15" r:id="rId23"/>
-    <hyperlink ref="I16" r:id="rId24"/>
-    <hyperlink ref="I18" r:id="rId25"/>
-    <hyperlink ref="J18" r:id="rId26"/>
+    <hyperlink ref="I14" r:id="rId23"/>
+    <hyperlink ref="I15" r:id="rId24"/>
+    <hyperlink ref="I16" r:id="rId25"/>
+    <hyperlink ref="J16" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>256</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>256</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>245</v>
+      </c>
+      <c r="B6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D6" t="s">
+        <v>255</v>
+      </c>
+      <c r="E6" t="s">
+        <v>135</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D7" t="s">
+        <v>255</v>
+      </c>
+      <c r="E7" t="s">
+        <v>135</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="J2" r:id="rId2"/>
+    <hyperlink ref="I3" r:id="rId3"/>
+    <hyperlink ref="J3" r:id="rId4"/>
+    <hyperlink ref="I4" r:id="rId5"/>
+    <hyperlink ref="J4" r:id="rId6"/>
+    <hyperlink ref="I6" r:id="rId7"/>
+    <hyperlink ref="J6" r:id="rId8"/>
+    <hyperlink ref="I7" r:id="rId9"/>
+    <hyperlink ref="J7" r:id="rId10"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J16"/>
   <sheetViews>
@@ -3225,341 +3618,347 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B2" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C2" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D2" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="E2" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B3" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C3" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D3" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="E3" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B4" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C4" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D4" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="E4" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B5" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C5" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D5" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="E5" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B6" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C6" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D6" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="E6" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="E7" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="J7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B8" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C8" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D8" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="E8" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B9" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C9" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D9" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="E9" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B10" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C10" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D10" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="E10" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B11" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C11" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D11" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="E11" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="J11" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B12" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C12" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D12" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="E12" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B13" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C13" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D13" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="E13" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B14" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C14" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D14" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="E14" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B15" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C15" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D15" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="E15" t="s">
-        <v>152</v>
+        <v>137</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B16" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C16" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D16" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="E16" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -3588,16 +3987,18 @@
     <hyperlink ref="J13" r:id="rId22"/>
     <hyperlink ref="I14" r:id="rId23"/>
     <hyperlink ref="J14" r:id="rId24"/>
-    <hyperlink ref="I16" r:id="rId25"/>
-    <hyperlink ref="J16" r:id="rId26"/>
+    <hyperlink ref="I15" r:id="rId25"/>
+    <hyperlink ref="J15" r:id="rId26"/>
+    <hyperlink ref="I16" r:id="rId27"/>
+    <hyperlink ref="J16" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3637,351 +4038,363 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="B2" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="C2" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="D2" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="E2" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="F2" t="s">
-        <v>381</v>
+        <v>384</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="B3" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C3" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="D3" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="E3" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="F3" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="B4" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="C4" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="D4" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="E4" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="F4" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="B5" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="C5" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="D5" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="E5" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="F5" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="B6" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="C6" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="D6" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="E6" t="s">
-        <v>149</v>
+        <v>134</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="B7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="C7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="D7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="E7" t="s">
-        <v>148</v>
+        <v>133</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="B8" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="C8" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="D8" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="E8" t="s">
-        <v>377</v>
-      </c>
-      <c r="F8" t="s">
-        <v>383</v>
+        <v>135</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="B9" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C9" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="D9" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="E9" t="s">
-        <v>150</v>
+        <v>133</v>
+      </c>
+      <c r="F9" t="s">
+        <v>386</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="B10" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C10" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="D10" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="E10" t="s">
-        <v>148</v>
-      </c>
-      <c r="F10" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="B11" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C11" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="D11" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="E11" t="s">
-        <v>374</v>
+        <v>135</v>
+      </c>
+      <c r="F11" t="s">
+        <v>387</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
+      </c>
+      <c r="J11" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="B12" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="C12" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="D12" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="E12" t="s">
-        <v>150</v>
-      </c>
-      <c r="F12" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="J12" t="s">
-        <v>400</v>
+        <v>398</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="B13" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="C13" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="D13" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="E13" t="s">
-        <v>378</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="B14" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="C14" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="D14" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="E14" t="s">
-        <v>379</v>
+        <v>134</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B15" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C15" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="D15" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="E15" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
-        <v>347</v>
-      </c>
-      <c r="B16" t="s">
-        <v>362</v>
-      </c>
-      <c r="C16" t="s">
-        <v>363</v>
-      </c>
-      <c r="D16" t="s">
-        <v>373</v>
-      </c>
-      <c r="E16" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I3" r:id="rId1"/>
-    <hyperlink ref="J3" r:id="rId2"/>
-    <hyperlink ref="I4" r:id="rId3"/>
-    <hyperlink ref="J4" r:id="rId4"/>
-    <hyperlink ref="I5" r:id="rId5"/>
-    <hyperlink ref="J5" r:id="rId6"/>
-    <hyperlink ref="I9" r:id="rId7"/>
-    <hyperlink ref="J9" r:id="rId8"/>
-    <hyperlink ref="I10" r:id="rId9"/>
-    <hyperlink ref="J10" r:id="rId10"/>
-    <hyperlink ref="I11" r:id="rId11"/>
-    <hyperlink ref="J11" r:id="rId12"/>
-    <hyperlink ref="I12" r:id="rId13"/>
-    <hyperlink ref="I13" r:id="rId14"/>
-    <hyperlink ref="J13" r:id="rId15"/>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="J2" r:id="rId2"/>
+    <hyperlink ref="I3" r:id="rId3"/>
+    <hyperlink ref="J3" r:id="rId4"/>
+    <hyperlink ref="I4" r:id="rId5"/>
+    <hyperlink ref="J4" r:id="rId6"/>
+    <hyperlink ref="I5" r:id="rId7"/>
+    <hyperlink ref="J5" r:id="rId8"/>
+    <hyperlink ref="I6" r:id="rId9"/>
+    <hyperlink ref="J6" r:id="rId10"/>
+    <hyperlink ref="I7" r:id="rId11"/>
+    <hyperlink ref="J7" r:id="rId12"/>
+    <hyperlink ref="I8" r:id="rId13"/>
+    <hyperlink ref="J8" r:id="rId14"/>
+    <hyperlink ref="I9" r:id="rId15"/>
+    <hyperlink ref="J9" r:id="rId16"/>
+    <hyperlink ref="I10" r:id="rId17"/>
+    <hyperlink ref="J10" r:id="rId18"/>
+    <hyperlink ref="I11" r:id="rId19"/>
+    <hyperlink ref="I12" r:id="rId20"/>
+    <hyperlink ref="J12" r:id="rId21"/>
+    <hyperlink ref="I14" r:id="rId22"/>
+    <hyperlink ref="J14" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J8"/>
   <sheetViews>
@@ -4023,157 +4436,157 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="B2" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="C2" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="D2" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="E2" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="B3" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="C3" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="D3" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="E3" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="B4" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="C4" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="D4" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="E4" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="J4" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="B5" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="C5" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="D5" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="E5" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="B6" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="C6" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="D6" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="E6" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="B7" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="C7" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="D7" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="E7" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="J7" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="B8" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="C8" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="D8" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="E8" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
     </row>
   </sheetData>
@@ -4191,264 +4604,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>437</v>
-      </c>
-      <c r="B2" t="s">
-        <v>440</v>
-      </c>
-      <c r="C2" t="s">
-        <v>443</v>
-      </c>
-      <c r="D2" t="s">
-        <v>444</v>
-      </c>
-      <c r="E2" t="s">
-        <v>445</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>438</v>
-      </c>
-      <c r="B3" t="s">
-        <v>441</v>
-      </c>
-      <c r="C3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D3" t="s">
-        <v>444</v>
-      </c>
-      <c r="E3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>439</v>
-      </c>
-      <c r="B4" t="s">
-        <v>442</v>
-      </c>
-      <c r="C4" t="s">
-        <v>290</v>
-      </c>
-      <c r="D4" t="s">
-        <v>444</v>
-      </c>
-      <c r="E4" t="s">
-        <v>445</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="J4" t="s">
-        <v>449</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
-    <hyperlink ref="J2" r:id="rId2"/>
-    <hyperlink ref="I4" r:id="rId3"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>450</v>
-      </c>
-      <c r="B2" t="s">
-        <v>453</v>
-      </c>
-      <c r="C2" t="s">
-        <v>455</v>
-      </c>
-      <c r="D2" t="s">
-        <v>456</v>
-      </c>
-      <c r="E2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C3" t="s">
-        <v>455</v>
-      </c>
-      <c r="D3" t="s">
-        <v>457</v>
-      </c>
-      <c r="E3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F3" t="s">
-        <v>461</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>451</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>455</v>
-      </c>
-      <c r="D4" t="s">
-        <v>458</v>
-      </c>
-      <c r="E4" t="s">
-        <v>150</v>
-      </c>
-      <c r="F4" t="s">
-        <v>461</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>452</v>
-      </c>
-      <c r="B5" t="s">
-        <v>454</v>
-      </c>
-      <c r="C5" t="s">
-        <v>455</v>
-      </c>
-      <c r="D5" t="s">
-        <v>459</v>
-      </c>
-      <c r="E5" t="s">
-        <v>460</v>
-      </c>
-      <c r="F5" t="s">
-        <v>461</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="J5" t="s">
-        <v>463</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="I3" r:id="rId1"/>
-    <hyperlink ref="J3" r:id="rId2"/>
-    <hyperlink ref="I4" r:id="rId3"/>
-    <hyperlink ref="J4" r:id="rId4"/>
-    <hyperlink ref="I5" r:id="rId5"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/excel_input/Updated_KEY_ORGANIZERS.xlsx
+++ b/excel_input/Updated_KEY_ORGANIZERS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="470">
   <si>
     <t>Name</t>
   </si>
@@ -209,7 +209,7 @@
     <t>Broadcast Officer</t>
   </si>
   <si>
-    <t>Tech Lead</t>
+    <t>Technical Lead</t>
   </si>
   <si>
     <t>Audio Engineer</t>
@@ -272,6 +272,9 @@
     <t>https://drive.google.com/open?id=1dOK4SeqZXn3zDV0u5bxvVgRgC2wKlfkT</t>
   </si>
   <si>
+    <t>https://drive.google.com/open?id=1kOulKtSTul33QovaultMkBFaSES_LupB</t>
+  </si>
+  <si>
     <t>https://drive.google.com/open?id=1LX6hwca9a0f2WbjovANr-djOHUqsUGVe</t>
   </si>
   <si>
@@ -305,6 +308,9 @@
     <t>https://wwwww.linkedin.com/in/andrea-huesca-b9b7131a0/</t>
   </si>
   <si>
+    <t>https://www.linkedin.com/in/haru-ai/</t>
+  </si>
+  <si>
     <t>www.linkedin.com/in/soumya-saraswati-33b0871a7</t>
   </si>
   <si>
@@ -569,6 +575,9 @@
     <t>Adeeba Javed</t>
   </si>
   <si>
+    <t>Darren Bergado</t>
+  </si>
+  <si>
     <t>kalmodal@myseneca.ca</t>
   </si>
   <si>
@@ -617,6 +626,9 @@
     <t>aj.adeebajaved@outlook.com</t>
   </si>
   <si>
+    <t>dbergad1@my.centennialcollege.ca</t>
+  </si>
+  <si>
     <t>Student Success</t>
   </si>
   <si>
@@ -662,6 +674,9 @@
     <t>HR</t>
   </si>
   <si>
+    <t>Electrical Engineering</t>
+  </si>
+  <si>
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_8651_Kris%20Sadiasa.jpeg</t>
   </si>
   <si>
@@ -1133,7 +1148,7 @@
     <t>Marketing</t>
   </si>
   <si>
-    <t>Manager, Marketing Strategy</t>
+    <t>Marketing Director</t>
   </si>
   <si>
     <t>Content Creators</t>
@@ -1406,16 +1421,7 @@
     <t>linkedin.com/in/cleo-buenaventura</t>
   </si>
   <si>
-    <t>Kohulan Thevananthan</t>
-  </si>
-  <si>
-    <t>kthevananthan@myseneca.ca</t>
-  </si>
-  <si>
     <t>Issues Management</t>
-  </si>
-  <si>
-    <t>Issue Management Director</t>
   </si>
   <si>
     <t>Partner Experience Director</t>
@@ -1926,65 +1932,65 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="B2" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="C2" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="D2" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="E2" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="B3" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="C3" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D3" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="E3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="B4" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="C4" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D4" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="E4" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="J4" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -1999,7 +2005,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2039,106 +2045,89 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>460</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>461</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="D2" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>135</v>
+      </c>
+      <c r="F2" t="s">
+        <v>469</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="D3" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="E3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F3" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>143</v>
+        <v>73</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>154</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="D4" t="s">
-        <v>465</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>135</v>
+        <v>468</v>
       </c>
       <c r="F4" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>462</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>466</v>
-      </c>
-      <c r="F5" t="s">
-        <v>467</v>
-      </c>
-      <c r="I5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J4" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I3" r:id="rId1"/>
-    <hyperlink ref="J3" r:id="rId2"/>
-    <hyperlink ref="I4" r:id="rId3"/>
-    <hyperlink ref="J4" r:id="rId4"/>
-    <hyperlink ref="I5" r:id="rId5"/>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="J2" r:id="rId2"/>
+    <hyperlink ref="I3" r:id="rId3"/>
+    <hyperlink ref="J3" r:id="rId4"/>
+    <hyperlink ref="I4" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2204,7 +2193,7 @@
         <v>73</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2227,7 +2216,7 @@
         <v>74</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2253,7 +2242,7 @@
         <v>75</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2279,7 +2268,7 @@
         <v>76</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2305,7 +2294,7 @@
         <v>77</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2331,7 +2320,7 @@
         <v>78</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2354,7 +2343,7 @@
         <v>79</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2377,7 +2366,7 @@
         <v>80</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2403,7 +2392,7 @@
         <v>81</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2445,6 +2434,12 @@
       <c r="F12" t="s">
         <v>72</v>
       </c>
+      <c r="I12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
@@ -2487,14 +2482,20 @@
       <c r="B15" t="s">
         <v>47</v>
       </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
       <c r="D15" t="s">
         <v>64</v>
       </c>
+      <c r="E15" t="s">
+        <v>67</v>
+      </c>
       <c r="I15" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2504,14 +2505,20 @@
       <c r="B16" t="s">
         <v>48</v>
       </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" t="s">
         <v>65</v>
       </c>
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
       <c r="I16" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2532,9 +2539,11 @@
     <hyperlink ref="J9" r:id="rId14"/>
     <hyperlink ref="I10" r:id="rId15"/>
     <hyperlink ref="J10" r:id="rId16"/>
-    <hyperlink ref="I15" r:id="rId17"/>
-    <hyperlink ref="I16" r:id="rId18"/>
-    <hyperlink ref="J16" r:id="rId19"/>
+    <hyperlink ref="I12" r:id="rId17"/>
+    <hyperlink ref="J12" r:id="rId18"/>
+    <hyperlink ref="I15" r:id="rId19"/>
+    <hyperlink ref="I16" r:id="rId20"/>
+    <hyperlink ref="J16" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2582,25 +2591,25 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2654,267 +2663,267 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D9" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E9" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E10" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F10" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E11" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C12" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2948,7 +2957,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2988,364 +2997,381 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="J2" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D3" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E3" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C4" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D4" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B5" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C5" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D5" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E5" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="J5" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C6" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D6" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B8" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C8" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D8" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B9" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C9" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D9" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B10" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C10" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D10" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B11" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C11" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D11" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E11" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B12" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C12" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D12" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E12" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B13" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C13" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D13" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E13" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B14" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C14" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D14" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E14" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="J14" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B15" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C15" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D15" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E15" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="J15" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C16" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D16" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E16" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B17" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C17" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D17" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E17" t="s">
-        <v>211</v>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>183</v>
+      </c>
+      <c r="B18" t="s">
+        <v>200</v>
+      </c>
+      <c r="C18" t="s">
+        <v>201</v>
+      </c>
+      <c r="D18" t="s">
+        <v>207</v>
+      </c>
+      <c r="E18" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -3423,140 +3449,140 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C2" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D2" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="E2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B3" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C3" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D3" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B4" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C4" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D4" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B5" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D5" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="E5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B6" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C6" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D6" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="E6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="E7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -3618,347 +3644,347 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B2" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C2" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D2" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="E2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B3" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C3" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D3" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="E3" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B4" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C4" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D4" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="E4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B5" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C5" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D5" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="E5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B6" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C6" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D6" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="E6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="E7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="J7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B8" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C8" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D8" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="E8" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B9" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C9" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D9" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="E9" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B10" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C10" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D10" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="E10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B11" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C11" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D11" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="E11" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="J11" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B12" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C12" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D12" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="E12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B13" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C13" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D13" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="E13" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B14" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C14" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D14" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="E14" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B15" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C15" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D15" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="E15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B16" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C16" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D16" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="E16" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -4038,330 +4064,330 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B2" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="C2" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="D2" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="E2" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="F2" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B3" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C3" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="D3" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="E3" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="F3" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B4" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C4" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="D4" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="E4" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="F4" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B5" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C5" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="D5" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="E5" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="F5" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="B6" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C6" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="D6" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="E6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="B7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="C7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="D7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="E7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B8" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C8" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="D8" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="E8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="B9" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="C9" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="D9" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="E9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F9" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="B10" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C10" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="D10" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="E10" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B11" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C11" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="D11" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="E11" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F11" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="J11" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="B12" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C12" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="D12" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="E12" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B13" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C13" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="D13" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="E13" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="B14" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C14" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="D14" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="E14" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="B15" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="C15" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="D15" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="E15" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -4436,157 +4462,157 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="B2" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="C2" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="D2" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="E2" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="B3" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="C3" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="D3" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="E3" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="B4" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C4" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="D4" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="E4" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="J4" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="B5" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="C5" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="D5" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="E5" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="B6" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="C6" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="D6" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="E6" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="B7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="C7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="D7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="E7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="J7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="B8" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="C8" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="D8" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="E8" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>

--- a/excel_input/Updated_KEY_ORGANIZERS.xlsx
+++ b/excel_input/Updated_KEY_ORGANIZERS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="468">
   <si>
     <t>Name</t>
   </si>
@@ -92,15 +92,15 @@
     <t>Shikha Thing</t>
   </si>
   <si>
+    <t>Winlyn Luena</t>
+  </si>
+  <si>
+    <t>Sanam Maharjan</t>
+  </si>
+  <si>
     <t>Jasmeen Kaur</t>
   </si>
   <si>
-    <t>Winlyn Luena</t>
-  </si>
-  <si>
-    <t>Sanam Maharjan</t>
-  </si>
-  <si>
     <t>Nisal Chandana Ekanayake</t>
   </si>
   <si>
@@ -128,6 +128,9 @@
     <t>Sanjan</t>
   </si>
   <si>
+    <t>S M Abdullah Ahsan</t>
+  </si>
+  <si>
     <t>icmajam@myseneca.ca</t>
   </si>
   <si>
@@ -137,15 +140,15 @@
     <t>sthing2@myseneca.ca</t>
   </si>
   <si>
+    <t>wluena@myseneca.ca</t>
+  </si>
+  <si>
+    <t>smaharjan23@myseneca.ca</t>
+  </si>
+  <si>
     <t>jasmeen-kaur39@myseneca.ca</t>
   </si>
   <si>
-    <t>wluena@myseneca.ca</t>
-  </si>
-  <si>
-    <t>smaharjan23@myseneca.ca</t>
-  </si>
-  <si>
     <t>ncekanayake@myseneca.ca</t>
   </si>
   <si>
@@ -173,6 +176,9 @@
     <t>sanjan1@myseneca.ca</t>
   </si>
   <si>
+    <t>smaahsan@myseneca.ca</t>
+  </si>
+  <si>
     <t>Operations</t>
   </si>
   <si>
@@ -188,15 +194,15 @@
     <t>Weekly Reports Officer</t>
   </si>
   <si>
+    <t>Manager, Event SWAG</t>
+  </si>
+  <si>
+    <t>SWAG Officer</t>
+  </si>
+  <si>
     <t>Manager, Rules, Regulations, Prizing, and Judging</t>
   </si>
   <si>
-    <t>Manager, Event SWAG</t>
-  </si>
-  <si>
-    <t>SWAG Officer</t>
-  </si>
-  <si>
     <t xml:space="preserve">Manager, Event Catering </t>
   </si>
   <si>
@@ -224,24 +230,30 @@
     <t>Tech Officer</t>
   </si>
   <si>
+    <t>MC/Finale</t>
+  </si>
+  <si>
     <t>Business Tech Management</t>
   </si>
   <si>
     <t>Event and Media Production</t>
   </si>
   <si>
+    <t>Computer Programming</t>
+  </si>
+  <si>
     <t>Integration Management / Project Control Officer</t>
   </si>
   <si>
+    <t>Procurement Team (Food / Merchandise)</t>
+  </si>
+  <si>
+    <t>Procurement Team (SWAG / Supplies)</t>
+  </si>
+  <si>
     <t>Stage Management</t>
   </si>
   <si>
-    <t>Procurement Team (Food / Merchandise)</t>
-  </si>
-  <si>
-    <t>Procurement Team (SWAG / Supplies)</t>
-  </si>
-  <si>
     <t>Broadcast Team</t>
   </si>
   <si>
@@ -254,15 +266,15 @@
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/PHOTO-2024-09-10-22-31-19_Shikha%20Thing.jpg</t>
   </si>
   <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/DSCF6056_Winlyn%20Luena.JPG</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/_MG_0441_Sanam%20Maharjan.JPG</t>
+  </si>
+  <si>
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG-20250127-WA0057_-%20Jasmeen%20Kaur.jpg</t>
   </si>
   <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/DSCF6056_Winlyn%20Luena.JPG</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/_MG_0441_Sanam%20Maharjan.JPG</t>
-  </si>
-  <si>
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/profile%20photo_Nisal%20Chandana%20Ekana.jpg</t>
   </si>
   <si>
@@ -275,6 +287,9 @@
     <t>https://drive.google.com/open?id=1kOulKtSTul33QovaultMkBFaSES_LupB</t>
   </si>
   <si>
+    <t>https://drive.google.com/open?id=1L7V9eDoHm-AYcg7zHzqWLs_N63RmBKzs</t>
+  </si>
+  <si>
     <t>https://drive.google.com/open?id=1LX6hwca9a0f2WbjovANr-djOHUqsUGVe</t>
   </si>
   <si>
@@ -290,15 +305,15 @@
     <t>https://www.linkedin.com/in/shikha-thing-82ab52177/</t>
   </si>
   <si>
+    <t>https://www.linkedin.com/in/winlynluena</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/sanammaharjan01</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/jasmeen-kaur-401a96338?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/in/winlynluena</t>
-  </si>
-  <si>
-    <t>www.linkedin.com/in/sanammaharjan01</t>
-  </si>
-  <si>
     <t>www.linkedin.com/in/nisal-ekanayake</t>
   </si>
   <si>
@@ -311,6 +326,9 @@
     <t>https://www.linkedin.com/in/haru-ai/</t>
   </si>
   <si>
+    <t>www.linkedin.com/in/connor-liberman-02a582274</t>
+  </si>
+  <si>
     <t>www.linkedin.com/in/soumya-saraswati-33b0871a7</t>
   </si>
   <si>
@@ -443,9 +461,6 @@
     <t>Business Management</t>
   </si>
   <si>
-    <t>Computer Programming</t>
-  </si>
-  <si>
     <t>Information Technology Solutions</t>
   </si>
   <si>
@@ -533,297 +548,297 @@
     <t>Rui Zhu (Hathaway)</t>
   </si>
   <si>
+    <t>Tomisin Jephthah Ojaokomo</t>
+  </si>
+  <si>
+    <t>Syed Shahzeb Saleem</t>
+  </si>
+  <si>
+    <t>Nicole Herman Rodrigues</t>
+  </si>
+  <si>
+    <t>Utpal Manishchandra Prajapati</t>
+  </si>
+  <si>
+    <t>Dwayne Jude Saldanha</t>
+  </si>
+  <si>
+    <t>Susma Thapa</t>
+  </si>
+  <si>
+    <t>Devanshi Bharatkumar Lokhandwala</t>
+  </si>
+  <si>
+    <t>Jenil Hirenkumar Mehta</t>
+  </si>
+  <si>
+    <t>Mai Huong Nguyen</t>
+  </si>
+  <si>
+    <t>Sarthak Gupta</t>
+  </si>
+  <si>
+    <t>Shakila Samaradiwakara</t>
+  </si>
+  <si>
+    <t>Shaurya Sharma</t>
+  </si>
+  <si>
+    <t>Adeeba Javed</t>
+  </si>
+  <si>
+    <t>Darren Bergado</t>
+  </si>
+  <si>
+    <t>kalmodal@myseneca.ca</t>
+  </si>
+  <si>
+    <t>rzhu27@myseneca.ca</t>
+  </si>
+  <si>
+    <t>tjojaokomo@myseneca.ca</t>
+  </si>
+  <si>
+    <t>sssaleem@myseneca.ca</t>
+  </si>
+  <si>
+    <t>nhrodrigues@myseneca.ca</t>
+  </si>
+  <si>
+    <t>umprajapati@myseneca.ca</t>
+  </si>
+  <si>
+    <t>djsaldanha@myseneca.ca</t>
+  </si>
+  <si>
+    <t>sthapa57@myseneca.ca</t>
+  </si>
+  <si>
+    <t>dblokhandwala@myseneca.ca</t>
+  </si>
+  <si>
+    <t>jhmehta1@myseneca.ca</t>
+  </si>
+  <si>
+    <t>mhnguyen23@myseneca.ca</t>
+  </si>
+  <si>
+    <t>sgupta1797@conestogac.on.ca</t>
+  </si>
+  <si>
+    <t>Ssamaradiwakara6070@conestogac.on.ca</t>
+  </si>
+  <si>
+    <t>ssharma596@myseneca.ca</t>
+  </si>
+  <si>
+    <t>aj.adeebajaved@outlook.com</t>
+  </si>
+  <si>
+    <t>darrenbergado.edu@gmail.com</t>
+  </si>
+  <si>
+    <t>Student Success</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Student Success Director</t>
+  </si>
+  <si>
+    <t>Student Success Manager</t>
+  </si>
+  <si>
+    <t>Discord &amp; Ticketing System Manager</t>
+  </si>
+  <si>
+    <t>Conflict Resolution Manager</t>
+  </si>
+  <si>
+    <t>Data &amp; Administration Manager</t>
+  </si>
+  <si>
+    <t>Student Success Manager - Team Leadership</t>
+  </si>
+  <si>
+    <t>Student Sucess Officer</t>
+  </si>
+  <si>
+    <t>Computer System Technology</t>
+  </si>
+  <si>
+    <t>Bachelor of Data Science and Analytics</t>
+  </si>
+  <si>
+    <t>Early Childhood Education</t>
+  </si>
+  <si>
+    <t>SCM</t>
+  </si>
+  <si>
+    <t>Web development</t>
+  </si>
+  <si>
+    <t>ACF</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Electrical Engineering</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_8651_Kris%20Sadiasa.jpeg</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/Photo_Hathaway_Zhu%20Rui.jpg</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=15RFDt_tR3_nJUFKRWWmugQwZG6WYzeHt</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/1737242680405_Syed%20Shahzeb%20Saleem.jpg</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_20250127_222531_Nicole%20Herman%20Rodrig.png</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1rWpo-efL-DfqKQjOFeI5JUrI2nRyu-a_</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=18jjizpslJzMaRS7i8g6pqYIeBsczKDI2</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_1741_Susma%20Thapa.jpeg</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/Screenshot%202024-09-20%20190754_Devanshi%20Bharatkumar.png</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/PXL_20240826_001624389.MP-POP_OUT_Jenil%20Hirenkumar%20Meh.jpg</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/Profile%20image_Mai%20Huong%20Nguyen.jpg</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1y7P6kSnPO3nLp0wlXo9As6w1GtZixkYs</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1YbWDrn0URyo_Cttzwt7UJXAvJ_1ADkbU/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1zEn6rerBv3fw7kH0-xTuSJcBHEMHyxbM/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/khris-sadiasa-69710518b</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/rui-zhu-2a086433b/</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/tomisin-ojaokomo</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/syedshahzebsaleem/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/nicole-rodrigues41/</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/utpal-prajapati-191a391a8</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/dwayne-jude-saldanha-39860a1b6</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/susma-thapa-1765a8312</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/devanshi-lokhandwala-55aa5a218/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/jenil-mehta-aa39491a1?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/mai-huong-nguyen-263631201/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/s4rthak-gupta/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/shakila-rajapakse/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/shaurya0908/</t>
+  </si>
+  <si>
     <t>Ameya Mangesh Kokatay</t>
   </si>
   <si>
-    <t>Tomisin Jephthah Ojaokomo</t>
-  </si>
-  <si>
-    <t>Syed Shahzeb Saleem</t>
-  </si>
-  <si>
-    <t>Susma Thapa</t>
-  </si>
-  <si>
-    <t>Devanshi Bharatkumar Lokhandwala</t>
-  </si>
-  <si>
-    <t>Jenil Hirenkumar Mehta</t>
-  </si>
-  <si>
-    <t>Nicole Herman Rodrigues</t>
-  </si>
-  <si>
-    <t>Mai Huong Nguyen</t>
-  </si>
-  <si>
-    <t>Sarthak Gupta</t>
-  </si>
-  <si>
-    <t>Shakila Samaradiwakara</t>
-  </si>
-  <si>
-    <t>Utpal Manishchandra Prajapati</t>
-  </si>
-  <si>
-    <t>Dwayne Jude Saldanha</t>
-  </si>
-  <si>
-    <t>Shaurya Sharma</t>
-  </si>
-  <si>
-    <t>Adeeba Javed</t>
-  </si>
-  <si>
-    <t>Darren Bergado</t>
-  </si>
-  <si>
-    <t>kalmodal@myseneca.ca</t>
-  </si>
-  <si>
-    <t>rzhu27@myseneca.ca</t>
+    <t>Naitik Pankaj Kumar Raval</t>
+  </si>
+  <si>
+    <t>Harmanjot Singh</t>
+  </si>
+  <si>
+    <t>Rowena Dollison</t>
+  </si>
+  <si>
+    <t>Keerthivaasan Elango</t>
+  </si>
+  <si>
+    <t>Ruhail Hamza Mohamed</t>
   </si>
   <si>
     <t>ameya-mangesh.kokatay@senecapolytechnic.ca</t>
   </si>
   <si>
-    <t>tjojaokomo@myseneca.ca</t>
-  </si>
-  <si>
-    <t>sssaleem@myseneca.ca</t>
-  </si>
-  <si>
-    <t>sthapa57@myseneca.ca</t>
-  </si>
-  <si>
-    <t>dblokhandwala@myseneca.ca</t>
-  </si>
-  <si>
-    <t>jhmehta1@myseneca.ca</t>
-  </si>
-  <si>
-    <t>nhrodrigues@myseneca.ca</t>
-  </si>
-  <si>
-    <t>mhnguyen23@myseneca.ca</t>
-  </si>
-  <si>
-    <t>sgupta1797@conestogac.on.ca</t>
-  </si>
-  <si>
-    <t>Ssamaradiwakara6070@conestogac.on.ca</t>
-  </si>
-  <si>
-    <t>umprajapati@myseneca.ca</t>
-  </si>
-  <si>
-    <t>djsaldanha@myseneca.ca</t>
-  </si>
-  <si>
-    <t>ssharma596@myseneca.ca</t>
-  </si>
-  <si>
-    <t>aj.adeebajaved@outlook.com</t>
-  </si>
-  <si>
-    <t>dbergad1@my.centennialcollege.ca</t>
-  </si>
-  <si>
-    <t>Student Success</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Student Success Director</t>
-  </si>
-  <si>
-    <t>Challenge Set Liaison / Team Lead - Participant Support</t>
-  </si>
-  <si>
-    <t>Student Sucess Manager</t>
-  </si>
-  <si>
-    <t>Discord &amp; Ticketing System Manager</t>
-  </si>
-  <si>
-    <t>Conflict Resolution Manager</t>
-  </si>
-  <si>
-    <t>Student Sucess Officer</t>
-  </si>
-  <si>
-    <t>Data &amp; Administration Manager</t>
-  </si>
-  <si>
-    <t>Computer System Technology</t>
-  </si>
-  <si>
-    <t>Bachelor of Data Science and Analytics</t>
-  </si>
-  <si>
-    <t>Early Childhood Education</t>
-  </si>
-  <si>
-    <t>SCM</t>
-  </si>
-  <si>
-    <t>Web development</t>
-  </si>
-  <si>
-    <t>ACF</t>
-  </si>
-  <si>
-    <t>HR</t>
-  </si>
-  <si>
-    <t>Electrical Engineering</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_8651_Kris%20Sadiasa.jpeg</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/Photo_Hathaway_Zhu%20Rui.jpg</t>
+    <t>npkraval@myseneca.ca</t>
+  </si>
+  <si>
+    <t>hsingh958@myseneca.ca</t>
+  </si>
+  <si>
+    <t>rdollison@myseneca.ca</t>
+  </si>
+  <si>
+    <t>kelango1@myseneca.ca</t>
+  </si>
+  <si>
+    <t>rhmohamed1@myseneca.ca</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>Registration Director</t>
+  </si>
+  <si>
+    <t>Manager, Registrations</t>
+  </si>
+  <si>
+    <t>Registration Officer</t>
+  </si>
+  <si>
+    <t>Registration Team</t>
   </si>
   <si>
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/Ameya%20Kokatay%20-%20Headshot_Ameya%20Mangesh%20Kokata.jpg</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=15RFDt_tR3_nJUFKRWWmugQwZG6WYzeHt</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/1737242680405_Syed%20Shahzeb%20Saleem.jpg</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_1741_Susma%20Thapa.jpeg</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/Screenshot%202024-09-20%20190754_Devanshi%20Bharatkumar.png</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/PXL_20240826_001624389.MP-POP_OUT_Jenil%20Hirenkumar%20Meh.jpg</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_20250127_222531_Nicole%20Herman%20Rodrig.png</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/Profile%20image_Mai%20Huong%20Nguyen.jpg</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1y7P6kSnPO3nLp0wlXo9As6w1GtZixkYs</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1YbWDrn0URyo_Cttzwt7UJXAvJ_1ADkbU/view?usp=drive_link</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1rWpo-efL-DfqKQjOFeI5JUrI2nRyu-a_</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=18jjizpslJzMaRS7i8g6pqYIeBsczKDI2</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1zEn6rerBv3fw7kH0-xTuSJcBHEMHyxbM/view?usp=drive_link</t>
-  </si>
-  <si>
-    <t>www.linkedin.com/in/khris-sadiasa-69710518b</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/rui-zhu-2a086433b/</t>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/WhatsApp%20Image%202024-04-26%20at%209.57.04%20AM_Naitik%20Pankaj%20Kumar.jpeg</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_3813_Harmanjot%20Singh.jpeg</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_7466_Keerthivaasan%20Elango.jpeg</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1Ce4wLhfIaRW6i1GVu9VeLd6hL2_IwWjY</t>
   </si>
   <si>
     <t>https://in.linkedin.com/in/ameya-kokatay-5b8312260</t>
   </si>
   <si>
-    <t>www.linkedin.com/in/tomisin-ojaokomo</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/syedshahzebsaleem/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/susma-thapa-1765a8312</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/devanshi-lokhandwala-55aa5a218/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/jenil-mehta-aa39491a1?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/nicole-rodrigues41/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/mai-huong-nguyen-263631201/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/s4rthak-gupta/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/shakila-rajapakse/</t>
-  </si>
-  <si>
-    <t>www.linkedin.com/in/utpal-prajapati-191a391a8</t>
-  </si>
-  <si>
-    <t>linkedin.com/in/dwayne-jude-saldanha-39860a1b6</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/shaurya0908/</t>
-  </si>
-  <si>
-    <t>Naitik Pankaj Kumar Raval</t>
-  </si>
-  <si>
-    <t>Harmanjot Singh</t>
-  </si>
-  <si>
-    <t>Rowena Dollison</t>
-  </si>
-  <si>
-    <t>Keerthivaasan Elango</t>
-  </si>
-  <si>
-    <t>Ruhail Hamza Mohamed</t>
-  </si>
-  <si>
-    <t>npkraval@myseneca.ca</t>
-  </si>
-  <si>
-    <t>hsingh958@myseneca.ca</t>
-  </si>
-  <si>
-    <t>rdollison@myseneca.ca</t>
-  </si>
-  <si>
-    <t>kelango1@myseneca.ca</t>
-  </si>
-  <si>
-    <t>rhmohamed1@myseneca.ca</t>
-  </si>
-  <si>
-    <t>Registration</t>
-  </si>
-  <si>
-    <t>Registration Director</t>
-  </si>
-  <si>
-    <t>Manager, Registrations</t>
-  </si>
-  <si>
-    <t>Registration Officer</t>
-  </si>
-  <si>
-    <t>Registration Team</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/WhatsApp%20Image%202024-04-26%20at%209.57.04%20AM_Naitik%20Pankaj%20Kumar.jpeg</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_3813_Harmanjot%20Singh.jpeg</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_7466_Keerthivaasan%20Elango.jpeg</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1Ce4wLhfIaRW6i1GVu9VeLd6hL2_IwWjY</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/in/naitik-raval-199128155/</t>
   </si>
   <si>
@@ -845,18 +860,30 @@
     <t>Guilherme Luiz Barboza da Silva</t>
   </si>
   <si>
+    <t>Mustafa Siddiqui</t>
+  </si>
+  <si>
+    <t>Ansh Arora</t>
+  </si>
+  <si>
+    <t>Aryan Sharma</t>
+  </si>
+  <si>
+    <t>Heydari Shayan</t>
+  </si>
+  <si>
     <t>Khassan Suleimanov</t>
   </si>
   <si>
+    <t>Sam Alavi</t>
+  </si>
+  <si>
+    <t>Boyu Cao</t>
+  </si>
+  <si>
     <t>Siddhi Patel</t>
   </si>
   <si>
-    <t>Mustafa Siddiqui</t>
-  </si>
-  <si>
-    <t>Sam Alavi</t>
-  </si>
-  <si>
     <t>Chonticha Praditsakul (Num)</t>
   </si>
   <si>
@@ -866,18 +893,6 @@
     <t>Osman Kahraman</t>
   </si>
   <si>
-    <t>Abdulgafar Temitope Tajudeen</t>
-  </si>
-  <si>
-    <t>Boyu Cao</t>
-  </si>
-  <si>
-    <t>Ansh Arora</t>
-  </si>
-  <si>
-    <t>Aryan Sharma</t>
-  </si>
-  <si>
     <t>Vladyslav Savchyn</t>
   </si>
   <si>
@@ -890,18 +905,30 @@
     <t>glbarbozadasilva@myseneca.ca</t>
   </si>
   <si>
+    <t>msiddiqui48@myseneca.ca</t>
+  </si>
+  <si>
+    <t>aarora9525@conestogac.on.ca</t>
+  </si>
+  <si>
+    <t>asharma614@myseneca.ca</t>
+  </si>
+  <si>
+    <t>hshayan@myseneca.ca</t>
+  </si>
+  <si>
     <t>ksuleimanov@myseneca.ca</t>
   </si>
   <si>
+    <t>salavi13@myseneca.ca</t>
+  </si>
+  <si>
+    <t>bcao10@myseneca.ca</t>
+  </si>
+  <si>
     <t>siddhi4328@gmail.com</t>
   </si>
   <si>
-    <t>msiddiqui48@myseneca.ca</t>
-  </si>
-  <si>
-    <t>salavi13@myseneca.ca</t>
-  </si>
-  <si>
     <t>cpraditsakul@myseneca.ca</t>
   </si>
   <si>
@@ -911,48 +938,33 @@
     <t>okahraman2@myseneca.ca</t>
   </si>
   <si>
-    <t>attajudeen@myseneca.ca</t>
-  </si>
-  <si>
-    <t>bcao10@myseneca.ca</t>
-  </si>
-  <si>
-    <t>aarora9525@conestogac.on.ca</t>
-  </si>
-  <si>
-    <t>asharma614@myseneca.ca</t>
-  </si>
-  <si>
     <t>vsavchyn@myseneca.ca</t>
   </si>
   <si>
     <t>IT</t>
   </si>
   <si>
-    <t>Web Development</t>
-  </si>
-  <si>
     <t>IT Director</t>
   </si>
   <si>
-    <t>Software Development team lead</t>
+    <t>Software Development Team lead</t>
   </si>
   <si>
     <t>Senior Front-End Developer</t>
   </si>
   <si>
+    <t>Senior Back-End Developer</t>
+  </si>
+  <si>
     <t>Front-End Developer</t>
   </si>
   <si>
+    <t>Data Analyst</t>
+  </si>
+  <si>
     <t>Business Analyst</t>
   </si>
   <si>
-    <t>Senior Back-End Developer</t>
-  </si>
-  <si>
-    <t>Database Administrator</t>
-  </si>
-  <si>
     <t>QA/QC Manager</t>
   </si>
   <si>
@@ -962,9 +974,6 @@
     <t>Backend Tester</t>
   </si>
   <si>
-    <t>Full Stack Developer</t>
-  </si>
-  <si>
     <t>Bachelors of Computer Science</t>
   </si>
   <si>
@@ -980,18 +989,27 @@
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/small_Guilherme%20Luiz%20Barbo.jpeg</t>
   </si>
   <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_2429_Mustafa%20Siddiqui.jpeg</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1qrFmtB8xQrXxBUhdOCvtajxdvTY8Gmxi</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1dF4UBgpXNhmyZZOYcdj4I5m-aBklExeX</t>
+  </si>
+  <si>
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/DSC_0011_Khassan%20Suleimanov.jpg</t>
   </si>
   <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/d1588d2d-1903-4b01-a6e3-f01a00a6d14f_Sam%20Alavi.jpeg</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/000125130002_Boyu%20Cao.jpg</t>
+  </si>
+  <si>
     <t>https://drive.google.com/open?id=18i1lXKp99NvgcoSg_QF1r77sLpIt2CsT</t>
   </si>
   <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_2429_Mustafa%20Siddiqui.jpeg</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/d1588d2d-1903-4b01-a6e3-f01a00a6d14f_Sam%20Alavi.jpeg</t>
-  </si>
-  <si>
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/Linkedin_Chonticha%20Praditsaku.jpg</t>
   </si>
   <si>
@@ -1001,18 +1019,6 @@
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/DSC01890_Osman%20Kahraman.jpg</t>
   </si>
   <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/MPP_Abdulgafar%20Temitope.png</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/000125130002_Boyu%20Cao.jpg</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1qrFmtB8xQrXxBUhdOCvtajxdvTY8Gmxi</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1dF4UBgpXNhmyZZOYcdj4I5m-aBklExeX</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1gb3qYWS_HHsMNoCHObr20bdzbLHM2Pqi</t>
   </si>
   <si>
@@ -1025,18 +1031,27 @@
     <t>https://www.linkedin.com/in/guilhermebdasilva/</t>
   </si>
   <si>
+    <t>www.linkedin.com/in/mu5h1e</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ansh-arora-29675a221/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/aryan-sharma-682a46290</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/khassan-suleimanov-494591254?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=ios_app</t>
   </si>
   <si>
+    <t>https://www.linkedin.com/in/alavi-sam</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/xeoncao/</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/siddhipatel10/</t>
   </si>
   <si>
-    <t>www.linkedin.com/in/mu5h1e</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/alavi-sam</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/in/chonticha-praditsakul-67a629132/</t>
   </si>
   <si>
@@ -1046,24 +1061,24 @@
     <t>www.linkedin.com/in/osman-kahraman-2a6513220</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/in/clevertag/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/xeoncao/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/ansh-arora-29675a221/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/aryan-sharma-682a46290</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/in/vsavchyn/</t>
   </si>
   <si>
     <t>Vidhi Mehta</t>
   </si>
   <si>
+    <t>Arafat Ahmed Ansari</t>
+  </si>
+  <si>
+    <t>Pavan Kumar</t>
+  </si>
+  <si>
+    <t>Aayushi Mahendra Sharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shivani Nallamati </t>
+  </si>
+  <si>
     <t>Mohammad Mozaffari</t>
   </si>
   <si>
@@ -1073,39 +1088,36 @@
     <t>Mobina Kazemi</t>
   </si>
   <si>
-    <t>Aayushi Mahendra Sharma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shivani Nallamati </t>
+    <t>Safal Maharjan</t>
+  </si>
+  <si>
+    <t>Vanshil Lukhad</t>
+  </si>
+  <si>
+    <t>Kaifee Ali</t>
+  </si>
+  <si>
+    <t>Sandeep Rajkumar</t>
   </si>
   <si>
     <t>Justice Asiedu</t>
   </si>
   <si>
-    <t>Arafat Ahmed Ansari</t>
-  </si>
-  <si>
-    <t>Pavan Kumar</t>
-  </si>
-  <si>
-    <t>Safal Maharjan</t>
-  </si>
-  <si>
-    <t>Winona Putri Wirindra</t>
-  </si>
-  <si>
-    <t>Vanshil Lukhad</t>
-  </si>
-  <si>
-    <t>Kaifee Ali</t>
-  </si>
-  <si>
-    <t>Sandeep Rajkumar</t>
-  </si>
-  <si>
     <t>vidhi236@my.yorku.ca</t>
   </si>
   <si>
+    <t>aa8@myseneca.ca</t>
+  </si>
+  <si>
+    <t>pavan108@my.yorku.ca</t>
+  </si>
+  <si>
+    <t>amsharma1@myseneca.ca</t>
+  </si>
+  <si>
+    <t>nallamatishivani18@gmail.com</t>
+  </si>
+  <si>
     <t>mmozaffri@myseneca.ca</t>
   </si>
   <si>
@@ -1115,66 +1127,51 @@
     <t>kmobina@myseneca.ca</t>
   </si>
   <si>
-    <t>amsharma1@myseneca.ca</t>
-  </si>
-  <si>
-    <t>nallamatishivani18@gmail.com</t>
+    <t>smaharjan34@myseneca.ca</t>
+  </si>
+  <si>
+    <t>vlukhad@myseneca.ca</t>
+  </si>
+  <si>
+    <t>kali64@myseneca.ca</t>
+  </si>
+  <si>
+    <t>srajkumar9@myseneca.ca</t>
   </si>
   <si>
     <t>jasiedu1@myseneca.ca</t>
   </si>
   <si>
-    <t>aa8@myseneca.ca</t>
-  </si>
-  <si>
-    <t>pavan108@my.yorku.ca</t>
-  </si>
-  <si>
-    <t>smaharjan34@myseneca.ca</t>
-  </si>
-  <si>
-    <t>wpwirindra@myseneca.ca</t>
-  </si>
-  <si>
-    <t>vlukhad@myseneca.ca</t>
-  </si>
-  <si>
-    <t>kali64@myseneca.ca</t>
-  </si>
-  <si>
-    <t>srajkumar9@myseneca.ca</t>
-  </si>
-  <si>
     <t>Marketing</t>
   </si>
   <si>
     <t>Marketing Director</t>
   </si>
   <si>
+    <t>Project Manager, Marketing</t>
+  </si>
+  <si>
+    <t>Manager, Content Strategy</t>
+  </si>
+  <si>
+    <t>Content Lead</t>
+  </si>
+  <si>
+    <t>Copywriter</t>
+  </si>
+  <si>
     <t>Content Creators</t>
   </si>
   <si>
-    <t>Content Lead</t>
-  </si>
-  <si>
-    <t>Copywriter</t>
+    <t>Video Editor</t>
+  </si>
+  <si>
+    <t>Videographer/Video editor</t>
   </si>
   <si>
     <t>Communications Officer</t>
   </si>
   <si>
-    <t>Project Manager, Marketing</t>
-  </si>
-  <si>
-    <t>Manager, Content Strategy</t>
-  </si>
-  <si>
-    <t>Video Editor</t>
-  </si>
-  <si>
-    <t>Videographer/Video editor</t>
-  </si>
-  <si>
     <t>Digital Marketing</t>
   </si>
   <si>
@@ -1184,9 +1181,6 @@
     <t>Business</t>
   </si>
   <si>
-    <t>Creative Advertising</t>
-  </si>
-  <si>
     <t>Visual Content Creation</t>
   </si>
   <si>
@@ -1196,18 +1190,30 @@
     <t>Print Manager*</t>
   </si>
   <si>
+    <t>Podcast Manager</t>
+  </si>
+  <si>
     <t>Content Creator</t>
   </si>
   <si>
-    <t>Podcast Manager</t>
-  </si>
-  <si>
     <t>Branding Manager (Should be with creatives)</t>
   </si>
   <si>
     <t>https://drive.google.com/open?id=1eU3y22OwZ8Xvg-3FGD47qq_iWsvkkfZ7</t>
   </si>
   <si>
+    <t>https://drive.google.com/open?id=1wPf8samP1m12dMqwjjMeQIyA01VH5PQW</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1QilLWrXkOajF_UJ1WmSKQtcRdgR8V-cX</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1FLSj5cEY2jrMAKkcG7a-oKjIqu_XU-pO</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1HMmzK_fHChqnYcAxpzdhKQ2Fql2jrzyr</t>
+  </si>
+  <si>
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_9242_Mohammad%20Mozaffari.jpeg</t>
   </si>
   <si>
@@ -1217,33 +1223,30 @@
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_6036_Mobina%20Kazemi.jpeg</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=1FLSj5cEY2jrMAKkcG7a-oKjIqu_XU-pO</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1HMmzK_fHChqnYcAxpzdhKQ2Fql2jrzyr</t>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/Scanned%20Documents%20(4)_page-0001_Safal%20Maharjan.jpg</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1T5h0SN3_Zfg8zjtj4WYwAm645cRPt2KB</t>
   </si>
   <si>
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/JUSTICE_Justice%20Asiedu.jpg</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=1wPf8samP1m12dMqwjjMeQIyA01VH5PQW</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1QilLWrXkOajF_UJ1WmSKQtcRdgR8V-cX</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/Scanned%20Documents%20(4)_page-0001_Safal%20Maharjan.jpg</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1m5EQNw7FrZgKbHNtFzWK19E6vkOv7P2p</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1T5h0SN3_Zfg8zjtj4WYwAm645cRPt2KB</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/in/vidhimehta236/</t>
   </si>
   <si>
+    <t>https://www.linkedin.com/in/arfat-ahmed-ansari/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/pavan-anandakumar/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/aayushi-sharma-4b920070/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/shivani-n-/</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/mohammad-mozaffari-4a13592a6?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=ios_app</t>
   </si>
   <si>
@@ -1253,30 +1256,15 @@
     <t>http://linkedin.com/in/mobina-kazemi-396992311</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/in/aayushi-sharma-4b920070/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/shivani-n-/</t>
+    <t>www.linkedin.com/in/safal-maharjan-704588249</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/kaifee-ali-23a3aa7a/</t>
   </si>
   <si>
     <t>https://www.linkedin.com/in/justice-asiedu-b42855346/</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/in/arfat-ahmed-ansari/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/pavan-anandakumar/</t>
-  </si>
-  <si>
-    <t>www.linkedin.com/in/safal-maharjan-704588249</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/winona-wirindra-1291ab207?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=ios_app</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/kaifee-ali-23a3aa7a/</t>
-  </si>
-  <si>
     <t>Le Xuan Hoa Dao (Hannah)</t>
   </si>
   <si>
@@ -1334,7 +1322,7 @@
     <t>Motion Graphics</t>
   </si>
   <si>
-    <t>Queen of Hackathon/ Graphics Designer</t>
+    <t>Graphics Designer</t>
   </si>
   <si>
     <t xml:space="preserve">Graphics Designer </t>
@@ -1358,6 +1346,9 @@
     <t>https://drive.google.com/open?id=1wotF5RzvgbShFtBqVGbj-VM-2cJfnP9M</t>
   </si>
   <si>
+    <t>https://drive.google.com/open?id=1_Z2AgsSAKI92LphOBIJYyDKpZ6Uznn0O</t>
+  </si>
+  <si>
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/resume%20photo_Dinh%20Quoc%20To.jpg</t>
   </si>
   <si>
@@ -1374,6 +1365,9 @@
   </si>
   <si>
     <t>https://www.linkedin.com/in/deniz-eryigit-2bbb69293/</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/ zoe-lara-denise-lerin-7b94a634a</t>
   </si>
   <si>
     <t>www.linkedin.com/in/dinh-quoc-to-b17b09191</t>
@@ -1932,65 +1926,65 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D2" t="s">
+        <v>457</v>
+      </c>
+      <c r="E2" t="s">
         <v>458</v>
       </c>
-      <c r="D2" t="s">
+      <c r="I2" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="E2" t="s">
-        <v>460</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C3" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E3" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B4" t="s">
+        <v>455</v>
+      </c>
+      <c r="C4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D4" t="s">
         <v>457</v>
       </c>
-      <c r="C4" t="s">
-        <v>300</v>
-      </c>
-      <c r="D4" t="s">
-        <v>459</v>
-      </c>
       <c r="E4" t="s">
+        <v>458</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" t="s">
         <v>462</v>
-      </c>
-      <c r="J4" t="s">
-        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -2045,28 +2039,28 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2074,25 +2068,25 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
+        <v>463</v>
+      </c>
+      <c r="D3" t="s">
         <v>465</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" t="s">
         <v>467</v>
       </c>
-      <c r="E3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F3" t="s">
-        <v>469</v>
-      </c>
       <c r="I3" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2103,16 +2097,16 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>17</v>
@@ -2135,7 +2129,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2178,22 +2172,22 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2201,22 +2195,22 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2224,25 +2218,25 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2250,25 +2244,25 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2276,25 +2270,25 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2302,25 +2296,25 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J7" t="s">
-        <v>90</v>
+        <v>82</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2328,22 +2322,22 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2351,22 +2345,22 @@
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2374,25 +2368,25 @@
         <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2400,19 +2394,19 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2420,25 +2414,25 @@
         <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2446,16 +2440,19 @@
         <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>70</v>
+      </c>
+      <c r="F13" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2463,16 +2460,25 @@
         <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
+        <v>70</v>
+      </c>
+      <c r="F14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J14" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2480,22 +2486,25 @@
         <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>70</v>
+      </c>
+      <c r="F15" t="s">
+        <v>76</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J15" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2503,22 +2512,42 @@
         <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
         <v>50</v>
       </c>
-      <c r="D16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>96</v>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2532,8 +2561,8 @@
     <hyperlink ref="I5" r:id="rId7"/>
     <hyperlink ref="J5" r:id="rId8"/>
     <hyperlink ref="I6" r:id="rId9"/>
-    <hyperlink ref="J6" r:id="rId10"/>
-    <hyperlink ref="I7" r:id="rId11"/>
+    <hyperlink ref="I7" r:id="rId10"/>
+    <hyperlink ref="J7" r:id="rId11"/>
     <hyperlink ref="I8" r:id="rId12"/>
     <hyperlink ref="I9" r:id="rId13"/>
     <hyperlink ref="J9" r:id="rId14"/>
@@ -2541,9 +2570,10 @@
     <hyperlink ref="J10" r:id="rId16"/>
     <hyperlink ref="I12" r:id="rId17"/>
     <hyperlink ref="J12" r:id="rId18"/>
-    <hyperlink ref="I15" r:id="rId19"/>
-    <hyperlink ref="I16" r:id="rId20"/>
-    <hyperlink ref="J16" r:id="rId21"/>
+    <hyperlink ref="I14" r:id="rId19"/>
+    <hyperlink ref="I15" r:id="rId20"/>
+    <hyperlink ref="I16" r:id="rId21"/>
+    <hyperlink ref="J16" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2591,25 +2621,25 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2663,267 +2693,267 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E3" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E4" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E5" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C6" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D6" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E6" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F6" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C8" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D8" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E8" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F8" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C9" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D9" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E9" t="s">
-        <v>139</v>
+        <v>71</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B10" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C10" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D10" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E10" t="s">
-        <v>139</v>
+        <v>71</v>
       </c>
       <c r="F10" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C11" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D11" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E11" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B12" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C12" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D12" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E12" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2957,7 +2987,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2997,381 +3027,358 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B3" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E3" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B4" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E4" t="s">
-        <v>137</v>
+        <v>212</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>234</v>
+        <v>222</v>
+      </c>
+      <c r="J4" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B5" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C5" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D5" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E5" t="s">
-        <v>209</v>
+        <v>143</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="J5" t="s">
-        <v>235</v>
+        <v>223</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B6" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C6" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D6" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E6" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E7" t="s">
-        <v>211</v>
+        <v>143</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>237</v>
+        <v>225</v>
+      </c>
+      <c r="J7" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B8" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D8" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E8" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>238</v>
+        <v>226</v>
+      </c>
+      <c r="J8" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B9" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C9" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D9" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E9" t="s">
-        <v>137</v>
+        <v>214</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B10" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C10" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D10" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E10" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B11" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C11" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D11" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E11" t="s">
-        <v>212</v>
+        <v>143</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B12" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C12" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D12" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E12" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B13" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C13" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D13" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E13" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B14" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C14" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D14" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E14" t="s">
-        <v>137</v>
+        <v>216</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="J14" t="s">
-        <v>244</v>
+        <v>232</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B15" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C15" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D15" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E15" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="J15" t="s">
-        <v>245</v>
+        <v>233</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C16" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D16" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E16" t="s">
-        <v>214</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C17" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D17" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E17" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>183</v>
-      </c>
-      <c r="B18" t="s">
-        <v>200</v>
-      </c>
-      <c r="C18" t="s">
-        <v>201</v>
-      </c>
-      <c r="D18" t="s">
-        <v>207</v>
-      </c>
-      <c r="E18" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -3380,28 +3387,26 @@
     <hyperlink ref="I3" r:id="rId2"/>
     <hyperlink ref="J3" r:id="rId3"/>
     <hyperlink ref="I4" r:id="rId4"/>
-    <hyperlink ref="J4" r:id="rId5"/>
-    <hyperlink ref="I5" r:id="rId6"/>
+    <hyperlink ref="I5" r:id="rId5"/>
+    <hyperlink ref="J5" r:id="rId6"/>
     <hyperlink ref="I6" r:id="rId7"/>
     <hyperlink ref="J6" r:id="rId8"/>
     <hyperlink ref="I7" r:id="rId9"/>
-    <hyperlink ref="J7" r:id="rId10"/>
-    <hyperlink ref="I8" r:id="rId11"/>
-    <hyperlink ref="J8" r:id="rId12"/>
-    <hyperlink ref="I9" r:id="rId13"/>
-    <hyperlink ref="J9" r:id="rId14"/>
-    <hyperlink ref="I10" r:id="rId15"/>
-    <hyperlink ref="J10" r:id="rId16"/>
-    <hyperlink ref="I11" r:id="rId17"/>
-    <hyperlink ref="J11" r:id="rId18"/>
-    <hyperlink ref="I12" r:id="rId19"/>
-    <hyperlink ref="J12" r:id="rId20"/>
-    <hyperlink ref="I13" r:id="rId21"/>
-    <hyperlink ref="J13" r:id="rId22"/>
-    <hyperlink ref="I14" r:id="rId23"/>
-    <hyperlink ref="I15" r:id="rId24"/>
-    <hyperlink ref="I16" r:id="rId25"/>
-    <hyperlink ref="J16" r:id="rId26"/>
+    <hyperlink ref="I8" r:id="rId10"/>
+    <hyperlink ref="I9" r:id="rId11"/>
+    <hyperlink ref="J9" r:id="rId12"/>
+    <hyperlink ref="I10" r:id="rId13"/>
+    <hyperlink ref="J10" r:id="rId14"/>
+    <hyperlink ref="I11" r:id="rId15"/>
+    <hyperlink ref="J11" r:id="rId16"/>
+    <hyperlink ref="I12" r:id="rId17"/>
+    <hyperlink ref="J12" r:id="rId18"/>
+    <hyperlink ref="I13" r:id="rId19"/>
+    <hyperlink ref="J13" r:id="rId20"/>
+    <hyperlink ref="I14" r:id="rId21"/>
+    <hyperlink ref="J14" r:id="rId22"/>
+    <hyperlink ref="I15" r:id="rId23"/>
+    <hyperlink ref="J15" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3449,140 +3454,140 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>248</v>
       </c>
       <c r="B2" t="s">
-        <v>186</v>
+        <v>254</v>
       </c>
       <c r="C2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>219</v>
+        <v>265</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B3" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C3" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D3" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B4" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C4" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D4" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B5" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C5" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D5" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E5" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B6" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C6" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D6" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E6" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -3644,347 +3649,341 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B2" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C2" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D2" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="E2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B3" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C3" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D3" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E3" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B4" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C4" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D4" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="E4" t="s">
-        <v>139</v>
+        <v>71</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B5" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C5" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D5" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E5" t="s">
-        <v>139</v>
+        <v>71</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>333</v>
+        <v>321</v>
+      </c>
+      <c r="J5" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B6" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C6" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D6" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E6" t="s">
-        <v>135</v>
+        <v>316</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="E7" t="s">
-        <v>139</v>
+        <v>71</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="J7" t="s">
-        <v>335</v>
+        <v>323</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B8" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C8" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D8" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E8" t="s">
-        <v>314</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>336</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B9" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C9" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E9" t="s">
-        <v>136</v>
+        <v>71</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B10" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C10" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E10" t="s">
-        <v>137</v>
+        <v>317</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B11" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C11" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D11" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E11" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="J11" t="s">
-        <v>339</v>
+        <v>326</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B12" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C12" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D12" t="s">
         <v>312</v>
       </c>
       <c r="E12" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B13" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C13" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D13" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="E13" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B14" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C14" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D14" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="E14" t="s">
-        <v>313</v>
+        <v>143</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B15" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C15" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D15" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="E15" t="s">
-        <v>139</v>
+        <v>71</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>343</v>
+        <v>330</v>
+      </c>
+      <c r="J15" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B16" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="C16" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D16" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="E16" t="s">
-        <v>139</v>
+        <v>71</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -3996,27 +3995,25 @@
     <hyperlink ref="I4" r:id="rId5"/>
     <hyperlink ref="J4" r:id="rId6"/>
     <hyperlink ref="I5" r:id="rId7"/>
-    <hyperlink ref="J5" r:id="rId8"/>
-    <hyperlink ref="I6" r:id="rId9"/>
-    <hyperlink ref="J6" r:id="rId10"/>
-    <hyperlink ref="I7" r:id="rId11"/>
-    <hyperlink ref="I8" r:id="rId12"/>
-    <hyperlink ref="J8" r:id="rId13"/>
-    <hyperlink ref="I9" r:id="rId14"/>
-    <hyperlink ref="J9" r:id="rId15"/>
-    <hyperlink ref="I10" r:id="rId16"/>
-    <hyperlink ref="J10" r:id="rId17"/>
-    <hyperlink ref="I11" r:id="rId18"/>
-    <hyperlink ref="I12" r:id="rId19"/>
-    <hyperlink ref="J12" r:id="rId20"/>
-    <hyperlink ref="I13" r:id="rId21"/>
-    <hyperlink ref="J13" r:id="rId22"/>
-    <hyperlink ref="I14" r:id="rId23"/>
-    <hyperlink ref="J14" r:id="rId24"/>
-    <hyperlink ref="I15" r:id="rId25"/>
-    <hyperlink ref="J15" r:id="rId26"/>
-    <hyperlink ref="I16" r:id="rId27"/>
-    <hyperlink ref="J16" r:id="rId28"/>
+    <hyperlink ref="I6" r:id="rId8"/>
+    <hyperlink ref="J6" r:id="rId9"/>
+    <hyperlink ref="I7" r:id="rId10"/>
+    <hyperlink ref="J7" r:id="rId11"/>
+    <hyperlink ref="I9" r:id="rId12"/>
+    <hyperlink ref="J9" r:id="rId13"/>
+    <hyperlink ref="I10" r:id="rId14"/>
+    <hyperlink ref="J10" r:id="rId15"/>
+    <hyperlink ref="I11" r:id="rId16"/>
+    <hyperlink ref="J11" r:id="rId17"/>
+    <hyperlink ref="I12" r:id="rId18"/>
+    <hyperlink ref="J12" r:id="rId19"/>
+    <hyperlink ref="I13" r:id="rId20"/>
+    <hyperlink ref="J13" r:id="rId21"/>
+    <hyperlink ref="I14" r:id="rId22"/>
+    <hyperlink ref="J14" r:id="rId23"/>
+    <hyperlink ref="I15" r:id="rId24"/>
+    <hyperlink ref="I16" r:id="rId25"/>
+    <hyperlink ref="J16" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4024,7 +4021,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4064,330 +4061,307 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B2" t="s">
         <v>359</v>
       </c>
       <c r="C2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D2" t="s">
         <v>373</v>
       </c>
-      <c r="D2" t="s">
-        <v>374</v>
-      </c>
       <c r="E2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B3" t="s">
         <v>360</v>
       </c>
       <c r="C3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E3" t="s">
-        <v>384</v>
+        <v>141</v>
       </c>
       <c r="F3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B4" t="s">
         <v>361</v>
       </c>
       <c r="C4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D4" t="s">
         <v>375</v>
       </c>
       <c r="E4" t="s">
-        <v>385</v>
-      </c>
-      <c r="F4" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B5" t="s">
         <v>362</v>
       </c>
       <c r="C5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E5" t="s">
-        <v>385</v>
-      </c>
-      <c r="F5" t="s">
-        <v>390</v>
+        <v>142</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B6" t="s">
         <v>363</v>
       </c>
       <c r="C6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D6" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E6" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B7" t="s">
         <v>364</v>
       </c>
       <c r="C7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E7" t="s">
-        <v>135</v>
+        <v>383</v>
+      </c>
+      <c r="F7" t="s">
+        <v>389</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B8" t="s">
         <v>365</v>
       </c>
       <c r="C8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D8" t="s">
         <v>378</v>
       </c>
       <c r="E8" t="s">
-        <v>137</v>
+        <v>384</v>
+      </c>
+      <c r="F8" t="s">
+        <v>389</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B9" t="s">
         <v>366</v>
       </c>
       <c r="C9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E9" t="s">
-        <v>135</v>
+        <v>384</v>
       </c>
       <c r="F9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B10" t="s">
         <v>367</v>
       </c>
       <c r="C10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E10" t="s">
-        <v>383</v>
+        <v>143</v>
+      </c>
+      <c r="F10" t="s">
+        <v>390</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>413</v>
+        <v>399</v>
+      </c>
+      <c r="J10" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B11" t="s">
         <v>368</v>
       </c>
       <c r="C11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E11" t="s">
-        <v>137</v>
-      </c>
-      <c r="F11" t="s">
-        <v>392</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="J11" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B12" t="s">
         <v>369</v>
       </c>
       <c r="C12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D12" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E12" t="s">
-        <v>386</v>
+        <v>142</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B13" t="s">
         <v>370</v>
       </c>
       <c r="C13" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D13" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B14" t="s">
         <v>371</v>
       </c>
       <c r="C14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E14" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="s">
-        <v>358</v>
-      </c>
-      <c r="B15" t="s">
-        <v>372</v>
-      </c>
-      <c r="C15" t="s">
-        <v>373</v>
-      </c>
-      <c r="D15" t="s">
-        <v>382</v>
-      </c>
-      <c r="E15" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -4409,12 +4383,10 @@
     <hyperlink ref="I9" r:id="rId15"/>
     <hyperlink ref="J9" r:id="rId16"/>
     <hyperlink ref="I10" r:id="rId17"/>
-    <hyperlink ref="J10" r:id="rId18"/>
-    <hyperlink ref="I11" r:id="rId19"/>
-    <hyperlink ref="I12" r:id="rId20"/>
-    <hyperlink ref="J12" r:id="rId21"/>
-    <hyperlink ref="I14" r:id="rId22"/>
-    <hyperlink ref="J14" r:id="rId23"/>
+    <hyperlink ref="I12" r:id="rId18"/>
+    <hyperlink ref="J12" r:id="rId19"/>
+    <hyperlink ref="I14" r:id="rId20"/>
+    <hyperlink ref="J14" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4462,157 +4434,163 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C2" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D2" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E2" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B3" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C3" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D3" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E3" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B4" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C4" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D4" t="s">
+        <v>430</v>
+      </c>
+      <c r="E4" t="s">
         <v>434</v>
       </c>
-      <c r="E4" t="s">
+      <c r="I4" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>442</v>
-      </c>
       <c r="J4" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B5" t="s">
+        <v>423</v>
+      </c>
+      <c r="C5" t="s">
         <v>427</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>431</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>435</v>
       </c>
-      <c r="E5" t="s">
+      <c r="I5" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>443</v>
-      </c>
       <c r="J5" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B6" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D6" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E6" t="s">
-        <v>439</v>
+        <v>435</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="J6" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="J7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B8" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C8" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D8" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E8" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -4624,9 +4602,10 @@
     <hyperlink ref="I4" r:id="rId5"/>
     <hyperlink ref="I5" r:id="rId6"/>
     <hyperlink ref="J5" r:id="rId7"/>
-    <hyperlink ref="I7" r:id="rId8"/>
-    <hyperlink ref="I8" r:id="rId9"/>
-    <hyperlink ref="J8" r:id="rId10"/>
+    <hyperlink ref="I6" r:id="rId8"/>
+    <hyperlink ref="I7" r:id="rId9"/>
+    <hyperlink ref="I8" r:id="rId10"/>
+    <hyperlink ref="J8" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel_input/Updated_KEY_ORGANIZERS.xlsx
+++ b/excel_input/Updated_KEY_ORGANIZERS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="471">
   <si>
     <t>Name</t>
   </si>
@@ -50,36 +50,57 @@
     <t>LinkedIn Profile_x</t>
   </si>
   <si>
+    <t>Profile Photo Y</t>
+  </si>
+  <si>
     <t>LinkedIn Profile_y</t>
   </si>
   <si>
     <t>Mark Buchner</t>
   </si>
   <si>
+    <t>Fenil Mehta</t>
+  </si>
+  <si>
     <t>Suhana Shrestha</t>
   </si>
   <si>
     <t>mark.buchner@senecapolytechnic.ca</t>
   </si>
   <si>
+    <t>fmmehta@myseneca.ca</t>
+  </si>
+  <si>
     <t>sshrestha140@myseneca.ca</t>
   </si>
   <si>
     <t>Chair</t>
   </si>
   <si>
+    <t>Co-Chair</t>
+  </si>
+  <si>
     <t>Chief of Staff</t>
   </si>
   <si>
     <t xml:space="preserve">PMC </t>
   </si>
   <si>
+    <t>Alumni</t>
+  </si>
+  <si>
     <t xml:space="preserve">PMCC </t>
   </si>
   <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/FB_IMG_1568043945443_Fenil%20Mehta.jpg</t>
+  </si>
+  <si>
     <t>https://drive.google.com/open?id=1HA9k5zKKLL1Ko6LDw_0sPQyHwfKBwHVC</t>
   </si>
   <si>
+    <t>https://www.linkedin.com/in/fenilmehta</t>
+  </si>
+  <si>
     <t>www.linkedin.com/in/suhana-shrestha</t>
   </si>
   <si>
@@ -356,9 +377,6 @@
     <t>https://www.linkedin.com/feed/</t>
   </si>
   <si>
-    <t>Fenil Mehta</t>
-  </si>
-  <si>
     <t>Lily Ngo</t>
   </si>
   <si>
@@ -389,9 +407,6 @@
     <t>Ayush Shah</t>
   </si>
   <si>
-    <t>fmmehta@myseneca.ca</t>
-  </si>
-  <si>
     <t>lhngo1@myseneca.ca</t>
   </si>
   <si>
@@ -422,16 +437,10 @@
     <t>ayushshahas17@outlook.com</t>
   </si>
   <si>
-    <t>P.E / Operations</t>
-  </si>
-  <si>
     <t>Partner Experience</t>
   </si>
   <si>
-    <t>Director, Partner Experience</t>
-  </si>
-  <si>
-    <t>Manager, Corporate Relations</t>
+    <t>Partner Experience Director</t>
   </si>
   <si>
     <t xml:space="preserve">Project Control Officer. Partner Exp. </t>
@@ -449,9 +458,6 @@
     <t>Manager, Government Relations</t>
   </si>
   <si>
-    <t>Alumni</t>
-  </si>
-  <si>
     <t>Business Analytics</t>
   </si>
   <si>
@@ -476,9 +482,6 @@
     <t>Government Relations</t>
   </si>
   <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/FB_IMG_1568043945443_Fenil%20Mehta.jpg</t>
-  </si>
-  <si>
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/LinkedIn_0711_Lily%20Ngo.JPG</t>
   </si>
   <si>
@@ -509,9 +512,6 @@
     <t>https://drive.google.com/open?id=1LDj93MB3ofu-_jfFRGCDdmhJlLnjcW2H</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/in/fenilmehta</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/in/lilyngo12/</t>
   </si>
   <si>
@@ -650,7 +650,7 @@
     <t>Discord &amp; Ticketing System Manager</t>
   </si>
   <si>
-    <t>Conflict Resolution Manager</t>
+    <t>Conflict Resolution Manager/ Student Success Manager</t>
   </si>
   <si>
     <t>Data &amp; Administration Manager</t>
@@ -1226,9 +1226,15 @@
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/Scanned%20Documents%20(4)_page-0001_Safal%20Maharjan.jpg</t>
   </si>
   <si>
+    <t>https://drive.google.com/open?id=1XKVU365ZuB6lFu9WVhiPaiAwiH7D9cvL</t>
+  </si>
+  <si>
     <t>https://drive.google.com/open?id=1T5h0SN3_Zfg8zjtj4WYwAm645cRPt2KB</t>
   </si>
   <si>
+    <t>https://drive.google.com/open?id=1FpH4NBZkeK__6cw-6gzFN78vlaSLQH4i</t>
+  </si>
+  <si>
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/JUSTICE_Justice%20Asiedu.jpg</t>
   </si>
   <si>
@@ -1259,9 +1265,15 @@
     <t>www.linkedin.com/in/safal-maharjan-704588249</t>
   </si>
   <si>
+    <t>https://www.linkedin.com/in/vanshil-lukhad-8a76412b4?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=ios_app</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/kaifee-ali-23a3aa7a/</t>
   </si>
   <si>
+    <t>https://www.linkedin.com/in/sandeep-rajkumar/</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/justice-asiedu-b42855346/</t>
   </si>
   <si>
@@ -1415,19 +1427,16 @@
     <t>linkedin.com/in/cleo-buenaventura</t>
   </si>
   <si>
-    <t>Issues Management</t>
-  </si>
-  <si>
-    <t>Partner Experience Director</t>
-  </si>
-  <si>
-    <t>Events Director</t>
-  </si>
-  <si>
-    <t>PMCC</t>
-  </si>
-  <si>
-    <t>To be filled</t>
+    <t>Kohulan Thevananthan</t>
+  </si>
+  <si>
+    <t>kthevananthan@myseneca.ca</t>
+  </si>
+  <si>
+    <t>Issue Management</t>
+  </si>
+  <si>
+    <t>Issue Management Director</t>
   </si>
 </sst>
 </file>
@@ -1798,7 +1807,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1830,55 +1839,80 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
         <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I3" r:id="rId1"/>
+    <hyperlink ref="J3" r:id="rId2"/>
+    <hyperlink ref="I4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1918,73 +1952,73 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B2" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="C2" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="D2" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="E2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B3" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C3" t="s">
         <v>305</v>
       </c>
       <c r="D3" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="E3" t="s">
-        <v>141</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B4" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="C4" t="s">
         <v>305</v>
       </c>
       <c r="D4" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="E4" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="J4" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -1999,7 +2033,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2031,98 +2065,27 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>467</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>468</v>
       </c>
       <c r="C2" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="D2" t="s">
-        <v>464</v>
-      </c>
-      <c r="E2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" t="s">
-        <v>467</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" t="s">
-        <v>463</v>
-      </c>
-      <c r="D3" t="s">
-        <v>465</v>
-      </c>
-      <c r="E3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F3" t="s">
-        <v>467</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>463</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>466</v>
-      </c>
-      <c r="F4" t="s">
-        <v>467</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" t="s">
-        <v>18</v>
+        <v>470</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
-    <hyperlink ref="J2" r:id="rId2"/>
-    <hyperlink ref="I3" r:id="rId3"/>
-    <hyperlink ref="J3" r:id="rId4"/>
-    <hyperlink ref="I4" r:id="rId5"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2161,393 +2124,393 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="J6" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F10" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F12" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F13" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F14" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="J14" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F15" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J15" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E16" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F16" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E17" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2613,33 +2576,33 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2653,7 +2616,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2685,274 +2648,251 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E2" t="s">
-        <v>141</v>
+        <v>144</v>
+      </c>
+      <c r="F2" t="s">
+        <v>148</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E3" t="s">
-        <v>142</v>
-      </c>
-      <c r="F3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D5" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E5" t="s">
-        <v>142</v>
+        <v>146</v>
+      </c>
+      <c r="F5" t="s">
+        <v>149</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C6" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
-      </c>
-      <c r="F6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E7" t="s">
-        <v>143</v>
+        <v>145</v>
+      </c>
+      <c r="F7" t="s">
+        <v>150</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C8" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E8" t="s">
-        <v>143</v>
-      </c>
-      <c r="F8" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D9" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>78</v>
+      </c>
+      <c r="F9" t="s">
+        <v>151</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C10" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D10" t="s">
         <v>140</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B11" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C11" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D11" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E11" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B12" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" t="s">
-        <v>133</v>
-      </c>
-      <c r="D12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E12" t="s">
-        <v>145</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="J12" s="2" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2978,8 +2918,6 @@
     <hyperlink ref="J10" r:id="rId18"/>
     <hyperlink ref="I11" r:id="rId19"/>
     <hyperlink ref="J11" r:id="rId20"/>
-    <hyperlink ref="I12" r:id="rId21"/>
-    <hyperlink ref="J12" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3019,10 +2957,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -3108,7 +3046,7 @@
         <v>208</v>
       </c>
       <c r="E5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>223</v>
@@ -3131,7 +3069,7 @@
         <v>209</v>
       </c>
       <c r="E6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>224</v>
@@ -3154,7 +3092,7 @@
         <v>210</v>
       </c>
       <c r="E7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>225</v>
@@ -3177,7 +3115,7 @@
         <v>210</v>
       </c>
       <c r="E8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>226</v>
@@ -3223,7 +3161,7 @@
         <v>211</v>
       </c>
       <c r="E10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>228</v>
@@ -3246,7 +3184,7 @@
         <v>211</v>
       </c>
       <c r="E11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>229</v>
@@ -3446,10 +3384,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -3466,7 +3404,7 @@
         <v>261</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>265</v>
@@ -3489,7 +3427,7 @@
         <v>262</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
         <v>264</v>
@@ -3515,7 +3453,7 @@
         <v>263</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
         <v>264</v>
@@ -3541,7 +3479,7 @@
         <v>263</v>
       </c>
       <c r="E5" t="s">
-        <v>141</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3558,7 +3496,7 @@
         <v>263</v>
       </c>
       <c r="E6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>268</v>
@@ -3581,7 +3519,7 @@
         <v>263</v>
       </c>
       <c r="E7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>269</v>
@@ -3641,10 +3579,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -3661,7 +3599,7 @@
         <v>306</v>
       </c>
       <c r="E2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>318</v>
@@ -3707,7 +3645,7 @@
         <v>308</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>320</v>
@@ -3730,7 +3668,7 @@
         <v>309</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>321</v>
@@ -3776,7 +3714,7 @@
         <v>310</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>323</v>
@@ -3799,7 +3737,7 @@
         <v>310</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3816,7 +3754,7 @@
         <v>310</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>324</v>
@@ -3862,7 +3800,7 @@
         <v>312</v>
       </c>
       <c r="E11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>326</v>
@@ -3885,7 +3823,7 @@
         <v>312</v>
       </c>
       <c r="E12" t="s">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>327</v>
@@ -3908,7 +3846,7 @@
         <v>313</v>
       </c>
       <c r="E13" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>328</v>
@@ -3931,7 +3869,7 @@
         <v>314</v>
       </c>
       <c r="E14" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>329</v>
@@ -3954,7 +3892,7 @@
         <v>315</v>
       </c>
       <c r="E15" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>330</v>
@@ -3977,7 +3915,7 @@
         <v>315</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>331</v>
@@ -4053,10 +3991,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -4082,7 +4020,7 @@
         <v>391</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4099,7 +4037,7 @@
         <v>374</v>
       </c>
       <c r="E3" t="s">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
         <v>388</v>
@@ -4108,7 +4046,7 @@
         <v>392</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4131,7 +4069,7 @@
         <v>393</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4148,13 +4086,13 @@
         <v>376</v>
       </c>
       <c r="E5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>394</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4171,13 +4109,13 @@
         <v>377</v>
       </c>
       <c r="E6" t="s">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>395</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4203,7 +4141,7 @@
         <v>396</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4229,7 +4167,7 @@
         <v>397</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4255,7 +4193,7 @@
         <v>398</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4272,7 +4210,7 @@
         <v>379</v>
       </c>
       <c r="E10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F10" t="s">
         <v>390</v>
@@ -4281,7 +4219,7 @@
         <v>399</v>
       </c>
       <c r="J10" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4300,6 +4238,12 @@
       <c r="E11" t="s">
         <v>385</v>
       </c>
+      <c r="I11" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
@@ -4315,13 +4259,13 @@
         <v>380</v>
       </c>
       <c r="E12" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4340,6 +4284,12 @@
       <c r="E13" t="s">
         <v>386</v>
       </c>
+      <c r="I13" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
@@ -4355,13 +4305,13 @@
         <v>381</v>
       </c>
       <c r="E14" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -4383,10 +4333,14 @@
     <hyperlink ref="I9" r:id="rId15"/>
     <hyperlink ref="J9" r:id="rId16"/>
     <hyperlink ref="I10" r:id="rId17"/>
-    <hyperlink ref="I12" r:id="rId18"/>
-    <hyperlink ref="J12" r:id="rId19"/>
-    <hyperlink ref="I14" r:id="rId20"/>
-    <hyperlink ref="J14" r:id="rId21"/>
+    <hyperlink ref="I11" r:id="rId18"/>
+    <hyperlink ref="J11" r:id="rId19"/>
+    <hyperlink ref="I12" r:id="rId20"/>
+    <hyperlink ref="J12" r:id="rId21"/>
+    <hyperlink ref="I13" r:id="rId22"/>
+    <hyperlink ref="J13" r:id="rId23"/>
+    <hyperlink ref="I14" r:id="rId24"/>
+    <hyperlink ref="J14" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4426,171 +4380,171 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B2" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C2" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="D2" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="E2" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B3" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C3" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="D3" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="E3" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B4" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C4" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="D4" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="E4" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="J4" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B5" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C5" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="D5" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="E5" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B6" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C6" t="s">
         <v>372</v>
       </c>
       <c r="D6" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="E6" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="J6" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="D7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="E7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="J7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B8" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C8" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="D8" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="E8" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>

--- a/excel_input/Updated_KEY_ORGANIZERS.xlsx
+++ b/excel_input/Updated_KEY_ORGANIZERS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="469">
   <si>
     <t>Name</t>
   </si>
@@ -92,12 +92,18 @@
     <t xml:space="preserve">PMCC </t>
   </si>
   <si>
+    <t>Local</t>
+  </si>
+  <si>
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/FB_IMG_1568043945443_Fenil%20Mehta.jpg</t>
   </si>
   <si>
     <t>https://drive.google.com/open?id=1HA9k5zKKLL1Ko6LDw_0sPQyHwfKBwHVC</t>
   </si>
   <si>
+    <t>https://www.linkedin.com/in/mark-buchner-bb6a7013/</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/fenilmehta</t>
   </si>
   <si>
@@ -1226,15 +1232,9 @@
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/Scanned%20Documents%20(4)_page-0001_Safal%20Maharjan.jpg</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=1XKVU365ZuB6lFu9WVhiPaiAwiH7D9cvL</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1T5h0SN3_Zfg8zjtj4WYwAm645cRPt2KB</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=1FpH4NBZkeK__6cw-6gzFN78vlaSLQH4i</t>
-  </si>
-  <si>
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/JUSTICE_Justice%20Asiedu.jpg</t>
   </si>
   <si>
@@ -1265,13 +1265,7 @@
     <t>www.linkedin.com/in/safal-maharjan-704588249</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/in/vanshil-lukhad-8a76412b4?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=ios_app</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/in/kaifee-ali-23a3aa7a/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/sandeep-rajkumar/</t>
   </si>
   <si>
     <t>https://www.linkedin.com/in/justice-asiedu-b42855346/</t>
@@ -1861,6 +1855,12 @@
       <c r="E2" t="s">
         <v>19</v>
       </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
@@ -1879,10 +1879,10 @@
         <v>20</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1902,17 +1902,18 @@
         <v>21</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I3" r:id="rId1"/>
-    <hyperlink ref="J3" r:id="rId2"/>
-    <hyperlink ref="I4" r:id="rId3"/>
+    <hyperlink ref="J2" r:id="rId1"/>
+    <hyperlink ref="I3" r:id="rId2"/>
+    <hyperlink ref="J3" r:id="rId3"/>
+    <hyperlink ref="I4" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1960,39 +1961,39 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C2" t="s">
+        <v>458</v>
+      </c>
+      <c r="D2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E2" t="s">
         <v>460</v>
       </c>
-      <c r="D2" t="s">
+      <c r="I2" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="E2" t="s">
-        <v>462</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>463</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C3" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
@@ -2000,25 +2001,25 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B4" t="s">
+        <v>457</v>
+      </c>
+      <c r="C4" t="s">
+        <v>307</v>
+      </c>
+      <c r="D4" t="s">
         <v>459</v>
       </c>
-      <c r="C4" t="s">
-        <v>305</v>
-      </c>
-      <c r="D4" t="s">
-        <v>461</v>
-      </c>
       <c r="E4" t="s">
+        <v>460</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" t="s">
         <v>464</v>
-      </c>
-      <c r="J4" t="s">
-        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -2073,16 +2074,16 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C2" t="s">
         <v>467</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>468</v>
-      </c>
-      <c r="C2" t="s">
-        <v>469</v>
-      </c>
-      <c r="D2" t="s">
-        <v>470</v>
       </c>
     </row>
   </sheetData>
@@ -2132,385 +2133,385 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
         <v>19</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E15" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J15" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E17" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2584,25 +2585,25 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2656,244 +2657,244 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D9" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D10" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B11" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C11" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D11" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -2965,358 +2966,358 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C6" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B8" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C9" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D9" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E9" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B10" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C10" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D10" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B11" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C11" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D11" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E11" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B12" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C12" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D12" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E12" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B13" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C13" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D13" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E13" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B14" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C14" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D14" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E14" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B15" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C15" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D15" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E15" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B16" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C16" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D16" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E16" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C17" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D17" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -3392,91 +3393,91 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D3" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B5" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C5" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D5" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
@@ -3484,48 +3485,48 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B6" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C6" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D6" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -3587,341 +3588,341 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C3" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D3" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E3" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B4" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D4" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B5" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C5" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D5" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="J5" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B6" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C6" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D6" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E6" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B8" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C8" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D8" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B9" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C9" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D9" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B10" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C10" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D10" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E10" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B11" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C11" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D11" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E11" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B12" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C12" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D12" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E12" t="s">
         <v>20</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B13" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C13" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D13" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E13" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B14" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C14" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D14" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E14" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B15" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C15" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D15" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="J15" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B16" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C16" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D16" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -3999,25 +4000,25 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E2" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>404</v>
@@ -4025,25 +4026,25 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B3" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C3" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D3" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>405</v>
@@ -4051,22 +4052,22 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B4" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C4" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D4" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E4" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>406</v>
@@ -4074,22 +4075,22 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B5" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C5" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D5" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>407</v>
@@ -4097,22 +4098,22 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B6" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C6" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D6" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>408</v>
@@ -4120,25 +4121,25 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>409</v>
@@ -4146,25 +4147,25 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B8" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C8" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D8" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E8" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F8" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>410</v>
@@ -4172,25 +4173,25 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B9" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C9" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D9" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E9" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F9" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>411</v>
@@ -4198,25 +4199,25 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B10" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C10" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D10" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F10" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="J10" t="s">
         <v>412</v>
@@ -4224,94 +4225,82 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B11" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C11" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D11" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E11" t="s">
-        <v>385</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>413</v>
+        <v>387</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B12" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C12" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D12" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E12" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B13" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C13" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D13" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E13" t="s">
-        <v>386</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>415</v>
+        <v>388</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B14" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C14" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D14" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E14" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>403</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -4333,14 +4322,10 @@
     <hyperlink ref="I9" r:id="rId15"/>
     <hyperlink ref="J9" r:id="rId16"/>
     <hyperlink ref="I10" r:id="rId17"/>
-    <hyperlink ref="I11" r:id="rId18"/>
-    <hyperlink ref="J11" r:id="rId19"/>
-    <hyperlink ref="I12" r:id="rId20"/>
-    <hyperlink ref="J12" r:id="rId21"/>
-    <hyperlink ref="I13" r:id="rId22"/>
-    <hyperlink ref="J13" r:id="rId23"/>
-    <hyperlink ref="I14" r:id="rId24"/>
-    <hyperlink ref="J14" r:id="rId25"/>
+    <hyperlink ref="I12" r:id="rId18"/>
+    <hyperlink ref="J12" r:id="rId19"/>
+    <hyperlink ref="I14" r:id="rId20"/>
+    <hyperlink ref="J14" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4388,163 +4373,163 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E2" t="s">
+        <v>436</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>440</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D3" t="s">
         <v>431</v>
       </c>
-      <c r="D3" t="s">
-        <v>433</v>
-      </c>
       <c r="E3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B4" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="J4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D5" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C6" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="J6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B7" t="s">
+        <v>427</v>
+      </c>
+      <c r="C7" t="s">
         <v>429</v>
       </c>
-      <c r="C7" t="s">
-        <v>431</v>
-      </c>
       <c r="D7" t="s">
+        <v>435</v>
+      </c>
+      <c r="E7" t="s">
         <v>437</v>
       </c>
-      <c r="E7" t="s">
-        <v>439</v>
-      </c>
       <c r="I7" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="J7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B8" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D8" t="s">
+        <v>435</v>
+      </c>
+      <c r="E8" t="s">
         <v>437</v>
       </c>
-      <c r="E8" t="s">
-        <v>439</v>
-      </c>
       <c r="I8" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>

--- a/excel_input/Updated_KEY_ORGANIZERS.xlsx
+++ b/excel_input/Updated_KEY_ORGANIZERS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="473">
   <si>
     <t>Name</t>
   </si>
@@ -1232,9 +1232,15 @@
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/Scanned%20Documents%20(4)_page-0001_Safal%20Maharjan.jpg</t>
   </si>
   <si>
+    <t>https://drive.google.com/open?id=1XKVU365ZuB6lFu9WVhiPaiAwiH7D9cvL</t>
+  </si>
+  <si>
     <t>https://drive.google.com/open?id=1T5h0SN3_Zfg8zjtj4WYwAm645cRPt2KB</t>
   </si>
   <si>
+    <t>https://drive.google.com/open?id=1FpH4NBZkeK__6cw-6gzFN78vlaSLQH4i</t>
+  </si>
+  <si>
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/JUSTICE_Justice%20Asiedu.jpg</t>
   </si>
   <si>
@@ -1265,7 +1271,13 @@
     <t>www.linkedin.com/in/safal-maharjan-704588249</t>
   </si>
   <si>
+    <t>https://www.linkedin.com/in/vanshil-lukhad-8a76412b4?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=ios_app</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/kaifee-ali-23a3aa7a/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/sandeep-rajkumar/</t>
   </si>
   <si>
     <t>https://www.linkedin.com/in/justice-asiedu-b42855346/</t>
@@ -1961,39 +1973,39 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B2" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="C2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="D2" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="E2" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B3" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="C3" t="s">
         <v>307</v>
       </c>
       <c r="D3" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
@@ -2001,25 +2013,25 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B4" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="C4" t="s">
         <v>307</v>
       </c>
       <c r="D4" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="E4" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="J4" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -2074,16 +2086,16 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B2" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="C2" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="D2" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
   </sheetData>
@@ -4021,7 +4033,7 @@
         <v>393</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4047,7 +4059,7 @@
         <v>394</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4070,7 +4082,7 @@
         <v>395</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4093,7 +4105,7 @@
         <v>396</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4116,7 +4128,7 @@
         <v>397</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4142,7 +4154,7 @@
         <v>398</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4168,7 +4180,7 @@
         <v>399</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4194,7 +4206,7 @@
         <v>400</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4220,7 +4232,7 @@
         <v>401</v>
       </c>
       <c r="J10" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4239,6 +4251,12 @@
       <c r="E11" t="s">
         <v>387</v>
       </c>
+      <c r="I11" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
@@ -4257,10 +4275,10 @@
         <v>146</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4279,6 +4297,12 @@
       <c r="E13" t="s">
         <v>388</v>
       </c>
+      <c r="I13" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
@@ -4297,10 +4321,10 @@
         <v>147</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -4322,10 +4346,14 @@
     <hyperlink ref="I9" r:id="rId15"/>
     <hyperlink ref="J9" r:id="rId16"/>
     <hyperlink ref="I10" r:id="rId17"/>
-    <hyperlink ref="I12" r:id="rId18"/>
-    <hyperlink ref="J12" r:id="rId19"/>
-    <hyperlink ref="I14" r:id="rId20"/>
-    <hyperlink ref="J14" r:id="rId21"/>
+    <hyperlink ref="I11" r:id="rId18"/>
+    <hyperlink ref="J11" r:id="rId19"/>
+    <hyperlink ref="I12" r:id="rId20"/>
+    <hyperlink ref="J12" r:id="rId21"/>
+    <hyperlink ref="I13" r:id="rId22"/>
+    <hyperlink ref="J13" r:id="rId23"/>
+    <hyperlink ref="I14" r:id="rId24"/>
+    <hyperlink ref="J14" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4373,163 +4401,163 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B2" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C2" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="D2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="E2" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B3" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C3" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="D3" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="E3" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B4" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C4" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="D4" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="E4" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="J4" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B5" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C5" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="D5" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="E5" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B6" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C6" t="s">
         <v>374</v>
       </c>
       <c r="D6" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="E6" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="J6" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="D7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="E7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="J7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B8" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C8" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="D8" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="E8" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>

--- a/excel_input/Updated_KEY_ORGANIZERS.xlsx
+++ b/excel_input/Updated_KEY_ORGANIZERS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="475">
   <si>
     <t>Name</t>
   </si>
@@ -1004,6 +1004,9 @@
     <t>https://drive.google.com/open?id=1dF4UBgpXNhmyZZOYcdj4I5m-aBklExeX</t>
   </si>
   <si>
+    <t>https://drive.google.com/open?id=17q1nBpY-5VRkomV-HiveiEKXibmNlrFc</t>
+  </si>
+  <si>
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/DSC_0011_Khassan%20Suleimanov.jpg</t>
   </si>
   <si>
@@ -1046,6 +1049,9 @@
     <t>https://www.linkedin.com/in/aryan-sharma-682a46290</t>
   </si>
   <si>
+    <t>https://www.linkedin.com/in/shayan-heydari-4a76b9212/overlay/about-this-profile/?lipi=urn%3Ali%3Apage%3Ad_flagship3_profile_view_base%3BaywOfnIhQh2Cs%2Fx9qC7xvg%3D%3D</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/khassan-suleimanov-494591254?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=ios_app</t>
   </si>
   <si>
@@ -1436,7 +1442,7 @@
     <t>Kohulan Thevananthan</t>
   </si>
   <si>
-    <t>kthevananthan@myseneca.ca</t>
+    <t>kohulan06@hotmail.com</t>
   </si>
   <si>
     <t>Issue Management</t>
@@ -1973,39 +1979,39 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B2" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C2" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D2" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B3" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C3" t="s">
         <v>307</v>
       </c>
       <c r="D3" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
@@ -2013,25 +2019,25 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B4" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C4" t="s">
         <v>307</v>
       </c>
       <c r="D4" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E4" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="J4" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
   </sheetData>
@@ -2086,16 +2092,16 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B2" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D2" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -3618,7 +3624,7 @@
         <v>320</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3641,7 +3647,7 @@
         <v>321</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3664,7 +3670,7 @@
         <v>322</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3687,7 +3693,7 @@
         <v>323</v>
       </c>
       <c r="J5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3710,7 +3716,7 @@
         <v>324</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3733,7 +3739,7 @@
         <v>325</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3752,6 +3758,12 @@
       <c r="E8" t="s">
         <v>80</v>
       </c>
+      <c r="I8" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
@@ -3770,10 +3782,10 @@
         <v>80</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3793,10 +3805,10 @@
         <v>319</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3816,10 +3828,10 @@
         <v>147</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3839,10 +3851,10 @@
         <v>20</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3862,10 +3874,10 @@
         <v>146</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3885,10 +3897,10 @@
         <v>147</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -3908,10 +3920,10 @@
         <v>80</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J15" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -3931,10 +3943,10 @@
         <v>80</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -3950,21 +3962,23 @@
     <hyperlink ref="J6" r:id="rId9"/>
     <hyperlink ref="I7" r:id="rId10"/>
     <hyperlink ref="J7" r:id="rId11"/>
-    <hyperlink ref="I9" r:id="rId12"/>
-    <hyperlink ref="J9" r:id="rId13"/>
-    <hyperlink ref="I10" r:id="rId14"/>
-    <hyperlink ref="J10" r:id="rId15"/>
-    <hyperlink ref="I11" r:id="rId16"/>
-    <hyperlink ref="J11" r:id="rId17"/>
-    <hyperlink ref="I12" r:id="rId18"/>
-    <hyperlink ref="J12" r:id="rId19"/>
-    <hyperlink ref="I13" r:id="rId20"/>
-    <hyperlink ref="J13" r:id="rId21"/>
-    <hyperlink ref="I14" r:id="rId22"/>
-    <hyperlink ref="J14" r:id="rId23"/>
-    <hyperlink ref="I15" r:id="rId24"/>
-    <hyperlink ref="I16" r:id="rId25"/>
-    <hyperlink ref="J16" r:id="rId26"/>
+    <hyperlink ref="I8" r:id="rId12"/>
+    <hyperlink ref="J8" r:id="rId13"/>
+    <hyperlink ref="I9" r:id="rId14"/>
+    <hyperlink ref="J9" r:id="rId15"/>
+    <hyperlink ref="I10" r:id="rId16"/>
+    <hyperlink ref="J10" r:id="rId17"/>
+    <hyperlink ref="I11" r:id="rId18"/>
+    <hyperlink ref="J11" r:id="rId19"/>
+    <hyperlink ref="I12" r:id="rId20"/>
+    <hyperlink ref="J12" r:id="rId21"/>
+    <hyperlink ref="I13" r:id="rId22"/>
+    <hyperlink ref="J13" r:id="rId23"/>
+    <hyperlink ref="I14" r:id="rId24"/>
+    <hyperlink ref="J14" r:id="rId25"/>
+    <hyperlink ref="I15" r:id="rId26"/>
+    <hyperlink ref="I16" r:id="rId27"/>
+    <hyperlink ref="J16" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4012,319 +4026,319 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B3" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C3" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D3" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B4" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C4" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D4" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E4" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B5" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C5" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E5" t="s">
         <v>146</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B6" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C6" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D6" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B8" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C8" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D8" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E8" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F8" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B9" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C9" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E9" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F9" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B10" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C10" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D10" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E10" t="s">
         <v>147</v>
       </c>
       <c r="F10" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="J10" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B11" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C11" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D11" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E11" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B12" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C12" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D12" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E12" t="s">
         <v>146</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B13" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C13" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D13" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E13" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B14" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C14" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D14" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E14" t="s">
         <v>147</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -4401,163 +4415,163 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D2" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="E2" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B3" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C3" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D3" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="E3" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B4" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C4" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D4" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E4" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="J4" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B5" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C5" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D5" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="E5" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B6" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C6" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D6" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="E6" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="J6" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="J7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B8" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C8" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D8" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E8" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>

--- a/excel_input/Updated_KEY_ORGANIZERS.xlsx
+++ b/excel_input/Updated_KEY_ORGANIZERS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="479">
   <si>
     <t>Name</t>
   </si>
@@ -314,6 +314,9 @@
     <t>https://drive.google.com/open?id=1kOulKtSTul33QovaultMkBFaSES_LupB</t>
   </si>
   <si>
+    <t>https://drive.google.com/open?id=1EHlMOoc6jlJh_hl0mrV6GzpWIr5BSOpr</t>
+  </si>
+  <si>
     <t>https://drive.google.com/open?id=1L7V9eDoHm-AYcg7zHzqWLs_N63RmBKzs</t>
   </si>
   <si>
@@ -323,6 +326,9 @@
     <t>https://drive.google.com/open?id=1aqjdsxVCHgsRZp5EqOxFUyNCVwv-rBB0</t>
   </si>
   <si>
+    <t>https://drive.google.com/open?id=1aE4I4yT6QQfJ7fRBT5pLVlJuznVu0UuG</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/irusmajam/</t>
   </si>
   <si>
@@ -353,6 +359,9 @@
     <t>https://www.linkedin.com/in/haru-ai/</t>
   </si>
   <si>
+    <t>www.linkedin.com/in/owen-nelson-19a940346</t>
+  </si>
+  <si>
     <t>www.linkedin.com/in/connor-liberman-02a582274</t>
   </si>
   <si>
@@ -362,6 +371,9 @@
     <t>https://www.linkedin.com/in/sanjan-monga-b6054a328?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=ios_app</t>
   </si>
   <si>
+    <t>https://www.linkedin.com/me?trk=p_mwlite_search_srp-secondary_nav</t>
+  </si>
+  <si>
     <t>Seyedesomaye Najafi (Samira)</t>
   </si>
   <si>
@@ -449,7 +461,7 @@
     <t>Partner Experience Director</t>
   </si>
   <si>
-    <t xml:space="preserve">Project Control Officer. Partner Exp. </t>
+    <t>Partner Exp. Manager</t>
   </si>
   <si>
     <t>Partner Exp.  Officer</t>
@@ -734,6 +746,9 @@
     <t>https://drive.google.com/file/d/1zEn6rerBv3fw7kH0-xTuSJcBHEMHyxbM/view?usp=drive_link</t>
   </si>
   <si>
+    <t>https://drive.google.com/open?id=1f8n1_2oXjz4PuJI51VyWrkW4cIzWqvxV</t>
+  </si>
+  <si>
     <t>www.linkedin.com/in/khris-sadiasa-69710518b</t>
   </si>
   <si>
@@ -776,6 +791,9 @@
     <t>https://www.linkedin.com/in/shaurya0908/</t>
   </si>
   <si>
+    <t>http://www.linkedin.com/in/adeejave</t>
+  </si>
+  <si>
     <t>Ameya Mangesh Kokatay</t>
   </si>
   <si>
@@ -836,6 +854,9 @@
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_3813_Harmanjot%20Singh.jpeg</t>
   </si>
   <si>
+    <t>https://drive.google.com/open?id=1PuMDl_nw8T51Qd5ptshKjeGzIslrTweN</t>
+  </si>
+  <si>
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_7466_Keerthivaasan%20Elango.jpeg</t>
   </si>
   <si>
@@ -851,6 +872,9 @@
     <t>http://linkedin.com/in/harmanjot-singh-05807820b</t>
   </si>
   <si>
+    <t>https://www.linkedin.com/in/rowenadollison/</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/keerthivaasan01?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=ios_app</t>
   </si>
   <si>
@@ -1097,9 +1121,6 @@
     <t>Ayda Safiri</t>
   </si>
   <si>
-    <t>Mobina Kazemi</t>
-  </si>
-  <si>
     <t>Safal Maharjan</t>
   </si>
   <si>
@@ -1136,9 +1157,6 @@
     <t>asafiri1@myseneca.ca</t>
   </si>
   <si>
-    <t>kmobina@myseneca.ca</t>
-  </si>
-  <si>
     <t>smaharjan34@myseneca.ca</t>
   </si>
   <si>
@@ -1232,9 +1250,6 @@
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/Screenshot_20250108_210739_Instagram_Ayda%20Safiri.jpg</t>
   </si>
   <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_6036_Mobina%20Kazemi.jpeg</t>
-  </si>
-  <si>
     <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/Scanned%20Documents%20(4)_page-0001_Safal%20Maharjan.jpg</t>
   </si>
   <si>
@@ -1269,9 +1284,6 @@
   </si>
   <si>
     <t>https://www.linkedin.com/in/aydasafiri</t>
-  </si>
-  <si>
-    <t>http://linkedin.com/in/mobina-kazemi-396992311</t>
   </si>
   <si>
     <t>www.linkedin.com/in/safal-maharjan-704588249</t>
@@ -1979,39 +1991,39 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B2" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C2" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="D2" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="E2" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B3" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="C3" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="D3" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
@@ -2019,25 +2031,25 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="B4" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C4" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="D4" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="E4" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="J4" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -2092,16 +2104,16 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B2" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="C2" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="D2" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -2169,7 +2181,7 @@
         <v>86</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2192,7 +2204,7 @@
         <v>87</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2218,7 +2230,7 @@
         <v>88</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2244,7 +2256,7 @@
         <v>89</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2270,7 +2282,7 @@
         <v>90</v>
       </c>
       <c r="J6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2296,7 +2308,7 @@
         <v>91</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2319,7 +2331,7 @@
         <v>92</v>
       </c>
       <c r="J8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2342,7 +2354,7 @@
         <v>93</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2368,7 +2380,7 @@
         <v>94</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2414,7 +2426,7 @@
         <v>95</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2436,6 +2448,12 @@
       <c r="F13" t="s">
         <v>85</v>
       </c>
+      <c r="I13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J13" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
@@ -2457,10 +2475,10 @@
         <v>85</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J14" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2483,10 +2501,10 @@
         <v>85</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J15" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2509,13 +2527,13 @@
         <v>85</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -2530,6 +2548,12 @@
       </c>
       <c r="E17" t="s">
         <v>80</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2552,10 +2576,13 @@
     <hyperlink ref="J10" r:id="rId16"/>
     <hyperlink ref="I12" r:id="rId17"/>
     <hyperlink ref="J12" r:id="rId18"/>
-    <hyperlink ref="I14" r:id="rId19"/>
-    <hyperlink ref="I15" r:id="rId20"/>
-    <hyperlink ref="I16" r:id="rId21"/>
-    <hyperlink ref="J16" r:id="rId22"/>
+    <hyperlink ref="I13" r:id="rId19"/>
+    <hyperlink ref="I14" r:id="rId20"/>
+    <hyperlink ref="I15" r:id="rId21"/>
+    <hyperlink ref="I16" r:id="rId22"/>
+    <hyperlink ref="J16" r:id="rId23"/>
+    <hyperlink ref="I17" r:id="rId24"/>
+    <hyperlink ref="J17" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2603,25 +2630,25 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2675,244 +2702,244 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D4" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E4" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D5" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E5" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F5" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E6" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B8" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C8" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D8" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E8" t="s">
         <v>80</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C9" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D9" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E9" t="s">
         <v>80</v>
       </c>
       <c r="F9" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B10" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C10" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D10" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E10" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C11" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D11" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E11" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2984,358 +3011,364 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="J2" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B3" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C3" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D3" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E3" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C4" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D4" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E4" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="J4" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B5" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D5" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E5" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B6" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C6" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D6" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E6" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="J7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B8" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C8" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D8" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E8" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="J8" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B9" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C9" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D9" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E9" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B10" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C10" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D10" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E10" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B11" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C11" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D11" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E11" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B12" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C12" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D12" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E12" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B13" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C13" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D13" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E13" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B14" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C14" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D14" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E14" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B15" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C15" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D15" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E15" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B16" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C16" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D16" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E16" t="s">
-        <v>220</v>
+        <v>224</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B17" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C17" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D17" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E17" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -3364,6 +3397,8 @@
     <hyperlink ref="J14" r:id="rId22"/>
     <hyperlink ref="I15" r:id="rId23"/>
     <hyperlink ref="J15" r:id="rId24"/>
+    <hyperlink ref="I16" r:id="rId25"/>
+    <hyperlink ref="J16" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3411,140 +3446,146 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B2" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C2" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="D2" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="E2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B3" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C3" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="D3" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B4" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C4" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="D4" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B5" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C5" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="D5" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
       </c>
+      <c r="I5" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B6" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C6" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="D6" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="E6" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="D7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="E7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -3555,10 +3596,12 @@
     <hyperlink ref="J3" r:id="rId4"/>
     <hyperlink ref="I4" r:id="rId5"/>
     <hyperlink ref="J4" r:id="rId6"/>
-    <hyperlink ref="I6" r:id="rId7"/>
-    <hyperlink ref="J6" r:id="rId8"/>
-    <hyperlink ref="I7" r:id="rId9"/>
-    <hyperlink ref="J7" r:id="rId10"/>
+    <hyperlink ref="I5" r:id="rId7"/>
+    <hyperlink ref="J5" r:id="rId8"/>
+    <hyperlink ref="I6" r:id="rId9"/>
+    <hyperlink ref="J6" r:id="rId10"/>
+    <hyperlink ref="I7" r:id="rId11"/>
+    <hyperlink ref="J7" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3606,347 +3649,347 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B2" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="C2" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="D2" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="E2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B3" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="C3" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="D3" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E3" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B4" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="C4" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="D4" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="E4" t="s">
         <v>80</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="B5" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="C5" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="D5" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="E5" t="s">
         <v>80</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="J5" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="B6" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="C6" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="D6" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="E6" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="B7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="C7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="D7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="E7" t="s">
         <v>80</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B8" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="C8" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="D8" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="E8" t="s">
         <v>80</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="B9" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C9" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="D9" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="E9" t="s">
         <v>80</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="B10" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="C10" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="D10" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="E10" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="B11" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="C11" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="D11" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="E11" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="B12" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="C12" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="D12" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="E12" t="s">
         <v>20</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="B13" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="C13" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="D13" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="E13" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="B14" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="C14" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="D14" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="E14" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="B15" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="C15" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="D15" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="E15" t="s">
         <v>80</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="J15" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="B16" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="C16" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="D16" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="E16" t="s">
         <v>80</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -3986,7 +4029,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4026,319 +4069,293 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B2" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="C2" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="D2" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="E2" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="F2" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="B3" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="C3" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="D3" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="B4" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="C4" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="D4" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="E4" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="B5" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="C5" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="D5" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="E5" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="B6" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="C6" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="D6" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="B7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="C7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="D7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="E7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="F7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="B8" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="C8" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="D8" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="E8" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="F8" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="B9" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="C9" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="D9" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="E9" t="s">
-        <v>388</v>
+        <v>151</v>
       </c>
       <c r="F9" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>415</v>
+        <v>408</v>
+      </c>
+      <c r="J9" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="B10" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="C10" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="D10" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="E10" t="s">
-        <v>147</v>
-      </c>
-      <c r="F10" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="J10" t="s">
-        <v>416</v>
+        <v>409</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="B11" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="C11" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="D11" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="E11" t="s">
-        <v>389</v>
+        <v>150</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="B12" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="C12" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="D12" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="E12" t="s">
-        <v>146</v>
+        <v>396</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="B13" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="C13" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="D13" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="E13" t="s">
-        <v>390</v>
+        <v>151</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
-        <v>362</v>
-      </c>
-      <c r="B14" t="s">
-        <v>375</v>
-      </c>
-      <c r="C14" t="s">
-        <v>376</v>
-      </c>
-      <c r="D14" t="s">
-        <v>385</v>
-      </c>
-      <c r="E14" t="s">
-        <v>147</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -4358,16 +4375,14 @@
     <hyperlink ref="I8" r:id="rId13"/>
     <hyperlink ref="J8" r:id="rId14"/>
     <hyperlink ref="I9" r:id="rId15"/>
-    <hyperlink ref="J9" r:id="rId16"/>
-    <hyperlink ref="I10" r:id="rId17"/>
+    <hyperlink ref="I10" r:id="rId16"/>
+    <hyperlink ref="J10" r:id="rId17"/>
     <hyperlink ref="I11" r:id="rId18"/>
     <hyperlink ref="J11" r:id="rId19"/>
     <hyperlink ref="I12" r:id="rId20"/>
     <hyperlink ref="J12" r:id="rId21"/>
     <hyperlink ref="I13" r:id="rId22"/>
     <hyperlink ref="J13" r:id="rId23"/>
-    <hyperlink ref="I14" r:id="rId24"/>
-    <hyperlink ref="J14" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4415,163 +4430,163 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B2" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C2" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="D2" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="E2" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B3" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C3" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="D3" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="E3" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B4" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C4" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="D4" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="E4" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="J4" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B5" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C5" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="D5" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="E5" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B6" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C6" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="D6" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="E6" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="J6" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="D7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="E7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="J7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B8" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="C8" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="D8" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="E8" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>
